--- a/Assets/06.Table/Byeolho.xlsx
+++ b/Assets/06.Table/Byeolho.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA26E4AF-1482-4108-B460-5E1EF4A4CE4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4313D28B-425A-4242-9EA8-19C282D071DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Byeolho" sheetId="1" r:id="rId1"/>
@@ -965,9 +965,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="C27" s="20">
         <f>VLOOKUP(A27,Balance!O:R,2,FALSE)</f>
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="D27">
         <f t="shared" si="2"/>
@@ -1732,7 +1732,7 @@
       </c>
       <c r="C28" s="20">
         <f>VLOOKUP(A28,Balance!O:R,2,FALSE)</f>
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="D28">
         <f t="shared" si="0"/>
@@ -1760,7 +1760,7 @@
       </c>
       <c r="C29" s="20">
         <f>VLOOKUP(A29,Balance!O:R,2,FALSE)</f>
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="D29">
         <f t="shared" si="2"/>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="C30" s="20">
         <f>VLOOKUP(A30,Balance!O:R,2,FALSE)</f>
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="D30">
         <f t="shared" si="0"/>
@@ -1816,7 +1816,7 @@
       </c>
       <c r="C31" s="20">
         <f>VLOOKUP(A31,Balance!O:R,2,FALSE)</f>
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="D31">
         <f t="shared" si="2"/>
@@ -1846,8 +1846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A9B4BA-49ED-4B77-9780-496F10280935}">
   <dimension ref="A1:AE178"/>
   <sheetViews>
-    <sheetView topLeftCell="K3" workbookViewId="0">
-      <selection activeCell="Q48" sqref="Q48"/>
+    <sheetView tabSelected="1" topLeftCell="K20" workbookViewId="0">
+      <selection activeCell="Z33" sqref="Z33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2017,7 +2017,6 @@
         <v>100000</v>
       </c>
       <c r="Q10" s="19">
-        <f>Q9+ROUNDDOWN(U10,0)*Y10</f>
         <v>12.5</v>
       </c>
       <c r="R10" s="12" t="str">
@@ -2072,7 +2071,6 @@
         <v>100000</v>
       </c>
       <c r="Q11" s="19">
-        <f t="shared" ref="Q11:Q48" si="3">Q10+ROUNDDOWN(U11,0)*Y11</f>
         <v>16</v>
       </c>
       <c r="R11" s="12" t="str">
@@ -2080,7 +2078,7 @@
         <v>환골 탈태 3단</v>
       </c>
       <c r="S11" s="12">
-        <f t="shared" ref="S11:S38" si="4">S10+1</f>
+        <f t="shared" ref="S11:S38" si="3">S10+1</f>
         <v>3</v>
       </c>
       <c r="T11" s="12" t="s">
@@ -2092,11 +2090,11 @@
       </c>
       <c r="V11" s="21"/>
       <c r="W11" s="21">
-        <f t="shared" ref="W11:W18" si="5">(Q11-Q10)*100/Q10</f>
+        <f t="shared" ref="W11:W18" si="4">(Q11-Q10)*100/Q10</f>
         <v>28</v>
       </c>
       <c r="X11" s="21">
-        <f t="shared" ref="X11:X38" si="6">W11/U11</f>
+        <f t="shared" ref="X11:X38" si="5">W11/U11</f>
         <v>5.2359999999999998</v>
       </c>
       <c r="Y11" s="8">
@@ -2127,7 +2125,6 @@
         <v>100000</v>
       </c>
       <c r="Q12" s="19">
-        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="R12" s="12" t="str">
@@ -2135,7 +2132,7 @@
         <v>환골 탈태 4단</v>
       </c>
       <c r="S12" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="T12" s="12" t="s">
@@ -2150,11 +2147,11 @@
         <v>5.3475935828877006</v>
       </c>
       <c r="W12" s="21">
+        <f t="shared" si="4"/>
+        <v>31.25</v>
+      </c>
+      <c r="X12" s="21">
         <f t="shared" si="5"/>
-        <v>31.25</v>
-      </c>
-      <c r="X12" s="21">
-        <f t="shared" si="6"/>
         <v>5.84375</v>
       </c>
       <c r="Y12" s="8">
@@ -2186,7 +2183,6 @@
         <v>100000</v>
       </c>
       <c r="Q13" s="19">
-        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="R13" s="12" t="str">
@@ -2194,7 +2190,7 @@
         <v>환골 탈태 5단</v>
       </c>
       <c r="S13" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="T13" s="12" t="s">
@@ -2209,11 +2205,11 @@
         <v>10.695187165775401</v>
       </c>
       <c r="W13" s="21">
+        <f t="shared" si="4"/>
+        <v>28.571428571428573</v>
+      </c>
+      <c r="X13" s="21">
         <f t="shared" si="5"/>
-        <v>28.571428571428573</v>
-      </c>
-      <c r="X13" s="21">
-        <f t="shared" si="6"/>
         <v>5.3428571428571434</v>
       </c>
       <c r="Y13" s="8">
@@ -2231,7 +2227,7 @@
         <v>21</v>
       </c>
       <c r="F14" s="15">
-        <f t="shared" ref="F14:F77" si="7">F10+1000</f>
+        <f t="shared" ref="F14:F77" si="6">F10+1000</f>
         <v>2000</v>
       </c>
       <c r="G14" s="15">
@@ -2245,7 +2241,6 @@
         <v>100000</v>
       </c>
       <c r="Q14" s="19">
-        <f t="shared" si="3"/>
         <v>34.5</v>
       </c>
       <c r="R14" s="12" t="str">
@@ -2253,7 +2248,7 @@
         <v>환골 탈태 6단</v>
       </c>
       <c r="S14" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="T14" s="12" t="s">
@@ -2268,11 +2263,11 @@
         <v>16.042780748663102</v>
       </c>
       <c r="W14" s="21">
+        <f t="shared" si="4"/>
+        <v>27.777777777777779</v>
+      </c>
+      <c r="X14" s="23">
         <f t="shared" si="5"/>
-        <v>27.777777777777779</v>
-      </c>
-      <c r="X14" s="23">
-        <f t="shared" si="6"/>
         <v>5.1944444444444446</v>
       </c>
       <c r="Y14">
@@ -2290,7 +2285,7 @@
         <v>22</v>
       </c>
       <c r="F15" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2000</v>
       </c>
       <c r="G15" s="15">
@@ -2304,7 +2299,6 @@
         <v>100000</v>
       </c>
       <c r="Q15" s="19">
-        <f t="shared" si="3"/>
         <v>44</v>
       </c>
       <c r="R15" s="12" t="str">
@@ -2312,7 +2306,7 @@
         <v>환골 탈태 7단</v>
       </c>
       <c r="S15" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="T15" s="12" t="s">
@@ -2327,11 +2321,11 @@
         <v>21.390374331550802</v>
       </c>
       <c r="W15" s="21">
+        <f t="shared" si="4"/>
+        <v>27.536231884057973</v>
+      </c>
+      <c r="X15" s="21">
         <f t="shared" si="5"/>
-        <v>27.536231884057973</v>
-      </c>
-      <c r="X15" s="21">
-        <f t="shared" si="6"/>
         <v>5.149275362318841</v>
       </c>
       <c r="Y15" s="8">
@@ -2349,7 +2343,7 @@
         <v>23</v>
       </c>
       <c r="F16" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2000</v>
       </c>
       <c r="G16" s="15">
@@ -2363,7 +2357,6 @@
         <v>100000</v>
       </c>
       <c r="Q16" s="19">
-        <f t="shared" si="3"/>
         <v>56.5</v>
       </c>
       <c r="R16" s="12" t="str">
@@ -2371,7 +2364,7 @@
         <v>환골 탈태 8단</v>
       </c>
       <c r="S16" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="T16" s="12" t="s">
@@ -2386,11 +2379,11 @@
         <v>26.737967914438503</v>
       </c>
       <c r="W16" s="21">
+        <f t="shared" si="4"/>
+        <v>28.40909090909091</v>
+      </c>
+      <c r="X16" s="21">
         <f t="shared" si="5"/>
-        <v>28.40909090909091</v>
-      </c>
-      <c r="X16" s="21">
-        <f t="shared" si="6"/>
         <v>5.3125</v>
       </c>
       <c r="Y16" s="8">
@@ -2408,7 +2401,7 @@
         <v>24</v>
       </c>
       <c r="F17" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3000</v>
       </c>
       <c r="G17" s="15">
@@ -2422,7 +2415,6 @@
         <v>100000</v>
       </c>
       <c r="Q17" s="19">
-        <f t="shared" si="3"/>
         <v>72.5</v>
       </c>
       <c r="R17" s="12" t="str">
@@ -2430,7 +2422,7 @@
         <v>환골 탈태 9단</v>
       </c>
       <c r="S17" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="T17" s="12" t="s">
@@ -2445,11 +2437,11 @@
         <v>32.085561497326204</v>
       </c>
       <c r="W17" s="21">
+        <f t="shared" si="4"/>
+        <v>28.318584070796462</v>
+      </c>
+      <c r="X17" s="21">
         <f t="shared" si="5"/>
-        <v>28.318584070796462</v>
-      </c>
-      <c r="X17" s="21">
-        <f t="shared" si="6"/>
         <v>5.2955752212389386</v>
       </c>
       <c r="Y17" s="8">
@@ -2467,7 +2459,7 @@
         <v>25</v>
       </c>
       <c r="F18" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3000</v>
       </c>
       <c r="G18" s="15">
@@ -2481,7 +2473,6 @@
         <v>100000</v>
       </c>
       <c r="Q18" s="19">
-        <f t="shared" si="3"/>
         <v>92.5</v>
       </c>
       <c r="R18" s="12" t="str">
@@ -2489,7 +2480,7 @@
         <v>환골 탈태 10단</v>
       </c>
       <c r="S18" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="T18" s="12" t="s">
@@ -2504,11 +2495,11 @@
         <v>37.433155080213908</v>
       </c>
       <c r="W18" s="21">
+        <f t="shared" si="4"/>
+        <v>27.586206896551722</v>
+      </c>
+      <c r="X18" s="21">
         <f t="shared" si="5"/>
-        <v>27.586206896551722</v>
-      </c>
-      <c r="X18" s="21">
-        <f t="shared" si="6"/>
         <v>5.1586206896551721</v>
       </c>
       <c r="Y18" s="8">
@@ -2526,7 +2517,7 @@
         <v>26</v>
       </c>
       <c r="F19" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3000</v>
       </c>
       <c r="G19" s="15">
@@ -2541,7 +2532,6 @@
         <v>150000</v>
       </c>
       <c r="Q19" s="19">
-        <f t="shared" si="3"/>
         <v>172.5</v>
       </c>
       <c r="R19" s="12" t="str">
@@ -2549,7 +2539,7 @@
         <v>환골 탈태 11단</v>
       </c>
       <c r="S19" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="T19" s="12" t="s">
@@ -2564,11 +2554,11 @@
         <v>45.45454545454546</v>
       </c>
       <c r="W19" s="21">
-        <f t="shared" ref="W19:W38" si="8">(Q19-Q18)*100/Q18</f>
+        <f t="shared" ref="W19:W38" si="7">(Q19-Q18)*100/Q18</f>
         <v>86.486486486486484</v>
       </c>
       <c r="X19" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10.781981981981982</v>
       </c>
       <c r="Y19" s="8">
@@ -2586,7 +2576,7 @@
         <v>27</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3000</v>
       </c>
       <c r="G20" s="15">
@@ -2597,11 +2587,10 @@
         <v>11</v>
       </c>
       <c r="P20" s="18">
-        <f t="shared" ref="P20:P48" si="9">P10+50000</f>
+        <f t="shared" ref="P20:P48" si="8">P10+50000</f>
         <v>150000</v>
       </c>
       <c r="Q20" s="19">
-        <f t="shared" si="3"/>
         <v>284.5</v>
       </c>
       <c r="R20" s="12" t="str">
@@ -2609,7 +2598,7 @@
         <v>환골 탈태 12단</v>
       </c>
       <c r="S20" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="T20" s="12" t="s">
@@ -2624,11 +2613,11 @@
         <v>53.475935828877013</v>
       </c>
       <c r="W20" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>64.927536231884062</v>
       </c>
       <c r="X20" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>8.0942995169082135</v>
       </c>
       <c r="Y20" s="8">
@@ -2646,7 +2635,7 @@
         <v>28</v>
       </c>
       <c r="F21" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>4000</v>
       </c>
       <c r="G21" s="15">
@@ -2657,11 +2646,10 @@
         <v>12</v>
       </c>
       <c r="P21" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>150000</v>
       </c>
       <c r="Q21" s="19">
-        <f t="shared" si="3"/>
         <v>444.5</v>
       </c>
       <c r="R21" s="12" t="str">
@@ -2669,7 +2657,7 @@
         <v>환골 탈태 13단</v>
       </c>
       <c r="S21" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="T21" s="12" t="s">
@@ -2684,11 +2672,11 @@
         <v>61.497326203208566</v>
       </c>
       <c r="W21" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>56.239015817223198</v>
       </c>
       <c r="X21" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>7.0111306385471588</v>
       </c>
       <c r="Y21" s="8">
@@ -2706,7 +2694,7 @@
         <v>29</v>
       </c>
       <c r="F22" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>4000</v>
       </c>
       <c r="G22" s="15">
@@ -2717,11 +2705,10 @@
         <v>13</v>
       </c>
       <c r="P22" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>150000</v>
       </c>
       <c r="Q22" s="19">
-        <f t="shared" si="3"/>
         <v>684.5</v>
       </c>
       <c r="R22" s="12" t="str">
@@ -2729,7 +2716,7 @@
         <v>환골 탈태 14단</v>
       </c>
       <c r="S22" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="T22" s="12" t="s">
@@ -2744,11 +2731,11 @@
         <v>69.518716577540118</v>
       </c>
       <c r="W22" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>53.993250843644546</v>
       </c>
       <c r="X22" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>6.731158605174353</v>
       </c>
       <c r="Y22" s="8">
@@ -2766,7 +2753,7 @@
         <v>30</v>
       </c>
       <c r="F23" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>4000</v>
       </c>
       <c r="G23" s="15">
@@ -2777,11 +2764,10 @@
         <v>14</v>
       </c>
       <c r="P23" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>150000</v>
       </c>
       <c r="Q23" s="19">
-        <f t="shared" si="3"/>
         <v>1004.5</v>
       </c>
       <c r="R23" s="12" t="str">
@@ -2789,7 +2775,7 @@
         <v>환골 탈태 15단</v>
       </c>
       <c r="S23" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="T23" s="12" t="s">
@@ -2804,11 +2790,11 @@
         <v>77.540106951871664</v>
       </c>
       <c r="W23" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>46.749452154857558</v>
       </c>
       <c r="X23" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>5.8280983686389085</v>
       </c>
       <c r="Y23" s="8">
@@ -2826,7 +2812,7 @@
         <v>31</v>
       </c>
       <c r="F24" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>4000</v>
       </c>
       <c r="G24" s="15">
@@ -2837,11 +2823,10 @@
         <v>15</v>
       </c>
       <c r="P24" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>150000</v>
       </c>
       <c r="Q24" s="19">
-        <f t="shared" si="3"/>
         <v>1452.5</v>
       </c>
       <c r="R24" s="12" t="str">
@@ -2849,7 +2834,7 @@
         <v>환골 탈태 16단</v>
       </c>
       <c r="S24" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="T24" s="12" t="s">
@@ -2864,11 +2849,11 @@
         <v>85.561497326203209</v>
       </c>
       <c r="W24" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44.599303135888505</v>
       </c>
       <c r="X24" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>5.5600464576074335</v>
       </c>
       <c r="Y24" s="8">
@@ -2886,7 +2871,7 @@
         <v>32</v>
       </c>
       <c r="F25" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>5000</v>
       </c>
       <c r="G25" s="15">
@@ -2897,11 +2882,10 @@
         <v>16</v>
       </c>
       <c r="P25" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>150000</v>
       </c>
       <c r="Q25" s="19">
-        <f t="shared" si="3"/>
         <v>2092.5</v>
       </c>
       <c r="R25" s="12" t="str">
@@ -2909,7 +2893,7 @@
         <v>환골 탈태 17단</v>
       </c>
       <c r="S25" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="T25" s="12" t="s">
@@ -2924,11 +2908,11 @@
         <v>93.582887700534755</v>
       </c>
       <c r="W25" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44.061962134251289</v>
       </c>
       <c r="X25" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>5.4930579460699942</v>
       </c>
       <c r="Y25" s="8">
@@ -2946,7 +2930,7 @@
         <v>33</v>
       </c>
       <c r="F26" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>5000</v>
       </c>
       <c r="G26" s="15">
@@ -2957,11 +2941,10 @@
         <v>17</v>
       </c>
       <c r="P26" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>150000</v>
       </c>
       <c r="Q26" s="19">
-        <f t="shared" si="3"/>
         <v>2972.5</v>
       </c>
       <c r="R26" s="12" t="str">
@@ -2969,7 +2952,7 @@
         <v>환골 탈태 18단</v>
       </c>
       <c r="S26" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="T26" s="12" t="s">
@@ -2984,11 +2967,11 @@
         <v>101.6042780748663</v>
       </c>
       <c r="W26" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>42.054958183990443</v>
       </c>
       <c r="X26" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>5.2428514536041417</v>
       </c>
       <c r="Y26" s="8">
@@ -3006,7 +2989,7 @@
         <v>34</v>
       </c>
       <c r="F27" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>5000</v>
       </c>
       <c r="G27" s="15">
@@ -3017,11 +3000,10 @@
         <v>18</v>
       </c>
       <c r="P27" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>150000</v>
       </c>
       <c r="Q27" s="19">
-        <f t="shared" si="3"/>
         <v>4252.5</v>
       </c>
       <c r="R27" s="12" t="str">
@@ -3029,7 +3011,7 @@
         <v>환골 탈태 19단</v>
       </c>
       <c r="S27" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="T27" s="12" t="s">
@@ -3044,11 +3026,11 @@
         <v>109.62566844919785</v>
       </c>
       <c r="W27" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>43.061396131202692</v>
       </c>
       <c r="X27" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>5.3683207176899357</v>
       </c>
       <c r="Y27" s="8">
@@ -3066,7 +3048,7 @@
         <v>35</v>
       </c>
       <c r="F28" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>5000</v>
       </c>
       <c r="G28" s="15">
@@ -3077,11 +3059,10 @@
         <v>19</v>
       </c>
       <c r="P28" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>150000</v>
       </c>
       <c r="Q28" s="19">
-        <f>ROUND(Q27+ROUNDDOWN(U28,0)*Y28,-2)</f>
         <v>6000</v>
       </c>
       <c r="R28" s="12" t="str">
@@ -3089,7 +3070,7 @@
         <v>환골 탈태 20단</v>
       </c>
       <c r="S28" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="T28" s="12" t="s">
@@ -3104,11 +3085,11 @@
         <v>117.64705882352939</v>
       </c>
       <c r="W28" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>41.093474426807759</v>
       </c>
       <c r="X28" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>5.1229864785420336</v>
       </c>
       <c r="Y28" s="8">
@@ -3126,7 +3107,7 @@
         <v>36</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>6000</v>
       </c>
       <c r="G29" s="15">
@@ -3137,11 +3118,10 @@
         <v>20</v>
       </c>
       <c r="P29" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>200000</v>
       </c>
       <c r="Q29" s="19">
-        <f>ROUND(Q28+ROUNDDOWN(U29,0)*Y29,-3)</f>
         <v>9000</v>
       </c>
       <c r="R29" s="12" t="str">
@@ -3149,7 +3129,7 @@
         <v>환골 탈태 21단</v>
       </c>
       <c r="S29" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="T29" s="12" t="s">
@@ -3164,11 +3144,11 @@
         <v>128.34224598930479</v>
       </c>
       <c r="W29" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="X29" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.6749999999999998</v>
       </c>
       <c r="Y29" s="8">
@@ -3186,7 +3166,7 @@
         <v>37</v>
       </c>
       <c r="F30" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>6000</v>
       </c>
       <c r="G30" s="15">
@@ -3197,11 +3177,10 @@
         <v>21</v>
       </c>
       <c r="P30" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>200000</v>
       </c>
       <c r="Q30" s="19">
-        <f t="shared" ref="Q30:Q48" si="10">ROUND(Q29+ROUNDDOWN(U30,0)*Y30,-3)</f>
         <v>14000</v>
       </c>
       <c r="R30" s="12" t="str">
@@ -3209,7 +3188,7 @@
         <v>환골 탈태 22단</v>
       </c>
       <c r="S30" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="T30" s="12" t="s">
@@ -3224,11 +3203,11 @@
         <v>139.03743315508018</v>
       </c>
       <c r="W30" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>55.555555555555557</v>
       </c>
       <c r="X30" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>5.1944444444444446</v>
       </c>
       <c r="Y30" s="8">
@@ -3246,7 +3225,7 @@
         <v>38</v>
       </c>
       <c r="F31" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>6000</v>
       </c>
       <c r="G31" s="15">
@@ -3257,11 +3236,10 @@
         <v>22</v>
       </c>
       <c r="P31" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>200000</v>
       </c>
       <c r="Q31" s="19">
-        <f t="shared" si="10"/>
         <v>22000</v>
       </c>
       <c r="R31" s="12" t="str">
@@ -3269,7 +3247,7 @@
         <v>환골 탈태 23단</v>
       </c>
       <c r="S31" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="T31" s="12" t="s">
@@ -3284,11 +3262,11 @@
         <v>149.73262032085557</v>
       </c>
       <c r="W31" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>57.142857142857146</v>
       </c>
       <c r="X31" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>5.3428571428571434</v>
       </c>
       <c r="Y31" s="8">
@@ -3306,7 +3284,7 @@
         <v>39</v>
       </c>
       <c r="F32" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>6000</v>
       </c>
       <c r="G32" s="15">
@@ -3317,11 +3295,10 @@
         <v>23</v>
       </c>
       <c r="P32" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>200000</v>
       </c>
       <c r="Q32" s="19">
-        <f t="shared" si="10"/>
         <v>35000</v>
       </c>
       <c r="R32" s="12" t="str">
@@ -3329,7 +3306,7 @@
         <v>환골 탈태 24단</v>
       </c>
       <c r="S32" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="T32" s="12" t="s">
@@ -3344,11 +3321,11 @@
         <v>160.42780748663097</v>
       </c>
       <c r="W32" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>59.090909090909093</v>
       </c>
       <c r="X32" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>5.5250000000000004</v>
       </c>
       <c r="Y32" s="8">
@@ -3366,7 +3343,7 @@
         <v>40</v>
       </c>
       <c r="F33" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7000</v>
       </c>
       <c r="G33" s="15">
@@ -3377,11 +3354,10 @@
         <v>24</v>
       </c>
       <c r="P33" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>200000</v>
       </c>
       <c r="Q33" s="19">
-        <f t="shared" si="10"/>
         <v>55000</v>
       </c>
       <c r="R33" s="12" t="str">
@@ -3389,7 +3365,7 @@
         <v>환골 탈태 25단</v>
       </c>
       <c r="S33" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="T33" s="12" t="s">
@@ -3404,11 +3380,11 @@
         <v>171.12299465240636</v>
       </c>
       <c r="W33" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>57.142857142857146</v>
       </c>
       <c r="X33" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>5.3428571428571434</v>
       </c>
       <c r="Y33" s="8">
@@ -3431,7 +3407,7 @@
         <v>41</v>
       </c>
       <c r="F34" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7000</v>
       </c>
       <c r="G34" s="15">
@@ -3442,11 +3418,10 @@
         <v>25</v>
       </c>
       <c r="P34" s="18">
-        <f t="shared" si="9"/>
-        <v>200000</v>
+        <f>P29+50000</f>
+        <v>250000</v>
       </c>
       <c r="Q34" s="19">
-        <f t="shared" si="10"/>
         <v>85000</v>
       </c>
       <c r="R34" s="12" t="str">
@@ -3454,7 +3429,7 @@
         <v>환골 탈태 26단</v>
       </c>
       <c r="S34" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="T34" s="12" t="s">
@@ -3462,19 +3437,19 @@
       </c>
       <c r="U34" s="21">
         <f t="shared" si="0"/>
-        <v>10.695187165775401</v>
+        <v>13.368983957219251</v>
       </c>
       <c r="V34" s="21">
         <f>SUM($U$12:U34)</f>
-        <v>181.81818181818176</v>
+        <v>184.49197860962562</v>
       </c>
       <c r="W34" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>54.545454545454547</v>
       </c>
       <c r="X34" s="23">
-        <f t="shared" si="6"/>
-        <v>5.0999999999999996</v>
+        <f t="shared" si="5"/>
+        <v>4.08</v>
       </c>
       <c r="Y34" s="8">
         <v>3000</v>
@@ -3496,7 +3471,7 @@
         <v>42</v>
       </c>
       <c r="F35" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7000</v>
       </c>
       <c r="G35" s="15">
@@ -3507,11 +3482,10 @@
         <v>26</v>
       </c>
       <c r="P35" s="18">
-        <f t="shared" si="9"/>
-        <v>200000</v>
+        <f t="shared" ref="P35:P48" si="9">P30+50000</f>
+        <v>250000</v>
       </c>
       <c r="Q35" s="19">
-        <f t="shared" si="10"/>
         <v>131000</v>
       </c>
       <c r="R35" s="12" t="str">
@@ -3519,7 +3493,7 @@
         <v>환골 탈태 27단</v>
       </c>
       <c r="S35" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="T35" s="12" t="s">
@@ -3527,19 +3501,19 @@
       </c>
       <c r="U35" s="21">
         <f t="shared" si="0"/>
-        <v>10.695187165775401</v>
+        <v>13.368983957219251</v>
       </c>
       <c r="V35" s="21">
         <f>SUM($U$12:U35)</f>
-        <v>192.51336898395715</v>
+        <v>197.86096256684488</v>
       </c>
       <c r="W35" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>54.117647058823529</v>
       </c>
       <c r="X35" s="21">
-        <f t="shared" si="6"/>
-        <v>5.0599999999999996</v>
+        <f t="shared" si="5"/>
+        <v>4.048</v>
       </c>
       <c r="Y35" s="8">
         <v>4600</v>
@@ -3561,7 +3535,7 @@
         <v>43</v>
       </c>
       <c r="F36" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7000</v>
       </c>
       <c r="G36" s="15">
@@ -3573,10 +3547,9 @@
       </c>
       <c r="P36" s="18">
         <f t="shared" si="9"/>
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="Q36" s="19">
-        <f t="shared" si="10"/>
         <v>203000</v>
       </c>
       <c r="R36" s="12" t="str">
@@ -3584,7 +3557,7 @@
         <v>환골 탈태 28단</v>
       </c>
       <c r="S36" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="T36" s="12" t="s">
@@ -3592,19 +3565,19 @@
       </c>
       <c r="U36" s="21">
         <f t="shared" si="0"/>
-        <v>10.695187165775401</v>
+        <v>13.368983957219251</v>
       </c>
       <c r="V36" s="21">
         <f>SUM($U$12:U36)</f>
-        <v>203.20855614973254</v>
+        <v>211.22994652406413</v>
       </c>
       <c r="W36" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>54.961832061068705</v>
       </c>
       <c r="X36" s="21">
-        <f t="shared" si="6"/>
-        <v>5.1389312977099237</v>
+        <f t="shared" si="5"/>
+        <v>4.1111450381679395</v>
       </c>
       <c r="Y36" s="8">
         <v>7200</v>
@@ -3626,7 +3599,7 @@
         <v>44</v>
       </c>
       <c r="F37" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>8000</v>
       </c>
       <c r="G37" s="15">
@@ -3638,10 +3611,9 @@
       </c>
       <c r="P37" s="18">
         <f t="shared" si="9"/>
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="Q37" s="19">
-        <f t="shared" si="10"/>
         <v>313000</v>
       </c>
       <c r="R37" s="12" t="str">
@@ -3649,7 +3621,7 @@
         <v>환골 탈태 29단</v>
       </c>
       <c r="S37" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="T37" s="12" t="s">
@@ -3657,19 +3629,19 @@
       </c>
       <c r="U37" s="21">
         <f t="shared" si="0"/>
-        <v>10.695187165775401</v>
+        <v>13.368983957219251</v>
       </c>
       <c r="V37" s="21">
         <f>SUM($U$12:U37)</f>
-        <v>213.90374331550794</v>
+        <v>224.59893048128339</v>
       </c>
       <c r="W37" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>54.187192118226598</v>
       </c>
       <c r="X37" s="21">
-        <f t="shared" si="6"/>
-        <v>5.0665024630541868</v>
+        <f t="shared" si="5"/>
+        <v>4.0532019704433493</v>
       </c>
       <c r="Y37" s="8">
         <v>11000</v>
@@ -3691,7 +3663,7 @@
         <v>45</v>
       </c>
       <c r="F38" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>8000</v>
       </c>
       <c r="G38" s="15">
@@ -3703,10 +3675,9 @@
       </c>
       <c r="P38" s="18">
         <f t="shared" si="9"/>
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="Q38" s="19">
-        <f t="shared" si="10"/>
         <v>483000</v>
       </c>
       <c r="R38" s="12" t="str">
@@ -3714,7 +3685,7 @@
         <v>환골 탈태 30단</v>
       </c>
       <c r="S38" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="T38" s="12" t="s">
@@ -3722,19 +3693,19 @@
       </c>
       <c r="U38" s="21">
         <f t="shared" si="0"/>
-        <v>10.695187165775401</v>
+        <v>13.368983957219251</v>
       </c>
       <c r="V38" s="21">
         <f>SUM($U$12:U38)</f>
-        <v>224.59893048128333</v>
+        <v>237.96791443850265</v>
       </c>
       <c r="W38" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>54.313099041533548</v>
       </c>
       <c r="X38" s="21">
-        <f t="shared" si="6"/>
-        <v>5.0782747603833869</v>
+        <f t="shared" si="5"/>
+        <v>4.0626198083067093</v>
       </c>
       <c r="Y38" s="8">
         <v>17000</v>
@@ -3756,7 +3727,7 @@
         <v>46</v>
       </c>
       <c r="F39" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>8000</v>
       </c>
       <c r="G39" s="15">
@@ -3767,12 +3738,11 @@
         <v>30</v>
       </c>
       <c r="P39" s="18">
-        <f t="shared" si="9"/>
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="Q39" s="19">
-        <f t="shared" si="10"/>
-        <v>821000</v>
+        <f t="shared" ref="Q30:Q48" si="10">ROUND(Q38+ROUNDDOWN(U39,0)*Y39,-3)</f>
+        <v>643000</v>
       </c>
       <c r="R39" s="12" t="str">
         <f t="shared" ref="R39:R48" si="11">T39&amp;" "&amp;S39&amp;"단"</f>
@@ -3787,22 +3757,22 @@
       </c>
       <c r="U39" s="21">
         <f t="shared" ref="U39:U48" si="13">(P39/$G$96)</f>
-        <v>13.368983957219251</v>
+        <v>16.042780748663102</v>
       </c>
       <c r="V39" s="21">
         <f>SUM($U$12:U39)</f>
-        <v>237.96791443850259</v>
+        <v>254.01069518716574</v>
       </c>
       <c r="W39" s="21">
         <f t="shared" ref="W39:W48" si="14">(Q39-Q38)*100/Q38</f>
-        <v>69.979296066252587</v>
+        <v>33.126293995859214</v>
       </c>
       <c r="X39" s="21">
         <f t="shared" ref="X39:X48" si="15">W39/U39</f>
-        <v>5.2344513457556934</v>
+        <v>2.0648723257418911</v>
       </c>
       <c r="Y39" s="8">
-        <v>26000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="40" spans="3:31" x14ac:dyDescent="0.3">
@@ -3816,7 +3786,7 @@
         <v>47</v>
       </c>
       <c r="F40" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>8000</v>
       </c>
       <c r="G40" s="15">
@@ -3827,12 +3797,11 @@
         <v>31</v>
       </c>
       <c r="P40" s="18">
-        <f t="shared" si="9"/>
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="Q40" s="19">
         <f t="shared" si="10"/>
-        <v>1393000</v>
+        <v>803000</v>
       </c>
       <c r="R40" s="12" t="str">
         <f t="shared" si="11"/>
@@ -3847,22 +3816,22 @@
       </c>
       <c r="U40" s="21">
         <f t="shared" si="13"/>
-        <v>13.368983957219251</v>
+        <v>16.042780748663102</v>
       </c>
       <c r="V40" s="21">
         <f>SUM($U$12:U40)</f>
-        <v>251.33689839572185</v>
+        <v>270.05347593582883</v>
       </c>
       <c r="W40" s="21">
         <f t="shared" si="14"/>
-        <v>69.671132764920827</v>
+        <v>24.883359253499222</v>
       </c>
       <c r="X40" s="21">
         <f t="shared" si="15"/>
-        <v>5.2114007308160781</v>
+        <v>1.5510627268014514</v>
       </c>
       <c r="Y40" s="8">
-        <v>44000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="41" spans="3:31" x14ac:dyDescent="0.3">
@@ -3876,7 +3845,7 @@
         <v>48</v>
       </c>
       <c r="F41" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>9000</v>
       </c>
       <c r="G41" s="15">
@@ -3887,12 +3856,11 @@
         <v>32</v>
       </c>
       <c r="P41" s="18">
-        <f t="shared" si="9"/>
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="Q41" s="19">
         <f t="shared" si="10"/>
-        <v>2355000</v>
+        <v>963000</v>
       </c>
       <c r="R41" s="12" t="str">
         <f t="shared" si="11"/>
@@ -3907,22 +3875,22 @@
       </c>
       <c r="U41" s="21">
         <f t="shared" si="13"/>
-        <v>13.368983957219251</v>
+        <v>16.042780748663102</v>
       </c>
       <c r="V41" s="21">
         <f>SUM($U$12:U41)</f>
-        <v>264.7058823529411</v>
+        <v>286.09625668449195</v>
       </c>
       <c r="W41" s="21">
         <f t="shared" si="14"/>
-        <v>69.059583632447954</v>
+        <v>19.925280199252803</v>
       </c>
       <c r="X41" s="21">
         <f t="shared" si="15"/>
-        <v>5.1656568557071072</v>
+        <v>1.2420091324200915</v>
       </c>
       <c r="Y41" s="8">
-        <v>74000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="42" spans="3:31" x14ac:dyDescent="0.3">
@@ -3936,7 +3904,7 @@
         <v>49</v>
       </c>
       <c r="F42" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>9000</v>
       </c>
       <c r="G42" s="15">
@@ -3947,12 +3915,11 @@
         <v>33</v>
       </c>
       <c r="P42" s="18">
-        <f t="shared" si="9"/>
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="Q42" s="19">
         <f t="shared" si="10"/>
-        <v>4045000</v>
+        <v>1123000</v>
       </c>
       <c r="R42" s="12" t="str">
         <f t="shared" si="11"/>
@@ -3967,22 +3934,22 @@
       </c>
       <c r="U42" s="21">
         <f t="shared" si="13"/>
-        <v>13.368983957219251</v>
+        <v>16.042780748663102</v>
       </c>
       <c r="V42" s="21">
         <f>SUM($U$12:U42)</f>
-        <v>278.07486631016036</v>
+        <v>302.13903743315507</v>
       </c>
       <c r="W42" s="21">
         <f t="shared" si="14"/>
-        <v>71.762208067940549</v>
+        <v>16.614745586708203</v>
       </c>
       <c r="X42" s="21">
         <f t="shared" si="15"/>
-        <v>5.3678131634819533</v>
+        <v>1.0356524749048113</v>
       </c>
       <c r="Y42" s="8">
-        <v>130000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="43" spans="3:31" x14ac:dyDescent="0.3">
@@ -3996,7 +3963,7 @@
         <v>50</v>
       </c>
       <c r="F43" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>9000</v>
       </c>
       <c r="G43" s="15">
@@ -4007,12 +3974,11 @@
         <v>34</v>
       </c>
       <c r="P43" s="18">
-        <f t="shared" si="9"/>
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="Q43" s="19">
         <f t="shared" si="10"/>
-        <v>6905000</v>
+        <v>1283000</v>
       </c>
       <c r="R43" s="12" t="str">
         <f t="shared" si="11"/>
@@ -4027,22 +3993,22 @@
       </c>
       <c r="U43" s="21">
         <f t="shared" si="13"/>
-        <v>13.368983957219251</v>
+        <v>16.042780748663102</v>
       </c>
       <c r="V43" s="21">
         <f>SUM($U$12:U43)</f>
-        <v>291.44385026737962</v>
+        <v>318.18181818181819</v>
       </c>
       <c r="W43" s="21">
         <f t="shared" si="14"/>
-        <v>70.704573547589618</v>
+        <v>14.247551202137133</v>
       </c>
       <c r="X43" s="21">
         <f t="shared" si="15"/>
-        <v>5.2887021013597035</v>
+        <v>0.88809735826654801</v>
       </c>
       <c r="Y43" s="8">
-        <v>220000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="44" spans="3:31" x14ac:dyDescent="0.3">
@@ -4056,7 +4022,7 @@
         <v>51</v>
       </c>
       <c r="F44" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>9000</v>
       </c>
       <c r="G44" s="15">
@@ -4067,12 +4033,11 @@
         <v>35</v>
       </c>
       <c r="P44" s="18">
-        <f t="shared" si="9"/>
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="Q44" s="19">
         <f t="shared" si="10"/>
-        <v>11585000</v>
+        <v>1443000</v>
       </c>
       <c r="R44" s="12" t="str">
         <f t="shared" si="11"/>
@@ -4087,22 +4052,22 @@
       </c>
       <c r="U44" s="21">
         <f t="shared" si="13"/>
-        <v>13.368983957219251</v>
+        <v>16.042780748663102</v>
       </c>
       <c r="V44" s="21">
         <f>SUM($U$12:U44)</f>
-        <v>304.81283422459887</v>
+        <v>334.22459893048131</v>
       </c>
       <c r="W44" s="21">
         <f t="shared" si="14"/>
-        <v>67.776973207820419</v>
+        <v>12.470771628994544</v>
       </c>
       <c r="X44" s="21">
         <f t="shared" si="15"/>
-        <v>5.069717595944967</v>
+        <v>0.77734476487399329</v>
       </c>
       <c r="Y44" s="8">
-        <v>360000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="45" spans="3:31" x14ac:dyDescent="0.3">
@@ -4116,7 +4081,7 @@
         <v>52</v>
       </c>
       <c r="F45" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10000</v>
       </c>
       <c r="G45" s="15">
@@ -4127,12 +4092,11 @@
         <v>36</v>
       </c>
       <c r="P45" s="18">
-        <f t="shared" si="9"/>
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="Q45" s="19">
         <f t="shared" si="10"/>
-        <v>19385000</v>
+        <v>1603000</v>
       </c>
       <c r="R45" s="12" t="str">
         <f t="shared" si="11"/>
@@ -4147,22 +4111,22 @@
       </c>
       <c r="U45" s="21">
         <f t="shared" si="13"/>
-        <v>13.368983957219251</v>
+        <v>16.042780748663102</v>
       </c>
       <c r="V45" s="21">
         <f>SUM($U$12:U45)</f>
-        <v>318.18181818181813</v>
+        <v>350.26737967914443</v>
       </c>
       <c r="W45" s="21">
         <f t="shared" si="14"/>
-        <v>67.32844195079845</v>
+        <v>11.088011088011088</v>
       </c>
       <c r="X45" s="21">
         <f t="shared" si="15"/>
-        <v>5.0361674579197242</v>
+        <v>0.69115269115269118</v>
       </c>
       <c r="Y45" s="8">
-        <v>600000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="46" spans="3:31" x14ac:dyDescent="0.3">
@@ -4176,7 +4140,7 @@
         <v>53</v>
       </c>
       <c r="F46" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10000</v>
       </c>
       <c r="G46" s="15">
@@ -4187,12 +4151,11 @@
         <v>37</v>
       </c>
       <c r="P46" s="18">
-        <f t="shared" si="9"/>
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="Q46" s="19">
         <f t="shared" si="10"/>
-        <v>32385000</v>
+        <v>1763000</v>
       </c>
       <c r="R46" s="12" t="str">
         <f t="shared" si="11"/>
@@ -4207,22 +4170,22 @@
       </c>
       <c r="U46" s="21">
         <f t="shared" si="13"/>
-        <v>13.368983957219251</v>
+        <v>16.042780748663102</v>
       </c>
       <c r="V46" s="21">
         <f>SUM($U$12:U46)</f>
-        <v>331.55080213903739</v>
+        <v>366.31016042780755</v>
       </c>
       <c r="W46" s="21">
         <f t="shared" si="14"/>
-        <v>67.062161465050295</v>
+        <v>9.9812850904553958</v>
       </c>
       <c r="X46" s="21">
         <f t="shared" si="15"/>
-        <v>5.0162496775857619</v>
+        <v>0.62216677063838632</v>
       </c>
       <c r="Y46" s="8">
-        <v>1000000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="47" spans="3:31" x14ac:dyDescent="0.3">
@@ -4236,7 +4199,7 @@
         <v>54</v>
       </c>
       <c r="F47" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10000</v>
       </c>
       <c r="G47" s="15">
@@ -4247,12 +4210,11 @@
         <v>38</v>
       </c>
       <c r="P47" s="18">
-        <f t="shared" si="9"/>
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="Q47" s="19">
         <f t="shared" si="10"/>
-        <v>54485000</v>
+        <v>1923000</v>
       </c>
       <c r="R47" s="12" t="str">
         <f t="shared" si="11"/>
@@ -4267,22 +4229,22 @@
       </c>
       <c r="U47" s="21">
         <f t="shared" si="13"/>
-        <v>13.368983957219251</v>
+        <v>16.042780748663102</v>
       </c>
       <c r="V47" s="21">
         <f>SUM($U$12:U47)</f>
-        <v>344.91978609625664</v>
+        <v>382.35294117647067</v>
       </c>
       <c r="W47" s="21">
         <f t="shared" si="14"/>
-        <v>68.241469816272968</v>
+        <v>9.0754395916052175</v>
       </c>
       <c r="X47" s="21">
         <f t="shared" si="15"/>
-        <v>5.1044619422572177</v>
+        <v>0.56570240121005855</v>
       </c>
       <c r="Y47" s="8">
-        <v>1700000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="48" spans="3:31" x14ac:dyDescent="0.3">
@@ -4296,7 +4258,7 @@
         <v>55</v>
       </c>
       <c r="F48" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10000</v>
       </c>
       <c r="G48" s="15">
@@ -4307,12 +4269,11 @@
         <v>39</v>
       </c>
       <c r="P48" s="18">
-        <f t="shared" si="9"/>
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="Q48" s="19">
         <f t="shared" si="10"/>
-        <v>90885000</v>
+        <v>2083000</v>
       </c>
       <c r="R48" s="12" t="str">
         <f t="shared" si="11"/>
@@ -4327,22 +4288,22 @@
       </c>
       <c r="U48" s="21">
         <f t="shared" si="13"/>
-        <v>13.368983957219251</v>
+        <v>16.042780748663102</v>
       </c>
       <c r="V48" s="21">
         <f>SUM($U$12:U48)</f>
-        <v>358.2887700534759</v>
+        <v>398.39572192513378</v>
       </c>
       <c r="W48" s="21">
         <f t="shared" si="14"/>
-        <v>66.807378177480047</v>
+        <v>8.3203328133125325</v>
       </c>
       <c r="X48" s="21">
         <f t="shared" si="15"/>
-        <v>4.9971918876755073</v>
+        <v>0.51863407869648115</v>
       </c>
       <c r="Y48" s="8">
-        <v>2800000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="49" spans="3:20" x14ac:dyDescent="0.3">
@@ -4356,7 +4317,7 @@
         <v>56</v>
       </c>
       <c r="F49" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>11000</v>
       </c>
       <c r="G49" s="15">
@@ -4381,7 +4342,7 @@
         <v>57</v>
       </c>
       <c r="F50" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>11000</v>
       </c>
       <c r="G50" s="15">
@@ -4406,7 +4367,7 @@
         <v>58</v>
       </c>
       <c r="F51" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>11000</v>
       </c>
       <c r="G51" s="15">
@@ -4431,7 +4392,7 @@
         <v>59</v>
       </c>
       <c r="F52" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>11000</v>
       </c>
       <c r="G52" s="15">
@@ -4456,7 +4417,7 @@
         <v>60</v>
       </c>
       <c r="F53" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>12000</v>
       </c>
       <c r="G53" s="15">
@@ -4481,7 +4442,7 @@
         <v>61</v>
       </c>
       <c r="F54" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>12000</v>
       </c>
       <c r="G54" s="15">
@@ -4506,7 +4467,7 @@
         <v>62</v>
       </c>
       <c r="F55" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>12000</v>
       </c>
       <c r="G55" s="15">
@@ -4531,7 +4492,7 @@
         <v>63</v>
       </c>
       <c r="F56" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>12000</v>
       </c>
       <c r="G56" s="15">
@@ -4556,7 +4517,7 @@
         <v>64</v>
       </c>
       <c r="F57" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>13000</v>
       </c>
       <c r="G57" s="15">
@@ -4581,7 +4542,7 @@
         <v>65</v>
       </c>
       <c r="F58" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>13000</v>
       </c>
       <c r="G58" s="15">
@@ -4606,7 +4567,7 @@
         <v>66</v>
       </c>
       <c r="F59" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>13000</v>
       </c>
       <c r="G59" s="15">
@@ -4631,7 +4592,7 @@
         <v>67</v>
       </c>
       <c r="F60" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>13000</v>
       </c>
       <c r="G60" s="15">
@@ -4656,7 +4617,7 @@
         <v>68</v>
       </c>
       <c r="F61" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>14000</v>
       </c>
       <c r="G61" s="15">
@@ -4681,7 +4642,7 @@
         <v>69</v>
       </c>
       <c r="F62" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>14000</v>
       </c>
       <c r="G62" s="15">
@@ -4706,7 +4667,7 @@
         <v>70</v>
       </c>
       <c r="F63" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>14000</v>
       </c>
       <c r="G63" s="15">
@@ -4731,7 +4692,7 @@
         <v>71</v>
       </c>
       <c r="F64" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>14000</v>
       </c>
       <c r="G64" s="15">
@@ -4756,7 +4717,7 @@
         <v>72</v>
       </c>
       <c r="F65" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>15000</v>
       </c>
       <c r="G65" s="15">
@@ -4781,7 +4742,7 @@
         <v>73</v>
       </c>
       <c r="F66" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>15000</v>
       </c>
       <c r="G66" s="15">
@@ -4806,7 +4767,7 @@
         <v>74</v>
       </c>
       <c r="F67" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>15000</v>
       </c>
       <c r="G67" s="15">
@@ -4831,7 +4792,7 @@
         <v>75</v>
       </c>
       <c r="F68" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>15000</v>
       </c>
       <c r="G68" s="15">
@@ -4856,7 +4817,7 @@
         <v>76</v>
       </c>
       <c r="F69" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>16000</v>
       </c>
       <c r="G69" s="15">
@@ -4881,7 +4842,7 @@
         <v>77</v>
       </c>
       <c r="F70" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>16000</v>
       </c>
       <c r="G70" s="15">
@@ -4906,7 +4867,7 @@
         <v>78</v>
       </c>
       <c r="F71" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>16000</v>
       </c>
       <c r="G71" s="15">
@@ -4931,7 +4892,7 @@
         <v>79</v>
       </c>
       <c r="F72" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>16000</v>
       </c>
       <c r="G72" s="15">
@@ -4956,7 +4917,7 @@
         <v>80</v>
       </c>
       <c r="F73" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>17000</v>
       </c>
       <c r="G73" s="15">
@@ -4981,7 +4942,7 @@
         <v>81</v>
       </c>
       <c r="F74" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>17000</v>
       </c>
       <c r="G74" s="15">
@@ -5006,7 +4967,7 @@
         <v>82</v>
       </c>
       <c r="F75" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>17000</v>
       </c>
       <c r="G75" s="15">
@@ -5031,7 +4992,7 @@
         <v>83</v>
       </c>
       <c r="F76" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>17000</v>
       </c>
       <c r="G76" s="15">
@@ -5056,7 +5017,7 @@
         <v>84</v>
       </c>
       <c r="F77" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>18000</v>
       </c>
       <c r="G77" s="15">

--- a/Assets/06.Table/Byeolho.xlsx
+++ b/Assets/06.Table/Byeolho.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4313D28B-425A-4242-9EA8-19C282D071DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D182191-5E77-42A8-807D-F924898E9B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Byeolho" sheetId="1" r:id="rId1"/>
@@ -963,11 +963,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1066,7 +1066,7 @@
         <v>100000</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D30" si="0">D3</f>
+        <f t="shared" ref="D4:D40" si="0">D3</f>
         <v>100</v>
       </c>
       <c r="E4">
@@ -1187,7 +1187,7 @@
         <v>환골 탈태 7단</v>
       </c>
       <c r="G8">
-        <f t="shared" ref="G8:G31" si="1">G3+1</f>
+        <f t="shared" ref="G8:G41" si="1">G3+1</f>
         <v>1</v>
       </c>
     </row>
@@ -1259,7 +1259,7 @@
         <v>100000</v>
       </c>
       <c r="D11">
-        <f t="shared" ref="D11:D31" si="2">D10</f>
+        <f t="shared" ref="D11:D41" si="2">D10</f>
         <v>100</v>
       </c>
       <c r="E11">
@@ -1833,6 +1833,286 @@
       <c r="G31">
         <f t="shared" si="1"/>
         <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>9054</v>
+      </c>
+      <c r="C32" s="20">
+        <f>VLOOKUP(A32,Balance!O:R,2,FALSE)</f>
+        <v>300000</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="E32">
+        <f>VLOOKUP(A32,Balance!O:R,3,FALSE)/100</f>
+        <v>6430</v>
+      </c>
+      <c r="F32" t="str">
+        <f>VLOOKUP(A32,Balance!O:R,4,FALSE)</f>
+        <v>환골 탈태 31단</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>9054</v>
+      </c>
+      <c r="C33" s="20">
+        <f>VLOOKUP(A33,Balance!O:R,2,FALSE)</f>
+        <v>300000</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="E33">
+        <f>VLOOKUP(A33,Balance!O:R,3,FALSE)/100</f>
+        <v>8110</v>
+      </c>
+      <c r="F33" t="str">
+        <f>VLOOKUP(A33,Balance!O:R,4,FALSE)</f>
+        <v>환골 탈태 32단</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>9054</v>
+      </c>
+      <c r="C34" s="20">
+        <f>VLOOKUP(A34,Balance!O:R,2,FALSE)</f>
+        <v>300000</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="E34">
+        <f>VLOOKUP(A34,Balance!O:R,3,FALSE)/100</f>
+        <v>9870</v>
+      </c>
+      <c r="F34" t="str">
+        <f>VLOOKUP(A34,Balance!O:R,4,FALSE)</f>
+        <v>환골 탈태 33단</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>9054</v>
+      </c>
+      <c r="C35" s="20">
+        <f>VLOOKUP(A35,Balance!O:R,2,FALSE)</f>
+        <v>300000</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="E35">
+        <f>VLOOKUP(A35,Balance!O:R,3,FALSE)/100</f>
+        <v>11710</v>
+      </c>
+      <c r="F35" t="str">
+        <f>VLOOKUP(A35,Balance!O:R,4,FALSE)</f>
+        <v>환골 탈태 34단</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>9054</v>
+      </c>
+      <c r="C36" s="20">
+        <f>VLOOKUP(A36,Balance!O:R,2,FALSE)</f>
+        <v>300000</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="E36">
+        <f>VLOOKUP(A36,Balance!O:R,3,FALSE)/100</f>
+        <v>13630</v>
+      </c>
+      <c r="F36" t="str">
+        <f>VLOOKUP(A36,Balance!O:R,4,FALSE)</f>
+        <v>환골 탈태 35단</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>9054</v>
+      </c>
+      <c r="C37" s="20">
+        <f>VLOOKUP(A37,Balance!O:R,2,FALSE)</f>
+        <v>400000</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="E37">
+        <f>VLOOKUP(A37,Balance!O:R,3,FALSE)/100</f>
+        <v>16260</v>
+      </c>
+      <c r="F37" t="str">
+        <f>VLOOKUP(A37,Balance!O:R,4,FALSE)</f>
+        <v>환골 탈태 36단</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>9054</v>
+      </c>
+      <c r="C38" s="20">
+        <f>VLOOKUP(A38,Balance!O:R,2,FALSE)</f>
+        <v>400000</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="E38">
+        <f>VLOOKUP(A38,Balance!O:R,3,FALSE)/100</f>
+        <v>18990</v>
+      </c>
+      <c r="F38" t="str">
+        <f>VLOOKUP(A38,Balance!O:R,4,FALSE)</f>
+        <v>환골 탈태 37단</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>9054</v>
+      </c>
+      <c r="C39" s="20">
+        <f>VLOOKUP(A39,Balance!O:R,2,FALSE)</f>
+        <v>400000</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="E39">
+        <f>VLOOKUP(A39,Balance!O:R,3,FALSE)/100</f>
+        <v>21830</v>
+      </c>
+      <c r="F39" t="str">
+        <f>VLOOKUP(A39,Balance!O:R,4,FALSE)</f>
+        <v>환골 탈태 38단</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>9054</v>
+      </c>
+      <c r="C40" s="20">
+        <f>VLOOKUP(A40,Balance!O:R,2,FALSE)</f>
+        <v>400000</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="E40">
+        <f>VLOOKUP(A40,Balance!O:R,3,FALSE)/100</f>
+        <v>24770</v>
+      </c>
+      <c r="F40" t="str">
+        <f>VLOOKUP(A40,Balance!O:R,4,FALSE)</f>
+        <v>환골 탈태 39단</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>9054</v>
+      </c>
+      <c r="C41" s="20">
+        <f>VLOOKUP(A41,Balance!O:R,2,FALSE)</f>
+        <v>400000</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="E41">
+        <f>VLOOKUP(A41,Balance!O:R,3,FALSE)/100</f>
+        <v>27820</v>
+      </c>
+      <c r="F41" t="str">
+        <f>VLOOKUP(A41,Balance!O:R,4,FALSE)</f>
+        <v>환골 탈태 40단</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1846,8 +2126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A9B4BA-49ED-4B77-9780-496F10280935}">
   <dimension ref="A1:AE178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K20" workbookViewId="0">
-      <selection activeCell="Z33" sqref="Z33"/>
+    <sheetView topLeftCell="K24" workbookViewId="0">
+      <selection activeCell="Q39" sqref="Q39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2587,7 +2867,7 @@
         <v>11</v>
       </c>
       <c r="P20" s="18">
-        <f t="shared" ref="P20:P48" si="8">P10+50000</f>
+        <f t="shared" ref="P20:P33" si="8">P10+50000</f>
         <v>150000</v>
       </c>
       <c r="Q20" s="19">
@@ -3482,7 +3762,7 @@
         <v>26</v>
       </c>
       <c r="P35" s="18">
-        <f t="shared" ref="P35:P48" si="9">P30+50000</f>
+        <f t="shared" ref="P35:P38" si="9">P30+50000</f>
         <v>250000</v>
       </c>
       <c r="Q35" s="19">
@@ -3738,10 +4018,11 @@
         <v>30</v>
       </c>
       <c r="P39" s="18">
+        <f>P34+50000</f>
         <v>300000</v>
       </c>
       <c r="Q39" s="19">
-        <f t="shared" ref="Q30:Q48" si="10">ROUND(Q38+ROUNDDOWN(U39,0)*Y39,-3)</f>
+        <f t="shared" ref="Q39:Q48" si="10">ROUND(Q38+ROUNDDOWN(U39,0)*Y39,-3)</f>
         <v>643000</v>
       </c>
       <c r="R39" s="12" t="str">
@@ -3797,11 +4078,12 @@
         <v>31</v>
       </c>
       <c r="P40" s="18">
+        <f t="shared" ref="P40:P43" si="16">P35+50000</f>
         <v>300000</v>
       </c>
       <c r="Q40" s="19">
         <f t="shared" si="10"/>
-        <v>803000</v>
+        <v>811000</v>
       </c>
       <c r="R40" s="12" t="str">
         <f t="shared" si="11"/>
@@ -3824,14 +4106,14 @@
       </c>
       <c r="W40" s="21">
         <f t="shared" si="14"/>
-        <v>24.883359253499222</v>
+        <v>26.127527216174183</v>
       </c>
       <c r="X40" s="21">
         <f t="shared" si="15"/>
-        <v>1.5510627268014514</v>
+        <v>1.628615863141524</v>
       </c>
       <c r="Y40" s="8">
-        <v>10000</v>
+        <v>10500</v>
       </c>
     </row>
     <row r="41" spans="3:31" x14ac:dyDescent="0.3">
@@ -3856,11 +4138,12 @@
         <v>32</v>
       </c>
       <c r="P41" s="18">
+        <f t="shared" si="16"/>
         <v>300000</v>
       </c>
       <c r="Q41" s="19">
         <f t="shared" si="10"/>
-        <v>963000</v>
+        <v>987000</v>
       </c>
       <c r="R41" s="12" t="str">
         <f t="shared" si="11"/>
@@ -3883,14 +4166,14 @@
       </c>
       <c r="W41" s="21">
         <f t="shared" si="14"/>
-        <v>19.925280199252803</v>
+        <v>21.701602959309493</v>
       </c>
       <c r="X41" s="21">
         <f t="shared" si="15"/>
-        <v>1.2420091324200915</v>
+        <v>1.3527332511302916</v>
       </c>
       <c r="Y41" s="8">
-        <v>10000</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="42" spans="3:31" x14ac:dyDescent="0.3">
@@ -3915,11 +4198,12 @@
         <v>33</v>
       </c>
       <c r="P42" s="18">
+        <f t="shared" si="16"/>
         <v>300000</v>
       </c>
       <c r="Q42" s="19">
         <f t="shared" si="10"/>
-        <v>1123000</v>
+        <v>1171000</v>
       </c>
       <c r="R42" s="12" t="str">
         <f t="shared" si="11"/>
@@ -3942,14 +4226,14 @@
       </c>
       <c r="W42" s="21">
         <f t="shared" si="14"/>
-        <v>16.614745586708203</v>
+        <v>18.642350557244175</v>
       </c>
       <c r="X42" s="21">
         <f t="shared" si="15"/>
-        <v>1.0356524749048113</v>
+        <v>1.1620398514015535</v>
       </c>
       <c r="Y42" s="8">
-        <v>10000</v>
+        <v>11500</v>
       </c>
     </row>
     <row r="43" spans="3:31" x14ac:dyDescent="0.3">
@@ -3974,11 +4258,12 @@
         <v>34</v>
       </c>
       <c r="P43" s="18">
+        <f t="shared" si="16"/>
         <v>300000</v>
       </c>
       <c r="Q43" s="19">
         <f t="shared" si="10"/>
-        <v>1283000</v>
+        <v>1363000</v>
       </c>
       <c r="R43" s="12" t="str">
         <f t="shared" si="11"/>
@@ -4001,14 +4286,14 @@
       </c>
       <c r="W43" s="21">
         <f t="shared" si="14"/>
-        <v>14.247551202137133</v>
+        <v>16.396242527754055</v>
       </c>
       <c r="X43" s="21">
         <f t="shared" si="15"/>
-        <v>0.88809735826654801</v>
+        <v>1.0220324508966694</v>
       </c>
       <c r="Y43" s="8">
-        <v>10000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="44" spans="3:31" x14ac:dyDescent="0.3">
@@ -4033,11 +4318,12 @@
         <v>35</v>
       </c>
       <c r="P44" s="18">
-        <v>300000</v>
+        <f t="shared" ref="P44:P48" si="17">P39+100000</f>
+        <v>400000</v>
       </c>
       <c r="Q44" s="19">
         <f t="shared" si="10"/>
-        <v>1443000</v>
+        <v>1626000</v>
       </c>
       <c r="R44" s="12" t="str">
         <f t="shared" si="11"/>
@@ -4052,22 +4338,22 @@
       </c>
       <c r="U44" s="21">
         <f t="shared" si="13"/>
-        <v>16.042780748663102</v>
+        <v>21.390374331550802</v>
       </c>
       <c r="V44" s="21">
         <f>SUM($U$12:U44)</f>
-        <v>334.22459893048131</v>
+        <v>339.57219251336898</v>
       </c>
       <c r="W44" s="21">
         <f t="shared" si="14"/>
-        <v>12.470771628994544</v>
+        <v>19.295671313279531</v>
       </c>
       <c r="X44" s="21">
         <f t="shared" si="15"/>
-        <v>0.77734476487399329</v>
+        <v>0.90207263389581804</v>
       </c>
       <c r="Y44" s="8">
-        <v>10000</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="45" spans="3:31" x14ac:dyDescent="0.3">
@@ -4092,11 +4378,12 @@
         <v>36</v>
       </c>
       <c r="P45" s="18">
-        <v>300000</v>
+        <f t="shared" si="17"/>
+        <v>400000</v>
       </c>
       <c r="Q45" s="19">
         <f t="shared" si="10"/>
-        <v>1603000</v>
+        <v>1899000</v>
       </c>
       <c r="R45" s="12" t="str">
         <f t="shared" si="11"/>
@@ -4111,22 +4398,22 @@
       </c>
       <c r="U45" s="21">
         <f t="shared" si="13"/>
-        <v>16.042780748663102</v>
+        <v>21.390374331550802</v>
       </c>
       <c r="V45" s="21">
         <f>SUM($U$12:U45)</f>
-        <v>350.26737967914443</v>
+        <v>360.96256684491976</v>
       </c>
       <c r="W45" s="21">
         <f t="shared" si="14"/>
-        <v>11.088011088011088</v>
+        <v>16.789667896678967</v>
       </c>
       <c r="X45" s="21">
         <f t="shared" si="15"/>
-        <v>0.69115269115269118</v>
+        <v>0.78491697416974171</v>
       </c>
       <c r="Y45" s="8">
-        <v>10000</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="46" spans="3:31" x14ac:dyDescent="0.3">
@@ -4151,11 +4438,12 @@
         <v>37</v>
       </c>
       <c r="P46" s="18">
-        <v>300000</v>
+        <f t="shared" si="17"/>
+        <v>400000</v>
       </c>
       <c r="Q46" s="19">
         <f t="shared" si="10"/>
-        <v>1763000</v>
+        <v>2183000</v>
       </c>
       <c r="R46" s="12" t="str">
         <f t="shared" si="11"/>
@@ -4170,22 +4458,22 @@
       </c>
       <c r="U46" s="21">
         <f t="shared" si="13"/>
-        <v>16.042780748663102</v>
+        <v>21.390374331550802</v>
       </c>
       <c r="V46" s="21">
         <f>SUM($U$12:U46)</f>
-        <v>366.31016042780755</v>
+        <v>382.35294117647055</v>
       </c>
       <c r="W46" s="21">
         <f t="shared" si="14"/>
-        <v>9.9812850904553958</v>
+        <v>14.955239599789364</v>
       </c>
       <c r="X46" s="21">
         <f t="shared" si="15"/>
-        <v>0.62216677063838632</v>
+        <v>0.69915745129015272</v>
       </c>
       <c r="Y46" s="8">
-        <v>10000</v>
+        <v>13500</v>
       </c>
     </row>
     <row r="47" spans="3:31" x14ac:dyDescent="0.3">
@@ -4210,11 +4498,12 @@
         <v>38</v>
       </c>
       <c r="P47" s="18">
-        <v>300000</v>
+        <f t="shared" si="17"/>
+        <v>400000</v>
       </c>
       <c r="Q47" s="19">
         <f t="shared" si="10"/>
-        <v>1923000</v>
+        <v>2477000</v>
       </c>
       <c r="R47" s="12" t="str">
         <f t="shared" si="11"/>
@@ -4229,22 +4518,22 @@
       </c>
       <c r="U47" s="21">
         <f t="shared" si="13"/>
-        <v>16.042780748663102</v>
+        <v>21.390374331550802</v>
       </c>
       <c r="V47" s="21">
         <f>SUM($U$12:U47)</f>
-        <v>382.35294117647067</v>
+        <v>403.74331550802134</v>
       </c>
       <c r="W47" s="21">
         <f t="shared" si="14"/>
-        <v>9.0754395916052175</v>
+        <v>13.467704993128722</v>
       </c>
       <c r="X47" s="21">
         <f t="shared" si="15"/>
-        <v>0.56570240121005855</v>
+        <v>0.62961520842876773</v>
       </c>
       <c r="Y47" s="8">
-        <v>10000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="48" spans="3:31" x14ac:dyDescent="0.3">
@@ -4269,11 +4558,12 @@
         <v>39</v>
       </c>
       <c r="P48" s="18">
-        <v>300000</v>
+        <f t="shared" si="17"/>
+        <v>400000</v>
       </c>
       <c r="Q48" s="19">
         <f t="shared" si="10"/>
-        <v>2083000</v>
+        <v>2782000</v>
       </c>
       <c r="R48" s="12" t="str">
         <f t="shared" si="11"/>
@@ -4288,22 +4578,22 @@
       </c>
       <c r="U48" s="21">
         <f t="shared" si="13"/>
-        <v>16.042780748663102</v>
+        <v>21.390374331550802</v>
       </c>
       <c r="V48" s="21">
         <f>SUM($U$12:U48)</f>
-        <v>398.39572192513378</v>
+        <v>425.13368983957213</v>
       </c>
       <c r="W48" s="21">
         <f t="shared" si="14"/>
-        <v>8.3203328133125325</v>
+        <v>12.313282196205087</v>
       </c>
       <c r="X48" s="21">
         <f t="shared" si="15"/>
-        <v>0.51863407869648115</v>
+        <v>0.57564594267258784</v>
       </c>
       <c r="Y48" s="8">
-        <v>10000</v>
+        <v>14500</v>
       </c>
     </row>
     <row r="49" spans="3:20" x14ac:dyDescent="0.3">
@@ -4971,7 +5261,7 @@
         <v>17000</v>
       </c>
       <c r="G75" s="15">
-        <f t="shared" ref="G75:G104" si="16">G74+100</f>
+        <f t="shared" ref="G75:G104" si="18">G74+100</f>
         <v>16600</v>
       </c>
       <c r="O75" s="12"/>
@@ -4996,7 +5286,7 @@
         <v>17000</v>
       </c>
       <c r="G76" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>16700</v>
       </c>
       <c r="O76" s="12"/>
@@ -5021,7 +5311,7 @@
         <v>18000</v>
       </c>
       <c r="G77" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>16800</v>
       </c>
       <c r="O77" s="12"/>
@@ -5042,11 +5332,11 @@
         <v>85</v>
       </c>
       <c r="F78" s="15">
-        <f t="shared" ref="F78:F104" si="17">F74+1000</f>
+        <f t="shared" ref="F78:F104" si="19">F74+1000</f>
         <v>18000</v>
       </c>
       <c r="G78" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>16900</v>
       </c>
       <c r="O78" s="12"/>
@@ -5067,11 +5357,11 @@
         <v>86</v>
       </c>
       <c r="F79" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>18000</v>
       </c>
       <c r="G79" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>17000</v>
       </c>
       <c r="O79" s="12"/>
@@ -5092,11 +5382,11 @@
         <v>87</v>
       </c>
       <c r="F80" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>18000</v>
       </c>
       <c r="G80" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>17100</v>
       </c>
       <c r="O80" s="12"/>
@@ -5117,11 +5407,11 @@
         <v>88</v>
       </c>
       <c r="F81" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>19000</v>
       </c>
       <c r="G81" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>17200</v>
       </c>
       <c r="O81" s="12"/>
@@ -5142,11 +5432,11 @@
         <v>89</v>
       </c>
       <c r="F82" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>19000</v>
       </c>
       <c r="G82" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>17300</v>
       </c>
       <c r="O82" s="12"/>
@@ -5167,11 +5457,11 @@
         <v>90</v>
       </c>
       <c r="F83" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>19000</v>
       </c>
       <c r="G83" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>17400</v>
       </c>
       <c r="O83" s="12"/>
@@ -5192,11 +5482,11 @@
         <v>91</v>
       </c>
       <c r="F84" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>19000</v>
       </c>
       <c r="G84" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>17500</v>
       </c>
       <c r="O84" s="12"/>
@@ -5217,11 +5507,11 @@
         <v>92</v>
       </c>
       <c r="F85" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>20000</v>
       </c>
       <c r="G85" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>17600</v>
       </c>
       <c r="O85" s="12"/>
@@ -5242,11 +5532,11 @@
         <v>93</v>
       </c>
       <c r="F86" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>20000</v>
       </c>
       <c r="G86" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>17700</v>
       </c>
       <c r="O86" s="12"/>
@@ -5267,11 +5557,11 @@
         <v>94</v>
       </c>
       <c r="F87" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>20000</v>
       </c>
       <c r="G87" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>17800</v>
       </c>
       <c r="O87" s="12"/>
@@ -5292,11 +5582,11 @@
         <v>95</v>
       </c>
       <c r="F88" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>20000</v>
       </c>
       <c r="G88" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>17900</v>
       </c>
       <c r="O88" s="12"/>
@@ -5317,11 +5607,11 @@
         <v>96</v>
       </c>
       <c r="F89" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>21000</v>
       </c>
       <c r="G89" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>18000</v>
       </c>
       <c r="O89" s="12"/>
@@ -5342,11 +5632,11 @@
         <v>97</v>
       </c>
       <c r="F90" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>21000</v>
       </c>
       <c r="G90" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>18100</v>
       </c>
       <c r="O90" s="12"/>
@@ -5367,11 +5657,11 @@
         <v>98</v>
       </c>
       <c r="F91" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>21000</v>
       </c>
       <c r="G91" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>18200</v>
       </c>
       <c r="O91" s="12"/>
@@ -5392,11 +5682,11 @@
         <v>99</v>
       </c>
       <c r="F92" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>21000</v>
       </c>
       <c r="G92" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>18300</v>
       </c>
       <c r="O92" s="12"/>
@@ -5417,11 +5707,11 @@
         <v>100</v>
       </c>
       <c r="F93" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>22000</v>
       </c>
       <c r="G93" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>18400</v>
       </c>
       <c r="O93" s="12"/>
@@ -5442,11 +5732,11 @@
         <v>101</v>
       </c>
       <c r="F94" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>22000</v>
       </c>
       <c r="G94" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>18500</v>
       </c>
       <c r="O94" s="12"/>
@@ -5467,11 +5757,11 @@
         <v>102</v>
       </c>
       <c r="F95" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>22000</v>
       </c>
       <c r="G95" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>18600</v>
       </c>
       <c r="O95" s="12"/>
@@ -5492,11 +5782,11 @@
         <v>103</v>
       </c>
       <c r="F96" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>22000</v>
       </c>
       <c r="G96" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>18700</v>
       </c>
       <c r="O96" s="12"/>
@@ -5517,11 +5807,11 @@
         <v>104</v>
       </c>
       <c r="F97" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>23000</v>
       </c>
       <c r="G97" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>18800</v>
       </c>
       <c r="O97" s="12"/>
@@ -5542,11 +5832,11 @@
         <v>105</v>
       </c>
       <c r="F98" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>23000</v>
       </c>
       <c r="G98" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>18900</v>
       </c>
       <c r="O98" s="12"/>
@@ -5567,11 +5857,11 @@
         <v>106</v>
       </c>
       <c r="F99" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>23000</v>
       </c>
       <c r="G99" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>19000</v>
       </c>
       <c r="O99" s="12"/>
@@ -5592,11 +5882,11 @@
         <v>107</v>
       </c>
       <c r="F100" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>23000</v>
       </c>
       <c r="G100" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>19100</v>
       </c>
       <c r="O100" s="12"/>
@@ -5617,11 +5907,11 @@
         <v>108</v>
       </c>
       <c r="F101" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>24000</v>
       </c>
       <c r="G101" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>19200</v>
       </c>
       <c r="O101" s="12"/>
@@ -5642,11 +5932,11 @@
         <v>109</v>
       </c>
       <c r="F102" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>24000</v>
       </c>
       <c r="G102" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>19300</v>
       </c>
       <c r="O102" s="12"/>
@@ -5667,11 +5957,11 @@
         <v>110</v>
       </c>
       <c r="F103" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>24000</v>
       </c>
       <c r="G103" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>19400</v>
       </c>
       <c r="O103" s="12"/>
@@ -5692,11 +5982,11 @@
         <v>111</v>
       </c>
       <c r="F104" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>24000</v>
       </c>
       <c r="G104" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>19500</v>
       </c>
       <c r="O104" s="12"/>

--- a/Assets/06.Table/Byeolho.xlsx
+++ b/Assets/06.Table/Byeolho.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D182191-5E77-42A8-807D-F924898E9B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7028A5F5-99DC-43DA-A172-36DB9E9A99ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Byeolho" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="118">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -667,9 +667,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -707,7 +707,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -813,7 +813,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -955,7 +955,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -963,11 +963,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K32" sqref="K32"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1066,7 +1066,7 @@
         <v>100000</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D40" si="0">D3</f>
+        <f t="shared" ref="D4:D50" si="0">D3</f>
         <v>100</v>
       </c>
       <c r="E4">
@@ -1187,7 +1187,7 @@
         <v>환골 탈태 7단</v>
       </c>
       <c r="G8">
-        <f t="shared" ref="G8:G41" si="1">G3+1</f>
+        <f t="shared" ref="G8:G51" si="1">G3+1</f>
         <v>1</v>
       </c>
     </row>
@@ -1259,7 +1259,7 @@
         <v>100000</v>
       </c>
       <c r="D11">
-        <f t="shared" ref="D11:D41" si="2">D10</f>
+        <f t="shared" ref="D11:D51" si="2">D10</f>
         <v>100</v>
       </c>
       <c r="E11">
@@ -2113,6 +2113,286 @@
       <c r="G41">
         <f t="shared" si="1"/>
         <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>9054</v>
+      </c>
+      <c r="C42" s="20">
+        <f>VLOOKUP(A42,Balance!O:R,2,FALSE)</f>
+        <v>450000</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="E42">
+        <f>VLOOKUP(A42,Balance!O:R,3,FALSE)/100</f>
+        <v>31420</v>
+      </c>
+      <c r="F42" t="str">
+        <f>VLOOKUP(A42,Balance!O:R,4,FALSE)</f>
+        <v>환골 탈태 41단</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>9054</v>
+      </c>
+      <c r="C43" s="20">
+        <f>VLOOKUP(A43,Balance!O:R,2,FALSE)</f>
+        <v>450000</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="E43">
+        <f>VLOOKUP(A43,Balance!O:R,3,FALSE)/100</f>
+        <v>35140</v>
+      </c>
+      <c r="F43" t="str">
+        <f>VLOOKUP(A43,Balance!O:R,4,FALSE)</f>
+        <v>환골 탈태 42단</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>9054</v>
+      </c>
+      <c r="C44" s="20">
+        <f>VLOOKUP(A44,Balance!O:R,2,FALSE)</f>
+        <v>450000</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="E44">
+        <f>VLOOKUP(A44,Balance!O:R,3,FALSE)/100</f>
+        <v>38980</v>
+      </c>
+      <c r="F44" t="str">
+        <f>VLOOKUP(A44,Balance!O:R,4,FALSE)</f>
+        <v>환골 탈태 43단</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>9054</v>
+      </c>
+      <c r="C45" s="20">
+        <f>VLOOKUP(A45,Balance!O:R,2,FALSE)</f>
+        <v>450000</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="E45">
+        <f>VLOOKUP(A45,Balance!O:R,3,FALSE)/100</f>
+        <v>42940</v>
+      </c>
+      <c r="F45" t="str">
+        <f>VLOOKUP(A45,Balance!O:R,4,FALSE)</f>
+        <v>환골 탈태 44단</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>9054</v>
+      </c>
+      <c r="C46" s="20">
+        <f>VLOOKUP(A46,Balance!O:R,2,FALSE)</f>
+        <v>500000</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="E46">
+        <f>VLOOKUP(A46,Balance!O:R,3,FALSE)/100</f>
+        <v>47360</v>
+      </c>
+      <c r="F46" t="str">
+        <f>VLOOKUP(A46,Balance!O:R,4,FALSE)</f>
+        <v>환골 탈태 45단</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>9054</v>
+      </c>
+      <c r="C47" s="20">
+        <f>VLOOKUP(A47,Balance!O:R,2,FALSE)</f>
+        <v>550000</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="E47">
+        <f>VLOOKUP(A47,Balance!O:R,3,FALSE)/100</f>
+        <v>52440</v>
+      </c>
+      <c r="F47" t="str">
+        <f>VLOOKUP(A47,Balance!O:R,4,FALSE)</f>
+        <v>환골 탈태 46단</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>9054</v>
+      </c>
+      <c r="C48" s="20">
+        <f>VLOOKUP(A48,Balance!O:R,2,FALSE)</f>
+        <v>550000</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="E48">
+        <f>VLOOKUP(A48,Balance!O:R,3,FALSE)/100</f>
+        <v>57660</v>
+      </c>
+      <c r="F48" t="str">
+        <f>VLOOKUP(A48,Balance!O:R,4,FALSE)</f>
+        <v>환골 탈태 47단</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>9054</v>
+      </c>
+      <c r="C49" s="20">
+        <f>VLOOKUP(A49,Balance!O:R,2,FALSE)</f>
+        <v>550000</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="E49">
+        <f>VLOOKUP(A49,Balance!O:R,3,FALSE)/100</f>
+        <v>63030</v>
+      </c>
+      <c r="F49" t="str">
+        <f>VLOOKUP(A49,Balance!O:R,4,FALSE)</f>
+        <v>환골 탈태 48단</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>9054</v>
+      </c>
+      <c r="C50" s="20">
+        <f>VLOOKUP(A50,Balance!O:R,2,FALSE)</f>
+        <v>550000</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="E50">
+        <f>VLOOKUP(A50,Balance!O:R,3,FALSE)/100</f>
+        <v>68540</v>
+      </c>
+      <c r="F50" t="str">
+        <f>VLOOKUP(A50,Balance!O:R,4,FALSE)</f>
+        <v>환골 탈태 49단</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>9054</v>
+      </c>
+      <c r="C51" s="20">
+        <f>VLOOKUP(A51,Balance!O:R,2,FALSE)</f>
+        <v>550000</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="E51">
+        <f>VLOOKUP(A51,Balance!O:R,3,FALSE)/100</f>
+        <v>74200</v>
+      </c>
+      <c r="F51" t="str">
+        <f>VLOOKUP(A51,Balance!O:R,4,FALSE)</f>
+        <v>환골 탈태 50단</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2126,8 +2406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A9B4BA-49ED-4B77-9780-496F10280935}">
   <dimension ref="A1:AE178"/>
   <sheetViews>
-    <sheetView topLeftCell="K24" workbookViewId="0">
-      <selection activeCell="Q39" sqref="Q39"/>
+    <sheetView topLeftCell="K26" workbookViewId="0">
+      <selection activeCell="Q46" sqref="Q46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4030,7 +4310,7 @@
         <v>환골 탈태 31단</v>
       </c>
       <c r="S39" s="12">
-        <f t="shared" ref="S39:S48" si="12">S38+1</f>
+        <f t="shared" ref="S39:S58" si="12">S38+1</f>
         <v>31</v>
       </c>
       <c r="T39" s="12" t="s">
@@ -4596,7 +4876,7 @@
         <v>14500</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C49" s="12">
         <v>40</v>
       </c>
@@ -4614,14 +4894,49 @@
         <f t="shared" si="2"/>
         <v>14000</v>
       </c>
-      <c r="O49" s="12"/>
-      <c r="P49" s="18"/>
-      <c r="Q49" s="12"/>
-      <c r="R49" s="12"/>
-      <c r="S49" s="12"/>
-      <c r="T49" s="12"/>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="O49" s="12">
+        <v>40</v>
+      </c>
+      <c r="P49" s="18">
+        <f t="shared" ref="P49:P58" si="18">P44+50000</f>
+        <v>450000</v>
+      </c>
+      <c r="Q49" s="19">
+        <f t="shared" ref="Q49:Q58" si="19">ROUND(Q48+ROUNDDOWN(U49,0)*Y49,-3)</f>
+        <v>3142000</v>
+      </c>
+      <c r="R49" s="12" t="str">
+        <f t="shared" ref="R49:R58" si="20">T49&amp;" "&amp;S49&amp;"단"</f>
+        <v>환골 탈태 41단</v>
+      </c>
+      <c r="S49" s="12">
+        <f t="shared" si="12"/>
+        <v>41</v>
+      </c>
+      <c r="T49" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="U49" s="21">
+        <f t="shared" ref="U49:U58" si="21">(P49/$G$96)</f>
+        <v>24.064171122994651</v>
+      </c>
+      <c r="V49" s="21">
+        <f>SUM($U$12:U49)</f>
+        <v>449.19786096256678</v>
+      </c>
+      <c r="W49" s="21">
+        <f t="shared" ref="W49:W58" si="22">(Q49-Q48)*100/Q48</f>
+        <v>12.940330697340043</v>
+      </c>
+      <c r="X49" s="21">
+        <f t="shared" ref="X49:X58" si="23">W49/U49</f>
+        <v>0.53774263120057519</v>
+      </c>
+      <c r="Y49" s="8">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C50" s="12">
         <v>41</v>
       </c>
@@ -4639,14 +4954,49 @@
         <f t="shared" si="2"/>
         <v>14100</v>
       </c>
-      <c r="O50" s="12"/>
-      <c r="P50" s="18"/>
-      <c r="Q50" s="12"/>
-      <c r="R50" s="12"/>
-      <c r="S50" s="12"/>
-      <c r="T50" s="12"/>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="O50" s="12">
+        <v>41</v>
+      </c>
+      <c r="P50" s="18">
+        <f t="shared" si="18"/>
+        <v>450000</v>
+      </c>
+      <c r="Q50" s="19">
+        <f t="shared" si="19"/>
+        <v>3514000</v>
+      </c>
+      <c r="R50" s="12" t="str">
+        <f t="shared" si="20"/>
+        <v>환골 탈태 42단</v>
+      </c>
+      <c r="S50" s="12">
+        <f t="shared" si="12"/>
+        <v>42</v>
+      </c>
+      <c r="T50" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="U50" s="21">
+        <f t="shared" si="21"/>
+        <v>24.064171122994651</v>
+      </c>
+      <c r="V50" s="21">
+        <f>SUM($U$12:U50)</f>
+        <v>473.26203208556143</v>
+      </c>
+      <c r="W50" s="21">
+        <f t="shared" si="22"/>
+        <v>11.839592616168046</v>
+      </c>
+      <c r="X50" s="21">
+        <f t="shared" si="23"/>
+        <v>0.49200084871631661</v>
+      </c>
+      <c r="Y50" s="8">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C51" s="12">
         <v>42</v>
       </c>
@@ -4664,14 +5014,49 @@
         <f t="shared" si="2"/>
         <v>14200</v>
       </c>
-      <c r="O51" s="12"/>
-      <c r="P51" s="18"/>
-      <c r="Q51" s="12"/>
-      <c r="R51" s="12"/>
-      <c r="S51" s="12"/>
-      <c r="T51" s="12"/>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="O51" s="12">
+        <v>42</v>
+      </c>
+      <c r="P51" s="18">
+        <f t="shared" si="18"/>
+        <v>450000</v>
+      </c>
+      <c r="Q51" s="19">
+        <f t="shared" si="19"/>
+        <v>3898000</v>
+      </c>
+      <c r="R51" s="12" t="str">
+        <f t="shared" si="20"/>
+        <v>환골 탈태 43단</v>
+      </c>
+      <c r="S51" s="12">
+        <f t="shared" si="12"/>
+        <v>43</v>
+      </c>
+      <c r="T51" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="U51" s="21">
+        <f t="shared" si="21"/>
+        <v>24.064171122994651</v>
+      </c>
+      <c r="V51" s="21">
+        <f>SUM($U$12:U51)</f>
+        <v>497.32620320855608</v>
+      </c>
+      <c r="W51" s="21">
+        <f t="shared" si="22"/>
+        <v>10.927717700626067</v>
+      </c>
+      <c r="X51" s="21">
+        <f t="shared" si="23"/>
+        <v>0.45410738000379436</v>
+      </c>
+      <c r="Y51" s="8">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C52" s="12">
         <v>43</v>
       </c>
@@ -4689,14 +5074,49 @@
         <f t="shared" si="2"/>
         <v>14300</v>
       </c>
-      <c r="O52" s="12"/>
-      <c r="P52" s="18"/>
-      <c r="Q52" s="12"/>
-      <c r="R52" s="12"/>
-      <c r="S52" s="12"/>
-      <c r="T52" s="12"/>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="O52" s="12">
+        <v>43</v>
+      </c>
+      <c r="P52" s="18">
+        <f t="shared" si="18"/>
+        <v>450000</v>
+      </c>
+      <c r="Q52" s="19">
+        <f t="shared" si="19"/>
+        <v>4294000</v>
+      </c>
+      <c r="R52" s="12" t="str">
+        <f t="shared" si="20"/>
+        <v>환골 탈태 44단</v>
+      </c>
+      <c r="S52" s="12">
+        <f t="shared" si="12"/>
+        <v>44</v>
+      </c>
+      <c r="T52" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="U52" s="21">
+        <f t="shared" si="21"/>
+        <v>24.064171122994651</v>
+      </c>
+      <c r="V52" s="21">
+        <f>SUM($U$12:U52)</f>
+        <v>521.39037433155067</v>
+      </c>
+      <c r="W52" s="21">
+        <f t="shared" si="22"/>
+        <v>10.159055926115958</v>
+      </c>
+      <c r="X52" s="21">
+        <f t="shared" si="23"/>
+        <v>0.4221652129297076</v>
+      </c>
+      <c r="Y52" s="8">
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C53" s="12">
         <v>44</v>
       </c>
@@ -4714,14 +5134,49 @@
         <f t="shared" si="2"/>
         <v>14400</v>
       </c>
-      <c r="O53" s="12"/>
-      <c r="P53" s="18"/>
-      <c r="Q53" s="12"/>
-      <c r="R53" s="12"/>
-      <c r="S53" s="12"/>
-      <c r="T53" s="12"/>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="O53" s="12">
+        <v>44</v>
+      </c>
+      <c r="P53" s="18">
+        <f t="shared" ref="P53:P57" si="24">P48+100000</f>
+        <v>500000</v>
+      </c>
+      <c r="Q53" s="19">
+        <f t="shared" si="19"/>
+        <v>4736000</v>
+      </c>
+      <c r="R53" s="12" t="str">
+        <f t="shared" si="20"/>
+        <v>환골 탈태 45단</v>
+      </c>
+      <c r="S53" s="12">
+        <f t="shared" si="12"/>
+        <v>45</v>
+      </c>
+      <c r="T53" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="U53" s="21">
+        <f t="shared" si="21"/>
+        <v>26.737967914438503</v>
+      </c>
+      <c r="V53" s="21">
+        <f>SUM($U$12:U53)</f>
+        <v>548.12834224598919</v>
+      </c>
+      <c r="W53" s="21">
+        <f t="shared" si="22"/>
+        <v>10.293432696786214</v>
+      </c>
+      <c r="X53" s="21">
+        <f t="shared" si="23"/>
+        <v>0.3849743828598044</v>
+      </c>
+      <c r="Y53" s="8">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C54" s="12">
         <v>45</v>
       </c>
@@ -4739,14 +5194,49 @@
         <f t="shared" si="2"/>
         <v>14500</v>
       </c>
-      <c r="O54" s="12"/>
-      <c r="P54" s="18"/>
-      <c r="Q54" s="12"/>
-      <c r="R54" s="12"/>
-      <c r="S54" s="12"/>
-      <c r="T54" s="12"/>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="O54" s="12">
+        <v>45</v>
+      </c>
+      <c r="P54" s="18">
+        <f t="shared" si="24"/>
+        <v>550000</v>
+      </c>
+      <c r="Q54" s="19">
+        <f t="shared" si="19"/>
+        <v>5244000</v>
+      </c>
+      <c r="R54" s="12" t="str">
+        <f t="shared" si="20"/>
+        <v>환골 탈태 46단</v>
+      </c>
+      <c r="S54" s="12">
+        <f t="shared" si="12"/>
+        <v>46</v>
+      </c>
+      <c r="T54" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="U54" s="21">
+        <f t="shared" si="21"/>
+        <v>29.411764705882351</v>
+      </c>
+      <c r="V54" s="21">
+        <f>SUM($U$12:U54)</f>
+        <v>577.54010695187151</v>
+      </c>
+      <c r="W54" s="21">
+        <f t="shared" si="22"/>
+        <v>10.726351351351351</v>
+      </c>
+      <c r="X54" s="21">
+        <f t="shared" si="23"/>
+        <v>0.36469594594594595</v>
+      </c>
+      <c r="Y54" s="8">
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C55" s="12">
         <v>46</v>
       </c>
@@ -4764,14 +5254,49 @@
         <f t="shared" si="2"/>
         <v>14600</v>
       </c>
-      <c r="O55" s="12"/>
-      <c r="P55" s="18"/>
-      <c r="Q55" s="12"/>
-      <c r="R55" s="12"/>
-      <c r="S55" s="12"/>
-      <c r="T55" s="12"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="O55" s="12">
+        <v>46</v>
+      </c>
+      <c r="P55" s="18">
+        <f t="shared" si="24"/>
+        <v>550000</v>
+      </c>
+      <c r="Q55" s="19">
+        <f t="shared" si="19"/>
+        <v>5766000</v>
+      </c>
+      <c r="R55" s="12" t="str">
+        <f t="shared" si="20"/>
+        <v>환골 탈태 47단</v>
+      </c>
+      <c r="S55" s="12">
+        <f t="shared" si="12"/>
+        <v>47</v>
+      </c>
+      <c r="T55" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="U55" s="21">
+        <f t="shared" si="21"/>
+        <v>29.411764705882351</v>
+      </c>
+      <c r="V55" s="21">
+        <f>SUM($U$12:U55)</f>
+        <v>606.95187165775383</v>
+      </c>
+      <c r="W55" s="21">
+        <f t="shared" si="22"/>
+        <v>9.9542334096109837</v>
+      </c>
+      <c r="X55" s="21">
+        <f t="shared" si="23"/>
+        <v>0.33844393592677346</v>
+      </c>
+      <c r="Y55" s="8">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C56" s="12">
         <v>47</v>
       </c>
@@ -4789,14 +5314,49 @@
         <f t="shared" si="2"/>
         <v>14700</v>
       </c>
-      <c r="O56" s="12"/>
-      <c r="P56" s="18"/>
-      <c r="Q56" s="12"/>
-      <c r="R56" s="12"/>
-      <c r="S56" s="12"/>
-      <c r="T56" s="12"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="O56" s="12">
+        <v>47</v>
+      </c>
+      <c r="P56" s="18">
+        <f t="shared" si="24"/>
+        <v>550000</v>
+      </c>
+      <c r="Q56" s="19">
+        <f t="shared" si="19"/>
+        <v>6303000</v>
+      </c>
+      <c r="R56" s="12" t="str">
+        <f t="shared" si="20"/>
+        <v>환골 탈태 48단</v>
+      </c>
+      <c r="S56" s="12">
+        <f t="shared" si="12"/>
+        <v>48</v>
+      </c>
+      <c r="T56" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="U56" s="21">
+        <f t="shared" si="21"/>
+        <v>29.411764705882351</v>
+      </c>
+      <c r="V56" s="21">
+        <f>SUM($U$12:U56)</f>
+        <v>636.36363636363615</v>
+      </c>
+      <c r="W56" s="21">
+        <f t="shared" si="22"/>
+        <v>9.3132154006243493</v>
+      </c>
+      <c r="X56" s="21">
+        <f t="shared" si="23"/>
+        <v>0.31664932362122789</v>
+      </c>
+      <c r="Y56" s="8">
+        <v>18500</v>
+      </c>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C57" s="12">
         <v>48</v>
       </c>
@@ -4814,14 +5374,49 @@
         <f t="shared" si="2"/>
         <v>14800</v>
       </c>
-      <c r="O57" s="12"/>
-      <c r="P57" s="18"/>
-      <c r="Q57" s="12"/>
-      <c r="R57" s="12"/>
-      <c r="S57" s="12"/>
-      <c r="T57" s="12"/>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="O57" s="12">
+        <v>48</v>
+      </c>
+      <c r="P57" s="18">
+        <f t="shared" si="24"/>
+        <v>550000</v>
+      </c>
+      <c r="Q57" s="19">
+        <f t="shared" si="19"/>
+        <v>6854000</v>
+      </c>
+      <c r="R57" s="12" t="str">
+        <f t="shared" si="20"/>
+        <v>환골 탈태 49단</v>
+      </c>
+      <c r="S57" s="12">
+        <f t="shared" si="12"/>
+        <v>49</v>
+      </c>
+      <c r="T57" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="U57" s="21">
+        <f t="shared" si="21"/>
+        <v>29.411764705882351</v>
+      </c>
+      <c r="V57" s="21">
+        <f>SUM($U$12:U57)</f>
+        <v>665.77540106951847</v>
+      </c>
+      <c r="W57" s="21">
+        <f t="shared" si="22"/>
+        <v>8.7418689512930356</v>
+      </c>
+      <c r="X57" s="21">
+        <f t="shared" si="23"/>
+        <v>0.29722354434396325</v>
+      </c>
+      <c r="Y57" s="8">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C58" s="12">
         <v>49</v>
       </c>
@@ -4839,14 +5434,49 @@
         <f t="shared" si="2"/>
         <v>14900</v>
       </c>
-      <c r="O58" s="12"/>
-      <c r="P58" s="18"/>
-      <c r="Q58" s="12"/>
-      <c r="R58" s="12"/>
-      <c r="S58" s="12"/>
-      <c r="T58" s="12"/>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="O58" s="12">
+        <v>49</v>
+      </c>
+      <c r="P58" s="18">
+        <f t="shared" si="18"/>
+        <v>550000</v>
+      </c>
+      <c r="Q58" s="19">
+        <f t="shared" si="19"/>
+        <v>7420000</v>
+      </c>
+      <c r="R58" s="12" t="str">
+        <f t="shared" si="20"/>
+        <v>환골 탈태 50단</v>
+      </c>
+      <c r="S58" s="12">
+        <f t="shared" si="12"/>
+        <v>50</v>
+      </c>
+      <c r="T58" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="U58" s="21">
+        <f t="shared" si="21"/>
+        <v>29.411764705882351</v>
+      </c>
+      <c r="V58" s="21">
+        <f>SUM($U$12:U58)</f>
+        <v>695.18716577540079</v>
+      </c>
+      <c r="W58" s="21">
+        <f t="shared" si="22"/>
+        <v>8.2579515611321863</v>
+      </c>
+      <c r="X58" s="21">
+        <f t="shared" si="23"/>
+        <v>0.28077035307849435</v>
+      </c>
+      <c r="Y58" s="8">
+        <v>19500</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C59" s="12">
         <v>50</v>
       </c>
@@ -4871,7 +5501,7 @@
       <c r="S59" s="12"/>
       <c r="T59" s="12"/>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C60" s="12">
         <v>51</v>
       </c>
@@ -4896,7 +5526,7 @@
       <c r="S60" s="12"/>
       <c r="T60" s="12"/>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C61" s="12">
         <v>52</v>
       </c>
@@ -4921,7 +5551,7 @@
       <c r="S61" s="12"/>
       <c r="T61" s="12"/>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C62" s="12">
         <v>53</v>
       </c>
@@ -4946,7 +5576,7 @@
       <c r="S62" s="12"/>
       <c r="T62" s="12"/>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C63" s="12">
         <v>54</v>
       </c>
@@ -4971,7 +5601,7 @@
       <c r="S63" s="12"/>
       <c r="T63" s="12"/>
     </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C64" s="12">
         <v>55</v>
       </c>
@@ -5261,7 +5891,7 @@
         <v>17000</v>
       </c>
       <c r="G75" s="15">
-        <f t="shared" ref="G75:G104" si="18">G74+100</f>
+        <f t="shared" ref="G75:G104" si="25">G74+100</f>
         <v>16600</v>
       </c>
       <c r="O75" s="12"/>
@@ -5286,7 +5916,7 @@
         <v>17000</v>
       </c>
       <c r="G76" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>16700</v>
       </c>
       <c r="O76" s="12"/>
@@ -5311,7 +5941,7 @@
         <v>18000</v>
       </c>
       <c r="G77" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>16800</v>
       </c>
       <c r="O77" s="12"/>
@@ -5332,11 +5962,11 @@
         <v>85</v>
       </c>
       <c r="F78" s="15">
-        <f t="shared" ref="F78:F104" si="19">F74+1000</f>
+        <f t="shared" ref="F78:F104" si="26">F74+1000</f>
         <v>18000</v>
       </c>
       <c r="G78" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>16900</v>
       </c>
       <c r="O78" s="12"/>
@@ -5357,11 +5987,11 @@
         <v>86</v>
       </c>
       <c r="F79" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>18000</v>
       </c>
       <c r="G79" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>17000</v>
       </c>
       <c r="O79" s="12"/>
@@ -5382,11 +6012,11 @@
         <v>87</v>
       </c>
       <c r="F80" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>18000</v>
       </c>
       <c r="G80" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>17100</v>
       </c>
       <c r="O80" s="12"/>
@@ -5407,11 +6037,11 @@
         <v>88</v>
       </c>
       <c r="F81" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>19000</v>
       </c>
       <c r="G81" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>17200</v>
       </c>
       <c r="O81" s="12"/>
@@ -5432,11 +6062,11 @@
         <v>89</v>
       </c>
       <c r="F82" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>19000</v>
       </c>
       <c r="G82" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>17300</v>
       </c>
       <c r="O82" s="12"/>
@@ -5457,11 +6087,11 @@
         <v>90</v>
       </c>
       <c r="F83" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>19000</v>
       </c>
       <c r="G83" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>17400</v>
       </c>
       <c r="O83" s="12"/>
@@ -5482,11 +6112,11 @@
         <v>91</v>
       </c>
       <c r="F84" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>19000</v>
       </c>
       <c r="G84" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>17500</v>
       </c>
       <c r="O84" s="12"/>
@@ -5507,11 +6137,11 @@
         <v>92</v>
       </c>
       <c r="F85" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>20000</v>
       </c>
       <c r="G85" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>17600</v>
       </c>
       <c r="O85" s="12"/>
@@ -5532,11 +6162,11 @@
         <v>93</v>
       </c>
       <c r="F86" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>20000</v>
       </c>
       <c r="G86" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>17700</v>
       </c>
       <c r="O86" s="12"/>
@@ -5557,11 +6187,11 @@
         <v>94</v>
       </c>
       <c r="F87" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>20000</v>
       </c>
       <c r="G87" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>17800</v>
       </c>
       <c r="O87" s="12"/>
@@ -5582,11 +6212,11 @@
         <v>95</v>
       </c>
       <c r="F88" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>20000</v>
       </c>
       <c r="G88" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>17900</v>
       </c>
       <c r="O88" s="12"/>
@@ -5607,11 +6237,11 @@
         <v>96</v>
       </c>
       <c r="F89" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>21000</v>
       </c>
       <c r="G89" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>18000</v>
       </c>
       <c r="O89" s="12"/>
@@ -5632,11 +6262,11 @@
         <v>97</v>
       </c>
       <c r="F90" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>21000</v>
       </c>
       <c r="G90" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>18100</v>
       </c>
       <c r="O90" s="12"/>
@@ -5657,11 +6287,11 @@
         <v>98</v>
       </c>
       <c r="F91" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>21000</v>
       </c>
       <c r="G91" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>18200</v>
       </c>
       <c r="O91" s="12"/>
@@ -5682,11 +6312,11 @@
         <v>99</v>
       </c>
       <c r="F92" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>21000</v>
       </c>
       <c r="G92" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>18300</v>
       </c>
       <c r="O92" s="12"/>
@@ -5707,11 +6337,11 @@
         <v>100</v>
       </c>
       <c r="F93" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>22000</v>
       </c>
       <c r="G93" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>18400</v>
       </c>
       <c r="O93" s="12"/>
@@ -5732,11 +6362,11 @@
         <v>101</v>
       </c>
       <c r="F94" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>22000</v>
       </c>
       <c r="G94" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>18500</v>
       </c>
       <c r="O94" s="12"/>
@@ -5757,11 +6387,11 @@
         <v>102</v>
       </c>
       <c r="F95" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>22000</v>
       </c>
       <c r="G95" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>18600</v>
       </c>
       <c r="O95" s="12"/>
@@ -5782,11 +6412,11 @@
         <v>103</v>
       </c>
       <c r="F96" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>22000</v>
       </c>
       <c r="G96" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>18700</v>
       </c>
       <c r="O96" s="12"/>
@@ -5807,11 +6437,11 @@
         <v>104</v>
       </c>
       <c r="F97" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>23000</v>
       </c>
       <c r="G97" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>18800</v>
       </c>
       <c r="O97" s="12"/>
@@ -5832,11 +6462,11 @@
         <v>105</v>
       </c>
       <c r="F98" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>23000</v>
       </c>
       <c r="G98" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>18900</v>
       </c>
       <c r="O98" s="12"/>
@@ -5857,11 +6487,11 @@
         <v>106</v>
       </c>
       <c r="F99" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>23000</v>
       </c>
       <c r="G99" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>19000</v>
       </c>
       <c r="O99" s="12"/>
@@ -5882,11 +6512,11 @@
         <v>107</v>
       </c>
       <c r="F100" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>23000</v>
       </c>
       <c r="G100" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>19100</v>
       </c>
       <c r="O100" s="12"/>
@@ -5907,11 +6537,11 @@
         <v>108</v>
       </c>
       <c r="F101" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>24000</v>
       </c>
       <c r="G101" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>19200</v>
       </c>
       <c r="O101" s="12"/>
@@ -5932,11 +6562,11 @@
         <v>109</v>
       </c>
       <c r="F102" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>24000</v>
       </c>
       <c r="G102" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>19300</v>
       </c>
       <c r="O102" s="12"/>
@@ -5957,11 +6587,11 @@
         <v>110</v>
       </c>
       <c r="F103" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>24000</v>
       </c>
       <c r="G103" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>19400</v>
       </c>
       <c r="O103" s="12"/>
@@ -5982,11 +6612,11 @@
         <v>111</v>
       </c>
       <c r="F104" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>24000</v>
       </c>
       <c r="G104" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>19500</v>
       </c>
       <c r="O104" s="12"/>

--- a/Assets/06.Table/Byeolho.xlsx
+++ b/Assets/06.Table/Byeolho.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7028A5F5-99DC-43DA-A172-36DB9E9A99ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E8FF1D-B6F1-4C4E-850B-7AC6F444A81D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Byeolho" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="118">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -966,8 +966,8 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2264,7 +2264,7 @@
       </c>
       <c r="C47" s="20">
         <f>VLOOKUP(A47,Balance!O:R,2,FALSE)</f>
-        <v>550000</v>
+        <v>500000</v>
       </c>
       <c r="D47">
         <f t="shared" si="2"/>
@@ -2272,7 +2272,7 @@
       </c>
       <c r="E47">
         <f>VLOOKUP(A47,Balance!O:R,3,FALSE)/100</f>
-        <v>52440</v>
+        <v>51910</v>
       </c>
       <c r="F47" t="str">
         <f>VLOOKUP(A47,Balance!O:R,4,FALSE)</f>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="C48" s="20">
         <f>VLOOKUP(A48,Balance!O:R,2,FALSE)</f>
-        <v>550000</v>
+        <v>500000</v>
       </c>
       <c r="D48">
         <f t="shared" si="0"/>
@@ -2300,7 +2300,7 @@
       </c>
       <c r="E48">
         <f>VLOOKUP(A48,Balance!O:R,3,FALSE)/100</f>
-        <v>57660</v>
+        <v>56590</v>
       </c>
       <c r="F48" t="str">
         <f>VLOOKUP(A48,Balance!O:R,4,FALSE)</f>
@@ -2320,7 +2320,7 @@
       </c>
       <c r="C49" s="20">
         <f>VLOOKUP(A49,Balance!O:R,2,FALSE)</f>
-        <v>550000</v>
+        <v>500000</v>
       </c>
       <c r="D49">
         <f t="shared" si="2"/>
@@ -2328,7 +2328,7 @@
       </c>
       <c r="E49">
         <f>VLOOKUP(A49,Balance!O:R,3,FALSE)/100</f>
-        <v>63030</v>
+        <v>61400</v>
       </c>
       <c r="F49" t="str">
         <f>VLOOKUP(A49,Balance!O:R,4,FALSE)</f>
@@ -2348,7 +2348,7 @@
       </c>
       <c r="C50" s="20">
         <f>VLOOKUP(A50,Balance!O:R,2,FALSE)</f>
-        <v>550000</v>
+        <v>500000</v>
       </c>
       <c r="D50">
         <f t="shared" si="0"/>
@@ -2356,7 +2356,7 @@
       </c>
       <c r="E50">
         <f>VLOOKUP(A50,Balance!O:R,3,FALSE)/100</f>
-        <v>68540</v>
+        <v>66340</v>
       </c>
       <c r="F50" t="str">
         <f>VLOOKUP(A50,Balance!O:R,4,FALSE)</f>
@@ -2376,7 +2376,7 @@
       </c>
       <c r="C51" s="20">
         <f>VLOOKUP(A51,Balance!O:R,2,FALSE)</f>
-        <v>550000</v>
+        <v>500000</v>
       </c>
       <c r="D51">
         <f t="shared" si="2"/>
@@ -2384,7 +2384,7 @@
       </c>
       <c r="E51">
         <f>VLOOKUP(A51,Balance!O:R,3,FALSE)/100</f>
-        <v>74200</v>
+        <v>71410</v>
       </c>
       <c r="F51" t="str">
         <f>VLOOKUP(A51,Balance!O:R,4,FALSE)</f>
@@ -2406,8 +2406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A9B4BA-49ED-4B77-9780-496F10280935}">
   <dimension ref="A1:AE178"/>
   <sheetViews>
-    <sheetView topLeftCell="K26" workbookViewId="0">
-      <selection activeCell="Q46" sqref="Q46"/>
+    <sheetView topLeftCell="K51" workbookViewId="0">
+      <selection activeCell="O78" sqref="O78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4310,7 +4310,7 @@
         <v>환골 탈태 31단</v>
       </c>
       <c r="S39" s="12">
-        <f t="shared" ref="S39:S58" si="12">S38+1</f>
+        <f t="shared" ref="S39:S81" si="12">S38+1</f>
         <v>31</v>
       </c>
       <c r="T39" s="12" t="s">
@@ -4898,7 +4898,7 @@
         <v>40</v>
       </c>
       <c r="P49" s="18">
-        <f t="shared" ref="P49:P58" si="18">P44+50000</f>
+        <f t="shared" ref="P49:P74" si="18">P44+50000</f>
         <v>450000</v>
       </c>
       <c r="Q49" s="19">
@@ -5138,7 +5138,7 @@
         <v>44</v>
       </c>
       <c r="P53" s="18">
-        <f t="shared" ref="P53:P57" si="24">P48+100000</f>
+        <f t="shared" ref="P53:P78" si="24">P48+100000</f>
         <v>500000</v>
       </c>
       <c r="Q53" s="19">
@@ -5198,12 +5198,12 @@
         <v>45</v>
       </c>
       <c r="P54" s="18">
-        <f t="shared" si="24"/>
-        <v>550000</v>
+        <f>P49+50000</f>
+        <v>500000</v>
       </c>
       <c r="Q54" s="19">
         <f t="shared" si="19"/>
-        <v>5244000</v>
+        <v>5191000</v>
       </c>
       <c r="R54" s="12" t="str">
         <f t="shared" si="20"/>
@@ -5218,19 +5218,19 @@
       </c>
       <c r="U54" s="21">
         <f t="shared" si="21"/>
-        <v>29.411764705882351</v>
+        <v>26.737967914438503</v>
       </c>
       <c r="V54" s="21">
         <f>SUM($U$12:U54)</f>
-        <v>577.54010695187151</v>
+        <v>574.8663101604277</v>
       </c>
       <c r="W54" s="21">
         <f t="shared" si="22"/>
-        <v>10.726351351351351</v>
+        <v>9.607263513513514</v>
       </c>
       <c r="X54" s="21">
         <f t="shared" si="23"/>
-        <v>0.36469594594594595</v>
+        <v>0.35931165540540544</v>
       </c>
       <c r="Y54" s="8">
         <v>17500</v>
@@ -5258,12 +5258,12 @@
         <v>46</v>
       </c>
       <c r="P55" s="18">
-        <f t="shared" si="24"/>
-        <v>550000</v>
+        <f t="shared" ref="P55:P75" si="25">P50+50000</f>
+        <v>500000</v>
       </c>
       <c r="Q55" s="19">
         <f t="shared" si="19"/>
-        <v>5766000</v>
+        <v>5659000</v>
       </c>
       <c r="R55" s="12" t="str">
         <f t="shared" si="20"/>
@@ -5278,19 +5278,19 @@
       </c>
       <c r="U55" s="21">
         <f t="shared" si="21"/>
-        <v>29.411764705882351</v>
+        <v>26.737967914438503</v>
       </c>
       <c r="V55" s="21">
         <f>SUM($U$12:U55)</f>
-        <v>606.95187165775383</v>
+        <v>601.60427807486622</v>
       </c>
       <c r="W55" s="21">
         <f t="shared" si="22"/>
-        <v>9.9542334096109837</v>
+        <v>9.0156039298786368</v>
       </c>
       <c r="X55" s="21">
         <f t="shared" si="23"/>
-        <v>0.33844393592677346</v>
+        <v>0.33718358697746104</v>
       </c>
       <c r="Y55" s="8">
         <v>18000</v>
@@ -5318,12 +5318,12 @@
         <v>47</v>
       </c>
       <c r="P56" s="18">
-        <f t="shared" si="24"/>
-        <v>550000</v>
+        <f t="shared" si="25"/>
+        <v>500000</v>
       </c>
       <c r="Q56" s="19">
         <f t="shared" si="19"/>
-        <v>6303000</v>
+        <v>6140000</v>
       </c>
       <c r="R56" s="12" t="str">
         <f t="shared" si="20"/>
@@ -5338,19 +5338,19 @@
       </c>
       <c r="U56" s="21">
         <f t="shared" si="21"/>
-        <v>29.411764705882351</v>
+        <v>26.737967914438503</v>
       </c>
       <c r="V56" s="21">
         <f>SUM($U$12:U56)</f>
-        <v>636.36363636363615</v>
+        <v>628.34224598930473</v>
       </c>
       <c r="W56" s="21">
         <f t="shared" si="22"/>
-        <v>9.3132154006243493</v>
+        <v>8.499734935500971</v>
       </c>
       <c r="X56" s="21">
         <f t="shared" si="23"/>
-        <v>0.31664932362122789</v>
+        <v>0.31789008658773632</v>
       </c>
       <c r="Y56" s="8">
         <v>18500</v>
@@ -5378,12 +5378,12 @@
         <v>48</v>
       </c>
       <c r="P57" s="18">
-        <f t="shared" si="24"/>
-        <v>550000</v>
+        <f t="shared" si="25"/>
+        <v>500000</v>
       </c>
       <c r="Q57" s="19">
         <f t="shared" si="19"/>
-        <v>6854000</v>
+        <v>6634000</v>
       </c>
       <c r="R57" s="12" t="str">
         <f t="shared" si="20"/>
@@ -5398,19 +5398,19 @@
       </c>
       <c r="U57" s="21">
         <f t="shared" si="21"/>
-        <v>29.411764705882351</v>
+        <v>26.737967914438503</v>
       </c>
       <c r="V57" s="21">
         <f>SUM($U$12:U57)</f>
-        <v>665.77540106951847</v>
+        <v>655.08021390374324</v>
       </c>
       <c r="W57" s="21">
         <f t="shared" si="22"/>
-        <v>8.7418689512930356</v>
+        <v>8.0456026058631913</v>
       </c>
       <c r="X57" s="21">
         <f t="shared" si="23"/>
-        <v>0.29722354434396325</v>
+        <v>0.30090553745928333</v>
       </c>
       <c r="Y57" s="8">
         <v>19000</v>
@@ -5438,12 +5438,12 @@
         <v>49</v>
       </c>
       <c r="P58" s="18">
-        <f t="shared" si="18"/>
-        <v>550000</v>
+        <f>P49+50000</f>
+        <v>500000</v>
       </c>
       <c r="Q58" s="19">
         <f t="shared" si="19"/>
-        <v>7420000</v>
+        <v>7141000</v>
       </c>
       <c r="R58" s="12" t="str">
         <f t="shared" si="20"/>
@@ -5458,19 +5458,19 @@
       </c>
       <c r="U58" s="21">
         <f t="shared" si="21"/>
-        <v>29.411764705882351</v>
+        <v>26.737967914438503</v>
       </c>
       <c r="V58" s="21">
         <f>SUM($U$12:U58)</f>
-        <v>695.18716577540079</v>
+        <v>681.81818181818176</v>
       </c>
       <c r="W58" s="21">
         <f t="shared" si="22"/>
-        <v>8.2579515611321863</v>
+        <v>7.6424479951763642</v>
       </c>
       <c r="X58" s="21">
         <f t="shared" si="23"/>
-        <v>0.28077035307849435</v>
+        <v>0.285827555019596</v>
       </c>
       <c r="Y58" s="8">
         <v>19500</v>
@@ -5494,12 +5494,47 @@
         <f t="shared" si="2"/>
         <v>15000</v>
       </c>
-      <c r="O59" s="12"/>
-      <c r="P59" s="18"/>
-      <c r="Q59" s="12"/>
-      <c r="R59" s="12"/>
-      <c r="S59" s="12"/>
-      <c r="T59" s="12"/>
+      <c r="O59" s="12">
+        <v>50</v>
+      </c>
+      <c r="P59" s="18">
+        <f t="shared" ref="P59:P81" si="26">P50+50000</f>
+        <v>500000</v>
+      </c>
+      <c r="Q59" s="19">
+        <f t="shared" ref="Q59:Q77" si="27">ROUND(Q58+ROUNDDOWN(U59,0)*Y59,-3)</f>
+        <v>7661000</v>
+      </c>
+      <c r="R59" s="12" t="str">
+        <f t="shared" ref="R59:R77" si="28">T59&amp;" "&amp;S59&amp;"단"</f>
+        <v>환골 탈태 51단</v>
+      </c>
+      <c r="S59" s="12">
+        <f t="shared" si="12"/>
+        <v>51</v>
+      </c>
+      <c r="T59" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="U59" s="21">
+        <f t="shared" ref="U59:U77" si="29">(P59/$G$96)</f>
+        <v>26.737967914438503</v>
+      </c>
+      <c r="V59" s="21">
+        <f>SUM($U$12:U59)</f>
+        <v>708.55614973262027</v>
+      </c>
+      <c r="W59" s="21">
+        <f t="shared" ref="W59:W77" si="30">(Q59-Q58)*100/Q58</f>
+        <v>7.2818932922559867</v>
+      </c>
+      <c r="X59" s="21">
+        <f t="shared" ref="X59:X77" si="31">W59/U59</f>
+        <v>0.2723428091303739</v>
+      </c>
+      <c r="Y59" s="8">
+        <v>20000</v>
+      </c>
     </row>
     <row r="60" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C60" s="12">
@@ -5519,12 +5554,47 @@
         <f t="shared" si="2"/>
         <v>15100</v>
       </c>
-      <c r="O60" s="12"/>
-      <c r="P60" s="18"/>
-      <c r="Q60" s="12"/>
-      <c r="R60" s="12"/>
-      <c r="S60" s="12"/>
-      <c r="T60" s="12"/>
+      <c r="O60" s="12">
+        <v>51</v>
+      </c>
+      <c r="P60" s="18">
+        <f t="shared" si="26"/>
+        <v>500000</v>
+      </c>
+      <c r="Q60" s="19">
+        <f t="shared" si="27"/>
+        <v>8207000</v>
+      </c>
+      <c r="R60" s="12" t="str">
+        <f t="shared" si="28"/>
+        <v>환골 탈태 52단</v>
+      </c>
+      <c r="S60" s="12">
+        <f t="shared" si="12"/>
+        <v>52</v>
+      </c>
+      <c r="T60" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="U60" s="21">
+        <f t="shared" si="29"/>
+        <v>26.737967914438503</v>
+      </c>
+      <c r="V60" s="21">
+        <f>SUM($U$12:U60)</f>
+        <v>735.29411764705878</v>
+      </c>
+      <c r="W60" s="21">
+        <f t="shared" si="30"/>
+        <v>7.1270069181568987</v>
+      </c>
+      <c r="X60" s="21">
+        <f t="shared" si="31"/>
+        <v>0.26655005873906801</v>
+      </c>
+      <c r="Y60" s="8">
+        <v>21000</v>
+      </c>
     </row>
     <row r="61" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C61" s="12">
@@ -5544,12 +5614,47 @@
         <f t="shared" si="2"/>
         <v>15200</v>
       </c>
-      <c r="O61" s="12"/>
-      <c r="P61" s="18"/>
-      <c r="Q61" s="12"/>
-      <c r="R61" s="12"/>
-      <c r="S61" s="12"/>
-      <c r="T61" s="12"/>
+      <c r="O61" s="12">
+        <v>52</v>
+      </c>
+      <c r="P61" s="18">
+        <f t="shared" si="26"/>
+        <v>500000</v>
+      </c>
+      <c r="Q61" s="19">
+        <f t="shared" si="27"/>
+        <v>8779000</v>
+      </c>
+      <c r="R61" s="12" t="str">
+        <f t="shared" si="28"/>
+        <v>환골 탈태 53단</v>
+      </c>
+      <c r="S61" s="12">
+        <f t="shared" si="12"/>
+        <v>53</v>
+      </c>
+      <c r="T61" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="U61" s="21">
+        <f t="shared" si="29"/>
+        <v>26.737967914438503</v>
+      </c>
+      <c r="V61" s="21">
+        <f>SUM($U$12:U61)</f>
+        <v>762.0320855614973</v>
+      </c>
+      <c r="W61" s="21">
+        <f t="shared" si="30"/>
+        <v>6.9696600463019376</v>
+      </c>
+      <c r="X61" s="21">
+        <f t="shared" si="31"/>
+        <v>0.26066528573169245</v>
+      </c>
+      <c r="Y61" s="8">
+        <v>22000</v>
+      </c>
     </row>
     <row r="62" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C62" s="12">
@@ -5569,12 +5674,47 @@
         <f t="shared" si="2"/>
         <v>15300</v>
       </c>
-      <c r="O62" s="12"/>
-      <c r="P62" s="13"/>
-      <c r="Q62" s="12"/>
-      <c r="R62" s="12"/>
-      <c r="S62" s="12"/>
-      <c r="T62" s="12"/>
+      <c r="O62" s="12">
+        <v>53</v>
+      </c>
+      <c r="P62" s="18">
+        <f t="shared" si="26"/>
+        <v>550000</v>
+      </c>
+      <c r="Q62" s="19">
+        <f t="shared" si="27"/>
+        <v>9446000</v>
+      </c>
+      <c r="R62" s="12" t="str">
+        <f t="shared" si="28"/>
+        <v>환골 탈태 54단</v>
+      </c>
+      <c r="S62" s="12">
+        <f t="shared" si="12"/>
+        <v>54</v>
+      </c>
+      <c r="T62" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="U62" s="21">
+        <f t="shared" si="29"/>
+        <v>29.411764705882351</v>
+      </c>
+      <c r="V62" s="21">
+        <f>SUM($U$12:U62)</f>
+        <v>791.44385026737962</v>
+      </c>
+      <c r="W62" s="21">
+        <f t="shared" si="30"/>
+        <v>7.5976762729240228</v>
+      </c>
+      <c r="X62" s="21">
+        <f t="shared" si="31"/>
+        <v>0.25832099327941677</v>
+      </c>
+      <c r="Y62" s="8">
+        <v>23000</v>
+      </c>
     </row>
     <row r="63" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C63" s="12">
@@ -5594,12 +5734,47 @@
         <f t="shared" si="2"/>
         <v>15400</v>
       </c>
-      <c r="O63" s="12"/>
-      <c r="P63" s="13"/>
-      <c r="Q63" s="12"/>
-      <c r="R63" s="12"/>
-      <c r="S63" s="12"/>
-      <c r="T63" s="12"/>
+      <c r="O63" s="12">
+        <v>54</v>
+      </c>
+      <c r="P63" s="18">
+        <f t="shared" si="26"/>
+        <v>550000</v>
+      </c>
+      <c r="Q63" s="19">
+        <f t="shared" si="27"/>
+        <v>10142000</v>
+      </c>
+      <c r="R63" s="12" t="str">
+        <f t="shared" si="28"/>
+        <v>환골 탈태 55단</v>
+      </c>
+      <c r="S63" s="12">
+        <f t="shared" si="12"/>
+        <v>55</v>
+      </c>
+      <c r="T63" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="U63" s="21">
+        <f t="shared" si="29"/>
+        <v>29.411764705882351</v>
+      </c>
+      <c r="V63" s="21">
+        <f>SUM($U$12:U63)</f>
+        <v>820.85561497326194</v>
+      </c>
+      <c r="W63" s="21">
+        <f t="shared" si="30"/>
+        <v>7.3681981791234383</v>
+      </c>
+      <c r="X63" s="21">
+        <f t="shared" si="31"/>
+        <v>0.25051873809019692</v>
+      </c>
+      <c r="Y63" s="8">
+        <v>24000</v>
+      </c>
     </row>
     <row r="64" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C64" s="12">
@@ -5619,14 +5794,49 @@
         <f t="shared" si="2"/>
         <v>15500</v>
       </c>
-      <c r="O64" s="12"/>
-      <c r="P64" s="13"/>
-      <c r="Q64" s="12"/>
-      <c r="R64" s="12"/>
-      <c r="S64" s="12"/>
-      <c r="T64" s="12"/>
-    </row>
-    <row r="65" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="O64" s="12">
+        <v>55</v>
+      </c>
+      <c r="P64" s="18">
+        <f t="shared" si="26"/>
+        <v>550000</v>
+      </c>
+      <c r="Q64" s="19">
+        <f t="shared" si="27"/>
+        <v>10867000</v>
+      </c>
+      <c r="R64" s="12" t="str">
+        <f t="shared" si="28"/>
+        <v>환골 탈태 56단</v>
+      </c>
+      <c r="S64" s="12">
+        <f t="shared" si="12"/>
+        <v>56</v>
+      </c>
+      <c r="T64" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="U64" s="21">
+        <f t="shared" si="29"/>
+        <v>29.411764705882351</v>
+      </c>
+      <c r="V64" s="21">
+        <f>SUM($U$12:U64)</f>
+        <v>850.26737967914426</v>
+      </c>
+      <c r="W64" s="21">
+        <f t="shared" si="30"/>
+        <v>7.1484914218102942</v>
+      </c>
+      <c r="X64" s="21">
+        <f t="shared" si="31"/>
+        <v>0.24304870834155001</v>
+      </c>
+      <c r="Y64" s="8">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="65" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C65" s="12">
         <v>56</v>
       </c>
@@ -5644,14 +5854,49 @@
         <f t="shared" si="2"/>
         <v>15600</v>
       </c>
-      <c r="O65" s="12"/>
-      <c r="P65" s="13"/>
-      <c r="Q65" s="12"/>
-      <c r="R65" s="12"/>
-      <c r="S65" s="12"/>
-      <c r="T65" s="12"/>
-    </row>
-    <row r="66" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="O65" s="12">
+        <v>56</v>
+      </c>
+      <c r="P65" s="18">
+        <f t="shared" si="26"/>
+        <v>550000</v>
+      </c>
+      <c r="Q65" s="19">
+        <f t="shared" si="27"/>
+        <v>11621000</v>
+      </c>
+      <c r="R65" s="12" t="str">
+        <f t="shared" si="28"/>
+        <v>환골 탈태 57단</v>
+      </c>
+      <c r="S65" s="12">
+        <f t="shared" si="12"/>
+        <v>57</v>
+      </c>
+      <c r="T65" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="U65" s="21">
+        <f t="shared" si="29"/>
+        <v>29.411764705882351</v>
+      </c>
+      <c r="V65" s="21">
+        <f>SUM($U$12:U65)</f>
+        <v>879.67914438502658</v>
+      </c>
+      <c r="W65" s="21">
+        <f t="shared" si="30"/>
+        <v>6.9384374712432137</v>
+      </c>
+      <c r="X65" s="21">
+        <f t="shared" si="31"/>
+        <v>0.23590687402226929</v>
+      </c>
+      <c r="Y65" s="8">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="66" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C66" s="12">
         <v>57</v>
       </c>
@@ -5669,14 +5914,49 @@
         <f t="shared" si="2"/>
         <v>15700</v>
       </c>
-      <c r="O66" s="12"/>
-      <c r="P66" s="13"/>
-      <c r="Q66" s="12"/>
-      <c r="R66" s="12"/>
-      <c r="S66" s="12"/>
-      <c r="T66" s="12"/>
-    </row>
-    <row r="67" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="O66" s="12">
+        <v>57</v>
+      </c>
+      <c r="P66" s="18">
+        <f t="shared" si="26"/>
+        <v>550000</v>
+      </c>
+      <c r="Q66" s="19">
+        <f t="shared" si="27"/>
+        <v>12404000</v>
+      </c>
+      <c r="R66" s="12" t="str">
+        <f t="shared" si="28"/>
+        <v>환골 탈태 58단</v>
+      </c>
+      <c r="S66" s="12">
+        <f t="shared" si="12"/>
+        <v>58</v>
+      </c>
+      <c r="T66" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="U66" s="21">
+        <f t="shared" si="29"/>
+        <v>29.411764705882351</v>
+      </c>
+      <c r="V66" s="21">
+        <f>SUM($U$12:U66)</f>
+        <v>909.09090909090889</v>
+      </c>
+      <c r="W66" s="21">
+        <f t="shared" si="30"/>
+        <v>6.7378022545391962</v>
+      </c>
+      <c r="X66" s="21">
+        <f t="shared" si="31"/>
+        <v>0.22908527665433268</v>
+      </c>
+      <c r="Y66" s="8">
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="67" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C67" s="12">
         <v>58</v>
       </c>
@@ -5694,14 +5974,49 @@
         <f t="shared" si="2"/>
         <v>15800</v>
       </c>
-      <c r="O67" s="12"/>
-      <c r="P67" s="13"/>
-      <c r="Q67" s="12"/>
-      <c r="R67" s="12"/>
-      <c r="S67" s="12"/>
-      <c r="T67" s="12"/>
-    </row>
-    <row r="68" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="O67" s="12">
+        <v>58</v>
+      </c>
+      <c r="P67" s="18">
+        <f t="shared" si="26"/>
+        <v>550000</v>
+      </c>
+      <c r="Q67" s="19">
+        <f t="shared" si="27"/>
+        <v>13216000</v>
+      </c>
+      <c r="R67" s="12" t="str">
+        <f t="shared" si="28"/>
+        <v>환골 탈태 59단</v>
+      </c>
+      <c r="S67" s="12">
+        <f t="shared" si="12"/>
+        <v>59</v>
+      </c>
+      <c r="T67" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="U67" s="21">
+        <f t="shared" si="29"/>
+        <v>29.411764705882351</v>
+      </c>
+      <c r="V67" s="21">
+        <f>SUM($U$12:U67)</f>
+        <v>938.50267379679121</v>
+      </c>
+      <c r="W67" s="21">
+        <f t="shared" si="30"/>
+        <v>6.5462753950338604</v>
+      </c>
+      <c r="X67" s="21">
+        <f t="shared" si="31"/>
+        <v>0.22257336343115125</v>
+      </c>
+      <c r="Y67" s="8">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="68" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C68" s="12">
         <v>59</v>
       </c>
@@ -5719,14 +6034,49 @@
         <f t="shared" si="2"/>
         <v>15900</v>
       </c>
-      <c r="O68" s="12"/>
-      <c r="P68" s="13"/>
-      <c r="Q68" s="12"/>
-      <c r="R68" s="12"/>
-      <c r="S68" s="12"/>
-      <c r="T68" s="12"/>
-    </row>
-    <row r="69" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="O68" s="12">
+        <v>59</v>
+      </c>
+      <c r="P68" s="18">
+        <f t="shared" si="26"/>
+        <v>550000</v>
+      </c>
+      <c r="Q68" s="19">
+        <f t="shared" si="27"/>
+        <v>14057000</v>
+      </c>
+      <c r="R68" s="12" t="str">
+        <f t="shared" si="28"/>
+        <v>환골 탈태 60단</v>
+      </c>
+      <c r="S68" s="12">
+        <f t="shared" si="12"/>
+        <v>60</v>
+      </c>
+      <c r="T68" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="U68" s="21">
+        <f t="shared" si="29"/>
+        <v>29.411764705882351</v>
+      </c>
+      <c r="V68" s="21">
+        <f>SUM($U$12:U68)</f>
+        <v>967.91443850267353</v>
+      </c>
+      <c r="W68" s="21">
+        <f t="shared" si="30"/>
+        <v>6.3634987893462469</v>
+      </c>
+      <c r="X68" s="21">
+        <f t="shared" si="31"/>
+        <v>0.2163589588377724</v>
+      </c>
+      <c r="Y68" s="8">
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="69" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C69" s="12">
         <v>60</v>
       </c>
@@ -5744,14 +6094,49 @@
         <f t="shared" si="2"/>
         <v>16000</v>
       </c>
-      <c r="O69" s="12"/>
-      <c r="P69" s="13"/>
-      <c r="Q69" s="12"/>
-      <c r="R69" s="12"/>
-      <c r="S69" s="12"/>
-      <c r="T69" s="12"/>
-    </row>
-    <row r="70" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="O69" s="12">
+        <v>60</v>
+      </c>
+      <c r="P69" s="18">
+        <f t="shared" si="26"/>
+        <v>550000</v>
+      </c>
+      <c r="Q69" s="19">
+        <f t="shared" si="27"/>
+        <v>14927000</v>
+      </c>
+      <c r="R69" s="12" t="str">
+        <f t="shared" si="28"/>
+        <v>환골 탈태 61단</v>
+      </c>
+      <c r="S69" s="12">
+        <f t="shared" si="12"/>
+        <v>61</v>
+      </c>
+      <c r="T69" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="U69" s="21">
+        <f t="shared" si="29"/>
+        <v>29.411764705882351</v>
+      </c>
+      <c r="V69" s="21">
+        <f>SUM($U$12:U69)</f>
+        <v>997.32620320855585</v>
+      </c>
+      <c r="W69" s="21">
+        <f t="shared" si="30"/>
+        <v>6.1890872874724341</v>
+      </c>
+      <c r="X69" s="21">
+        <f t="shared" si="31"/>
+        <v>0.21042896777406278</v>
+      </c>
+      <c r="Y69" s="8">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="70" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C70" s="12">
         <v>61</v>
       </c>
@@ -5769,14 +6154,49 @@
         <f t="shared" si="2"/>
         <v>16100</v>
       </c>
-      <c r="O70" s="12"/>
-      <c r="P70" s="13"/>
-      <c r="Q70" s="12"/>
-      <c r="R70" s="12"/>
-      <c r="S70" s="12"/>
-      <c r="T70" s="12"/>
-    </row>
-    <row r="71" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="O70" s="12">
+        <v>61</v>
+      </c>
+      <c r="P70" s="18">
+        <f t="shared" si="26"/>
+        <v>550000</v>
+      </c>
+      <c r="Q70" s="19">
+        <f t="shared" si="27"/>
+        <v>15826000</v>
+      </c>
+      <c r="R70" s="12" t="str">
+        <f t="shared" si="28"/>
+        <v>환골 탈태 62단</v>
+      </c>
+      <c r="S70" s="12">
+        <f t="shared" si="12"/>
+        <v>62</v>
+      </c>
+      <c r="T70" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="U70" s="21">
+        <f t="shared" si="29"/>
+        <v>29.411764705882351</v>
+      </c>
+      <c r="V70" s="21">
+        <f>SUM($U$12:U70)</f>
+        <v>1026.7379679144383</v>
+      </c>
+      <c r="W70" s="21">
+        <f t="shared" si="30"/>
+        <v>6.022643531855028</v>
+      </c>
+      <c r="X70" s="21">
+        <f t="shared" si="31"/>
+        <v>0.20476988008307095</v>
+      </c>
+      <c r="Y70" s="8">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="71" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C71" s="12">
         <v>62</v>
       </c>
@@ -5794,14 +6214,49 @@
         <f t="shared" si="2"/>
         <v>16200</v>
       </c>
-      <c r="O71" s="12"/>
-      <c r="P71" s="13"/>
-      <c r="Q71" s="12"/>
-      <c r="R71" s="12"/>
-      <c r="S71" s="12"/>
-      <c r="T71" s="12"/>
-    </row>
-    <row r="72" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="O71" s="12">
+        <v>62</v>
+      </c>
+      <c r="P71" s="18">
+        <f t="shared" si="26"/>
+        <v>600000</v>
+      </c>
+      <c r="Q71" s="19">
+        <f t="shared" si="27"/>
+        <v>16850000</v>
+      </c>
+      <c r="R71" s="12" t="str">
+        <f t="shared" si="28"/>
+        <v>환골 탈태 63단</v>
+      </c>
+      <c r="S71" s="12">
+        <f t="shared" si="12"/>
+        <v>63</v>
+      </c>
+      <c r="T71" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="U71" s="21">
+        <f t="shared" si="29"/>
+        <v>32.085561497326204</v>
+      </c>
+      <c r="V71" s="21">
+        <f>SUM($U$12:U71)</f>
+        <v>1058.8235294117644</v>
+      </c>
+      <c r="W71" s="21">
+        <f t="shared" si="30"/>
+        <v>6.470365221786933</v>
+      </c>
+      <c r="X71" s="21">
+        <f t="shared" si="31"/>
+        <v>0.20165971607902608</v>
+      </c>
+      <c r="Y71" s="8">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="72" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C72" s="12">
         <v>63</v>
       </c>
@@ -5819,14 +6274,49 @@
         <f t="shared" si="2"/>
         <v>16300</v>
       </c>
-      <c r="O72" s="12"/>
-      <c r="P72" s="13"/>
-      <c r="Q72" s="12"/>
-      <c r="R72" s="12"/>
-      <c r="S72" s="12"/>
-      <c r="T72" s="12"/>
-    </row>
-    <row r="73" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="O72" s="12">
+        <v>63</v>
+      </c>
+      <c r="P72" s="18">
+        <f t="shared" si="26"/>
+        <v>600000</v>
+      </c>
+      <c r="Q72" s="19">
+        <f t="shared" si="27"/>
+        <v>17906000</v>
+      </c>
+      <c r="R72" s="12" t="str">
+        <f t="shared" si="28"/>
+        <v>환골 탈태 64단</v>
+      </c>
+      <c r="S72" s="12">
+        <f t="shared" si="12"/>
+        <v>64</v>
+      </c>
+      <c r="T72" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="U72" s="21">
+        <f t="shared" si="29"/>
+        <v>32.085561497326204</v>
+      </c>
+      <c r="V72" s="21">
+        <f>SUM($U$12:U72)</f>
+        <v>1090.9090909090905</v>
+      </c>
+      <c r="W72" s="21">
+        <f t="shared" si="30"/>
+        <v>6.267062314540059</v>
+      </c>
+      <c r="X72" s="21">
+        <f t="shared" si="31"/>
+        <v>0.19532344213649849</v>
+      </c>
+      <c r="Y72" s="8">
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="73" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C73" s="12">
         <v>64</v>
       </c>
@@ -5844,14 +6334,49 @@
         <f t="shared" si="2"/>
         <v>16400</v>
       </c>
-      <c r="O73" s="12"/>
-      <c r="P73" s="13"/>
-      <c r="Q73" s="12"/>
-      <c r="R73" s="12"/>
-      <c r="S73" s="12"/>
-      <c r="T73" s="12"/>
-    </row>
-    <row r="74" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="O73" s="12">
+        <v>64</v>
+      </c>
+      <c r="P73" s="18">
+        <f t="shared" si="26"/>
+        <v>600000</v>
+      </c>
+      <c r="Q73" s="19">
+        <f t="shared" si="27"/>
+        <v>18994000</v>
+      </c>
+      <c r="R73" s="12" t="str">
+        <f t="shared" si="28"/>
+        <v>환골 탈태 65단</v>
+      </c>
+      <c r="S73" s="12">
+        <f t="shared" si="12"/>
+        <v>65</v>
+      </c>
+      <c r="T73" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="U73" s="21">
+        <f t="shared" si="29"/>
+        <v>32.085561497326204</v>
+      </c>
+      <c r="V73" s="21">
+        <f>SUM($U$12:U73)</f>
+        <v>1122.9946524064167</v>
+      </c>
+      <c r="W73" s="21">
+        <f t="shared" si="30"/>
+        <v>6.0761755836032618</v>
+      </c>
+      <c r="X73" s="21">
+        <f t="shared" si="31"/>
+        <v>0.18937413902230166</v>
+      </c>
+      <c r="Y73" s="8">
+        <v>34000</v>
+      </c>
+    </row>
+    <row r="74" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C74" s="12">
         <v>65</v>
       </c>
@@ -5869,14 +6394,49 @@
         <f t="shared" si="2"/>
         <v>16500</v>
       </c>
-      <c r="O74" s="12"/>
-      <c r="P74" s="13"/>
-      <c r="Q74" s="12"/>
-      <c r="R74" s="12"/>
-      <c r="S74" s="12"/>
-      <c r="T74" s="12"/>
-    </row>
-    <row r="75" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="O74" s="12">
+        <v>65</v>
+      </c>
+      <c r="P74" s="18">
+        <f t="shared" si="26"/>
+        <v>600000</v>
+      </c>
+      <c r="Q74" s="19">
+        <f t="shared" si="27"/>
+        <v>20114000</v>
+      </c>
+      <c r="R74" s="12" t="str">
+        <f t="shared" si="28"/>
+        <v>환골 탈태 66단</v>
+      </c>
+      <c r="S74" s="12">
+        <f t="shared" si="12"/>
+        <v>66</v>
+      </c>
+      <c r="T74" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="U74" s="21">
+        <f t="shared" si="29"/>
+        <v>32.085561497326204</v>
+      </c>
+      <c r="V74" s="21">
+        <f>SUM($U$12:U74)</f>
+        <v>1155.0802139037428</v>
+      </c>
+      <c r="W74" s="21">
+        <f t="shared" si="30"/>
+        <v>5.8965989259766243</v>
+      </c>
+      <c r="X74" s="21">
+        <f t="shared" si="31"/>
+        <v>0.18377733319293812</v>
+      </c>
+      <c r="Y74" s="8">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="75" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C75" s="12">
         <v>66</v>
       </c>
@@ -5891,17 +6451,52 @@
         <v>17000</v>
       </c>
       <c r="G75" s="15">
-        <f t="shared" ref="G75:G104" si="25">G74+100</f>
+        <f t="shared" ref="G75:G104" si="32">G74+100</f>
         <v>16600</v>
       </c>
-      <c r="O75" s="12"/>
-      <c r="P75" s="13"/>
-      <c r="Q75" s="12"/>
-      <c r="R75" s="12"/>
-      <c r="S75" s="12"/>
-      <c r="T75" s="12"/>
-    </row>
-    <row r="76" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="O75" s="12">
+        <v>66</v>
+      </c>
+      <c r="P75" s="18">
+        <f t="shared" si="26"/>
+        <v>600000</v>
+      </c>
+      <c r="Q75" s="19">
+        <f t="shared" si="27"/>
+        <v>21266000</v>
+      </c>
+      <c r="R75" s="12" t="str">
+        <f t="shared" si="28"/>
+        <v>환골 탈태 67단</v>
+      </c>
+      <c r="S75" s="12">
+        <f t="shared" si="12"/>
+        <v>67</v>
+      </c>
+      <c r="T75" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="U75" s="21">
+        <f t="shared" si="29"/>
+        <v>32.085561497326204</v>
+      </c>
+      <c r="V75" s="21">
+        <f>SUM($U$12:U75)</f>
+        <v>1187.1657754010689</v>
+      </c>
+      <c r="W75" s="21">
+        <f t="shared" si="30"/>
+        <v>5.7273540817341155</v>
+      </c>
+      <c r="X75" s="21">
+        <f t="shared" si="31"/>
+        <v>0.17850253554737994</v>
+      </c>
+      <c r="Y75" s="8">
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="76" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C76" s="12">
         <v>67</v>
       </c>
@@ -5916,17 +6511,52 @@
         <v>17000</v>
       </c>
       <c r="G76" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>16700</v>
       </c>
-      <c r="O76" s="12"/>
-      <c r="P76" s="13"/>
-      <c r="Q76" s="12"/>
-      <c r="R76" s="12"/>
-      <c r="S76" s="12"/>
-      <c r="T76" s="12"/>
-    </row>
-    <row r="77" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="O76" s="12">
+        <v>67</v>
+      </c>
+      <c r="P76" s="18">
+        <f t="shared" si="26"/>
+        <v>600000</v>
+      </c>
+      <c r="Q76" s="19">
+        <f t="shared" ref="Q76:Q81" si="33">ROUND(Q75+ROUNDDOWN(U76,0)*Y76,-3)</f>
+        <v>22450000</v>
+      </c>
+      <c r="R76" s="12" t="str">
+        <f t="shared" ref="R76:R81" si="34">T76&amp;" "&amp;S76&amp;"단"</f>
+        <v>환골 탈태 68단</v>
+      </c>
+      <c r="S76" s="12">
+        <f t="shared" si="12"/>
+        <v>68</v>
+      </c>
+      <c r="T76" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="U76" s="21">
+        <f t="shared" ref="U76:U81" si="35">(P76/$G$96)</f>
+        <v>32.085561497326204</v>
+      </c>
+      <c r="V76" s="21">
+        <f>SUM($U$12:U76)</f>
+        <v>1219.251336898395</v>
+      </c>
+      <c r="W76" s="21">
+        <f t="shared" ref="W76:W81" si="36">(Q76-Q75)*100/Q75</f>
+        <v>5.5675726511802877</v>
+      </c>
+      <c r="X76" s="21">
+        <f t="shared" ref="X76:X81" si="37">W76/U76</f>
+        <v>0.17352268096178564</v>
+      </c>
+      <c r="Y76" s="8">
+        <v>37000</v>
+      </c>
+    </row>
+    <row r="77" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C77" s="12">
         <v>68</v>
       </c>
@@ -5941,17 +6571,52 @@
         <v>18000</v>
       </c>
       <c r="G77" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>16800</v>
       </c>
-      <c r="O77" s="12"/>
-      <c r="P77" s="13"/>
-      <c r="Q77" s="12"/>
-      <c r="R77" s="12"/>
-      <c r="S77" s="12"/>
-      <c r="T77" s="12"/>
-    </row>
-    <row r="78" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="O77" s="12">
+        <v>68</v>
+      </c>
+      <c r="P77" s="18">
+        <f t="shared" si="26"/>
+        <v>600000</v>
+      </c>
+      <c r="Q77" s="19">
+        <f t="shared" si="33"/>
+        <v>23666000</v>
+      </c>
+      <c r="R77" s="12" t="str">
+        <f t="shared" si="34"/>
+        <v>환골 탈태 69단</v>
+      </c>
+      <c r="S77" s="12">
+        <f t="shared" si="12"/>
+        <v>69</v>
+      </c>
+      <c r="T77" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="U77" s="21">
+        <f t="shared" si="35"/>
+        <v>32.085561497326204</v>
+      </c>
+      <c r="V77" s="21">
+        <f>SUM($U$12:U77)</f>
+        <v>1251.3368983957212</v>
+      </c>
+      <c r="W77" s="21">
+        <f t="shared" si="36"/>
+        <v>5.416481069042316</v>
+      </c>
+      <c r="X77" s="21">
+        <f t="shared" si="37"/>
+        <v>0.16881365998515219</v>
+      </c>
+      <c r="Y77" s="8">
+        <v>38000</v>
+      </c>
+    </row>
+    <row r="78" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C78" s="12">
         <v>69</v>
       </c>
@@ -5962,21 +6627,56 @@
         <v>85</v>
       </c>
       <c r="F78" s="15">
-        <f t="shared" ref="F78:F104" si="26">F74+1000</f>
+        <f t="shared" ref="F78:F104" si="38">F74+1000</f>
         <v>18000</v>
       </c>
       <c r="G78" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>16900</v>
       </c>
-      <c r="O78" s="12"/>
-      <c r="P78" s="13"/>
-      <c r="Q78" s="12"/>
-      <c r="R78" s="12"/>
-      <c r="S78" s="12"/>
-      <c r="T78" s="12"/>
-    </row>
-    <row r="79" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="O78" s="12">
+        <v>69</v>
+      </c>
+      <c r="P78" s="18">
+        <f t="shared" si="26"/>
+        <v>600000</v>
+      </c>
+      <c r="Q78" s="19">
+        <f t="shared" si="33"/>
+        <v>24914000</v>
+      </c>
+      <c r="R78" s="12" t="str">
+        <f t="shared" si="34"/>
+        <v>환골 탈태 70단</v>
+      </c>
+      <c r="S78" s="12">
+        <f t="shared" si="12"/>
+        <v>70</v>
+      </c>
+      <c r="T78" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="U78" s="21">
+        <f t="shared" si="35"/>
+        <v>32.085561497326204</v>
+      </c>
+      <c r="V78" s="21">
+        <f>SUM($U$12:U78)</f>
+        <v>1283.4224598930473</v>
+      </c>
+      <c r="W78" s="21">
+        <f t="shared" si="36"/>
+        <v>5.2733879827600774</v>
+      </c>
+      <c r="X78" s="21">
+        <f t="shared" si="37"/>
+        <v>0.16435392546268907</v>
+      </c>
+      <c r="Y78" s="8">
+        <v>39000</v>
+      </c>
+    </row>
+    <row r="79" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C79" s="12">
         <v>70</v>
       </c>
@@ -5987,21 +6687,25 @@
         <v>86</v>
       </c>
       <c r="F79" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>18000</v>
       </c>
       <c r="G79" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>17000</v>
       </c>
       <c r="O79" s="12"/>
-      <c r="P79" s="13"/>
-      <c r="Q79" s="12"/>
+      <c r="P79" s="18"/>
+      <c r="Q79" s="19"/>
       <c r="R79" s="12"/>
       <c r="S79" s="12"/>
       <c r="T79" s="12"/>
-    </row>
-    <row r="80" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="U79" s="21"/>
+      <c r="V79" s="21"/>
+      <c r="W79" s="21"/>
+      <c r="X79" s="21"/>
+    </row>
+    <row r="80" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C80" s="12">
         <v>71</v>
       </c>
@@ -6012,21 +6716,25 @@
         <v>87</v>
       </c>
       <c r="F80" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>18000</v>
       </c>
       <c r="G80" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>17100</v>
       </c>
       <c r="O80" s="12"/>
-      <c r="P80" s="13"/>
-      <c r="Q80" s="12"/>
+      <c r="P80" s="18"/>
+      <c r="Q80" s="19"/>
       <c r="R80" s="12"/>
       <c r="S80" s="12"/>
       <c r="T80" s="12"/>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="U80" s="21"/>
+      <c r="V80" s="21"/>
+      <c r="W80" s="21"/>
+      <c r="X80" s="21"/>
+    </row>
+    <row r="81" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C81" s="12">
         <v>72</v>
       </c>
@@ -6037,21 +6745,25 @@
         <v>88</v>
       </c>
       <c r="F81" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>19000</v>
       </c>
       <c r="G81" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>17200</v>
       </c>
       <c r="O81" s="12"/>
-      <c r="P81" s="13"/>
-      <c r="Q81" s="12"/>
+      <c r="P81" s="18"/>
+      <c r="Q81" s="19"/>
       <c r="R81" s="12"/>
       <c r="S81" s="12"/>
       <c r="T81" s="12"/>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="U81" s="21"/>
+      <c r="V81" s="21"/>
+      <c r="W81" s="21"/>
+      <c r="X81" s="21"/>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C82" s="12">
         <v>73</v>
       </c>
@@ -6062,11 +6774,11 @@
         <v>89</v>
       </c>
       <c r="F82" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>19000</v>
       </c>
       <c r="G82" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>17300</v>
       </c>
       <c r="O82" s="12"/>
@@ -6076,7 +6788,7 @@
       <c r="S82" s="12"/>
       <c r="T82" s="12"/>
     </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C83" s="12">
         <v>74</v>
       </c>
@@ -6087,11 +6799,11 @@
         <v>90</v>
       </c>
       <c r="F83" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>19000</v>
       </c>
       <c r="G83" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>17400</v>
       </c>
       <c r="O83" s="12"/>
@@ -6101,7 +6813,7 @@
       <c r="S83" s="12"/>
       <c r="T83" s="12"/>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C84" s="12">
         <v>75</v>
       </c>
@@ -6112,11 +6824,11 @@
         <v>91</v>
       </c>
       <c r="F84" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>19000</v>
       </c>
       <c r="G84" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>17500</v>
       </c>
       <c r="O84" s="12"/>
@@ -6126,7 +6838,7 @@
       <c r="S84" s="12"/>
       <c r="T84" s="12"/>
     </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C85" s="12">
         <v>76</v>
       </c>
@@ -6137,11 +6849,11 @@
         <v>92</v>
       </c>
       <c r="F85" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>20000</v>
       </c>
       <c r="G85" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>17600</v>
       </c>
       <c r="O85" s="12"/>
@@ -6151,7 +6863,7 @@
       <c r="S85" s="12"/>
       <c r="T85" s="12"/>
     </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C86" s="12">
         <v>77</v>
       </c>
@@ -6162,11 +6874,11 @@
         <v>93</v>
       </c>
       <c r="F86" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>20000</v>
       </c>
       <c r="G86" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>17700</v>
       </c>
       <c r="O86" s="12"/>
@@ -6176,7 +6888,7 @@
       <c r="S86" s="12"/>
       <c r="T86" s="12"/>
     </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C87" s="12">
         <v>78</v>
       </c>
@@ -6187,11 +6899,11 @@
         <v>94</v>
       </c>
       <c r="F87" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>20000</v>
       </c>
       <c r="G87" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>17800</v>
       </c>
       <c r="O87" s="12"/>
@@ -6201,7 +6913,7 @@
       <c r="S87" s="12"/>
       <c r="T87" s="12"/>
     </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C88" s="12">
         <v>79</v>
       </c>
@@ -6212,11 +6924,11 @@
         <v>95</v>
       </c>
       <c r="F88" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>20000</v>
       </c>
       <c r="G88" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>17900</v>
       </c>
       <c r="O88" s="12"/>
@@ -6226,7 +6938,7 @@
       <c r="S88" s="12"/>
       <c r="T88" s="12"/>
     </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C89" s="12">
         <v>80</v>
       </c>
@@ -6237,11 +6949,11 @@
         <v>96</v>
       </c>
       <c r="F89" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>21000</v>
       </c>
       <c r="G89" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>18000</v>
       </c>
       <c r="O89" s="12"/>
@@ -6251,7 +6963,7 @@
       <c r="S89" s="12"/>
       <c r="T89" s="12"/>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C90" s="12">
         <v>81</v>
       </c>
@@ -6262,11 +6974,11 @@
         <v>97</v>
       </c>
       <c r="F90" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>21000</v>
       </c>
       <c r="G90" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>18100</v>
       </c>
       <c r="O90" s="12"/>
@@ -6276,7 +6988,7 @@
       <c r="S90" s="12"/>
       <c r="T90" s="12"/>
     </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C91" s="12">
         <v>82</v>
       </c>
@@ -6287,11 +6999,11 @@
         <v>98</v>
       </c>
       <c r="F91" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>21000</v>
       </c>
       <c r="G91" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>18200</v>
       </c>
       <c r="O91" s="12"/>
@@ -6301,7 +7013,7 @@
       <c r="S91" s="12"/>
       <c r="T91" s="12"/>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C92" s="12">
         <v>83</v>
       </c>
@@ -6312,11 +7024,11 @@
         <v>99</v>
       </c>
       <c r="F92" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>21000</v>
       </c>
       <c r="G92" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>18300</v>
       </c>
       <c r="O92" s="12"/>
@@ -6326,7 +7038,7 @@
       <c r="S92" s="12"/>
       <c r="T92" s="12"/>
     </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C93" s="12">
         <v>84</v>
       </c>
@@ -6337,11 +7049,11 @@
         <v>100</v>
       </c>
       <c r="F93" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>22000</v>
       </c>
       <c r="G93" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>18400</v>
       </c>
       <c r="O93" s="12"/>
@@ -6351,7 +7063,7 @@
       <c r="S93" s="12"/>
       <c r="T93" s="12"/>
     </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C94" s="12">
         <v>85</v>
       </c>
@@ -6362,11 +7074,11 @@
         <v>101</v>
       </c>
       <c r="F94" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>22000</v>
       </c>
       <c r="G94" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>18500</v>
       </c>
       <c r="O94" s="12"/>
@@ -6376,7 +7088,7 @@
       <c r="S94" s="12"/>
       <c r="T94" s="12"/>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C95" s="12">
         <v>86</v>
       </c>
@@ -6387,11 +7099,11 @@
         <v>102</v>
       </c>
       <c r="F95" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>22000</v>
       </c>
       <c r="G95" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>18600</v>
       </c>
       <c r="O95" s="12"/>
@@ -6401,7 +7113,7 @@
       <c r="S95" s="12"/>
       <c r="T95" s="12"/>
     </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C96" s="16">
         <v>87</v>
       </c>
@@ -6412,11 +7124,11 @@
         <v>103</v>
       </c>
       <c r="F96" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>22000</v>
       </c>
       <c r="G96" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>18700</v>
       </c>
       <c r="O96" s="12"/>
@@ -6437,11 +7149,11 @@
         <v>104</v>
       </c>
       <c r="F97" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>23000</v>
       </c>
       <c r="G97" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>18800</v>
       </c>
       <c r="O97" s="12"/>
@@ -6462,11 +7174,11 @@
         <v>105</v>
       </c>
       <c r="F98" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>23000</v>
       </c>
       <c r="G98" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>18900</v>
       </c>
       <c r="O98" s="12"/>
@@ -6487,11 +7199,11 @@
         <v>106</v>
       </c>
       <c r="F99" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>23000</v>
       </c>
       <c r="G99" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>19000</v>
       </c>
       <c r="O99" s="12"/>
@@ -6512,11 +7224,11 @@
         <v>107</v>
       </c>
       <c r="F100" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>23000</v>
       </c>
       <c r="G100" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>19100</v>
       </c>
       <c r="O100" s="12"/>
@@ -6537,11 +7249,11 @@
         <v>108</v>
       </c>
       <c r="F101" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>24000</v>
       </c>
       <c r="G101" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>19200</v>
       </c>
       <c r="O101" s="12"/>
@@ -6562,11 +7274,11 @@
         <v>109</v>
       </c>
       <c r="F102" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>24000</v>
       </c>
       <c r="G102" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>19300</v>
       </c>
       <c r="O102" s="12"/>
@@ -6587,11 +7299,11 @@
         <v>110</v>
       </c>
       <c r="F103" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>24000</v>
       </c>
       <c r="G103" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>19400</v>
       </c>
       <c r="O103" s="12"/>
@@ -6612,11 +7324,11 @@
         <v>111</v>
       </c>
       <c r="F104" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>24000</v>
       </c>
       <c r="G104" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>19500</v>
       </c>
       <c r="O104" s="12"/>

--- a/Assets/06.Table/Byeolho.xlsx
+++ b/Assets/06.Table/Byeolho.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E8FF1D-B6F1-4C4E-850B-7AC6F444A81D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C82EFF3-7B4F-4972-BE43-1DE503F880B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Byeolho" sheetId="1" r:id="rId1"/>
@@ -963,11 +963,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H63" sqref="H63"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1187,7 +1187,7 @@
         <v>환골 탈태 7단</v>
       </c>
       <c r="G8">
-        <f t="shared" ref="G8:G51" si="1">G3+1</f>
+        <f t="shared" ref="G8:G61" si="1">G3+1</f>
         <v>1</v>
       </c>
     </row>
@@ -1259,7 +1259,7 @@
         <v>100000</v>
       </c>
       <c r="D11">
-        <f t="shared" ref="D11:D51" si="2">D10</f>
+        <f t="shared" ref="D11:D61" si="2">D10</f>
         <v>100</v>
       </c>
       <c r="E11">
@@ -2393,6 +2393,286 @@
       <c r="G51">
         <f t="shared" si="1"/>
         <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>9054</v>
+      </c>
+      <c r="C52" s="20">
+        <f>VLOOKUP(A52,Balance!O:R,2,FALSE)</f>
+        <v>500000</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="E52">
+        <f>VLOOKUP(A52,Balance!O:R,3,FALSE)/100</f>
+        <v>76610</v>
+      </c>
+      <c r="F52" t="str">
+        <f>VLOOKUP(A52,Balance!O:R,4,FALSE)</f>
+        <v>환골 탈태 51단</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>9054</v>
+      </c>
+      <c r="C53" s="20">
+        <f>VLOOKUP(A53,Balance!O:R,2,FALSE)</f>
+        <v>500000</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="E53">
+        <f>VLOOKUP(A53,Balance!O:R,3,FALSE)/100</f>
+        <v>82070</v>
+      </c>
+      <c r="F53" t="str">
+        <f>VLOOKUP(A53,Balance!O:R,4,FALSE)</f>
+        <v>환골 탈태 52단</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>9054</v>
+      </c>
+      <c r="C54" s="20">
+        <f>VLOOKUP(A54,Balance!O:R,2,FALSE)</f>
+        <v>500000</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="E54">
+        <f>VLOOKUP(A54,Balance!O:R,3,FALSE)/100</f>
+        <v>87790</v>
+      </c>
+      <c r="F54" t="str">
+        <f>VLOOKUP(A54,Balance!O:R,4,FALSE)</f>
+        <v>환골 탈태 53단</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>9054</v>
+      </c>
+      <c r="C55" s="20">
+        <f>VLOOKUP(A55,Balance!O:R,2,FALSE)</f>
+        <v>550000</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="E55">
+        <f>VLOOKUP(A55,Balance!O:R,3,FALSE)/100</f>
+        <v>94460</v>
+      </c>
+      <c r="F55" t="str">
+        <f>VLOOKUP(A55,Balance!O:R,4,FALSE)</f>
+        <v>환골 탈태 54단</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>9054</v>
+      </c>
+      <c r="C56" s="20">
+        <f>VLOOKUP(A56,Balance!O:R,2,FALSE)</f>
+        <v>550000</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="E56">
+        <f>VLOOKUP(A56,Balance!O:R,3,FALSE)/100</f>
+        <v>101420</v>
+      </c>
+      <c r="F56" t="str">
+        <f>VLOOKUP(A56,Balance!O:R,4,FALSE)</f>
+        <v>환골 탈태 55단</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>9054</v>
+      </c>
+      <c r="C57" s="20">
+        <f>VLOOKUP(A57,Balance!O:R,2,FALSE)</f>
+        <v>550000</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="E57">
+        <f>VLOOKUP(A57,Balance!O:R,3,FALSE)/100</f>
+        <v>108670</v>
+      </c>
+      <c r="F57" t="str">
+        <f>VLOOKUP(A57,Balance!O:R,4,FALSE)</f>
+        <v>환골 탈태 56단</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>9054</v>
+      </c>
+      <c r="C58" s="20">
+        <f>VLOOKUP(A58,Balance!O:R,2,FALSE)</f>
+        <v>550000</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="E58">
+        <f>VLOOKUP(A58,Balance!O:R,3,FALSE)/100</f>
+        <v>116210</v>
+      </c>
+      <c r="F58" t="str">
+        <f>VLOOKUP(A58,Balance!O:R,4,FALSE)</f>
+        <v>환골 탈태 57단</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>9054</v>
+      </c>
+      <c r="C59" s="20">
+        <f>VLOOKUP(A59,Balance!O:R,2,FALSE)</f>
+        <v>550000</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="E59">
+        <f>VLOOKUP(A59,Balance!O:R,3,FALSE)/100</f>
+        <v>124040</v>
+      </c>
+      <c r="F59" t="str">
+        <f>VLOOKUP(A59,Balance!O:R,4,FALSE)</f>
+        <v>환골 탈태 58단</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>9054</v>
+      </c>
+      <c r="C60" s="20">
+        <f>VLOOKUP(A60,Balance!O:R,2,FALSE)</f>
+        <v>550000</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="E60">
+        <f>VLOOKUP(A60,Balance!O:R,3,FALSE)/100</f>
+        <v>132160</v>
+      </c>
+      <c r="F60" t="str">
+        <f>VLOOKUP(A60,Balance!O:R,4,FALSE)</f>
+        <v>환골 탈태 59단</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>9054</v>
+      </c>
+      <c r="C61" s="20">
+        <f>VLOOKUP(A61,Balance!O:R,2,FALSE)</f>
+        <v>550000</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="E61">
+        <f>VLOOKUP(A61,Balance!O:R,3,FALSE)/100</f>
+        <v>140570</v>
+      </c>
+      <c r="F61" t="str">
+        <f>VLOOKUP(A61,Balance!O:R,4,FALSE)</f>
+        <v>환골 탈태 60단</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -2406,8 +2686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A9B4BA-49ED-4B77-9780-496F10280935}">
   <dimension ref="A1:AE178"/>
   <sheetViews>
-    <sheetView topLeftCell="K51" workbookViewId="0">
-      <selection activeCell="O78" sqref="O78"/>
+    <sheetView topLeftCell="K42" workbookViewId="0">
+      <selection activeCell="P70" sqref="P70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4310,7 +4590,7 @@
         <v>환골 탈태 31단</v>
       </c>
       <c r="S39" s="12">
-        <f t="shared" ref="S39:S81" si="12">S38+1</f>
+        <f t="shared" ref="S39:S78" si="12">S38+1</f>
         <v>31</v>
       </c>
       <c r="T39" s="12" t="s">
@@ -4898,7 +5178,7 @@
         <v>40</v>
       </c>
       <c r="P49" s="18">
-        <f t="shared" ref="P49:P74" si="18">P44+50000</f>
+        <f t="shared" ref="P49:P52" si="18">P44+50000</f>
         <v>450000</v>
       </c>
       <c r="Q49" s="19">
@@ -5138,7 +5418,7 @@
         <v>44</v>
       </c>
       <c r="P53" s="18">
-        <f t="shared" ref="P53:P78" si="24">P48+100000</f>
+        <f t="shared" ref="P53" si="24">P48+100000</f>
         <v>500000</v>
       </c>
       <c r="Q53" s="19">
@@ -5258,7 +5538,7 @@
         <v>46</v>
       </c>
       <c r="P55" s="18">
-        <f t="shared" ref="P55:P75" si="25">P50+50000</f>
+        <f t="shared" ref="P55:P57" si="25">P50+50000</f>
         <v>500000</v>
       </c>
       <c r="Q55" s="19">
@@ -5498,15 +5778,15 @@
         <v>50</v>
       </c>
       <c r="P59" s="18">
-        <f t="shared" ref="P59:P81" si="26">P50+50000</f>
+        <f t="shared" ref="P59:P78" si="26">P50+50000</f>
         <v>500000</v>
       </c>
       <c r="Q59" s="19">
-        <f t="shared" ref="Q59:Q77" si="27">ROUND(Q58+ROUNDDOWN(U59,0)*Y59,-3)</f>
+        <f t="shared" ref="Q59:Q75" si="27">ROUND(Q58+ROUNDDOWN(U59,0)*Y59,-3)</f>
         <v>7661000</v>
       </c>
       <c r="R59" s="12" t="str">
-        <f t="shared" ref="R59:R77" si="28">T59&amp;" "&amp;S59&amp;"단"</f>
+        <f t="shared" ref="R59:R75" si="28">T59&amp;" "&amp;S59&amp;"단"</f>
         <v>환골 탈태 51단</v>
       </c>
       <c r="S59" s="12">
@@ -5517,7 +5797,7 @@
         <v>116</v>
       </c>
       <c r="U59" s="21">
-        <f t="shared" ref="U59:U77" si="29">(P59/$G$96)</f>
+        <f t="shared" ref="U59:U75" si="29">(P59/$G$96)</f>
         <v>26.737967914438503</v>
       </c>
       <c r="V59" s="21">
@@ -5525,11 +5805,11 @@
         <v>708.55614973262027</v>
       </c>
       <c r="W59" s="21">
-        <f t="shared" ref="W59:W77" si="30">(Q59-Q58)*100/Q58</f>
+        <f t="shared" ref="W59:W75" si="30">(Q59-Q58)*100/Q58</f>
         <v>7.2818932922559867</v>
       </c>
       <c r="X59" s="21">
-        <f t="shared" ref="X59:X77" si="31">W59/U59</f>
+        <f t="shared" ref="X59:X75" si="31">W59/U59</f>
         <v>0.2723428091303739</v>
       </c>
       <c r="Y59" s="8">
@@ -6522,11 +6802,11 @@
         <v>600000</v>
       </c>
       <c r="Q76" s="19">
-        <f t="shared" ref="Q76:Q81" si="33">ROUND(Q75+ROUNDDOWN(U76,0)*Y76,-3)</f>
+        <f t="shared" ref="Q76:Q78" si="33">ROUND(Q75+ROUNDDOWN(U76,0)*Y76,-3)</f>
         <v>22450000</v>
       </c>
       <c r="R76" s="12" t="str">
-        <f t="shared" ref="R76:R81" si="34">T76&amp;" "&amp;S76&amp;"단"</f>
+        <f t="shared" ref="R76:R78" si="34">T76&amp;" "&amp;S76&amp;"단"</f>
         <v>환골 탈태 68단</v>
       </c>
       <c r="S76" s="12">
@@ -6537,7 +6817,7 @@
         <v>116</v>
       </c>
       <c r="U76" s="21">
-        <f t="shared" ref="U76:U81" si="35">(P76/$G$96)</f>
+        <f t="shared" ref="U76:U78" si="35">(P76/$G$96)</f>
         <v>32.085561497326204</v>
       </c>
       <c r="V76" s="21">
@@ -6545,11 +6825,11 @@
         <v>1219.251336898395</v>
       </c>
       <c r="W76" s="21">
-        <f t="shared" ref="W76:W81" si="36">(Q76-Q75)*100/Q75</f>
+        <f t="shared" ref="W76:W78" si="36">(Q76-Q75)*100/Q75</f>
         <v>5.5675726511802877</v>
       </c>
       <c r="X76" s="21">
-        <f t="shared" ref="X76:X81" si="37">W76/U76</f>
+        <f t="shared" ref="X76:X78" si="37">W76/U76</f>
         <v>0.17352268096178564</v>
       </c>
       <c r="Y76" s="8">

--- a/Assets/06.Table/Byeolho.xlsx
+++ b/Assets/06.Table/Byeolho.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C82EFF3-7B4F-4972-BE43-1DE503F880B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58CC8D5-5B80-4F50-B5D7-79D02CD55246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Byeolho" sheetId="1" r:id="rId1"/>
@@ -963,11 +963,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G51" sqref="G51"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1187,7 +1187,7 @@
         <v>환골 탈태 7단</v>
       </c>
       <c r="G8">
-        <f t="shared" ref="G8:G61" si="1">G3+1</f>
+        <f t="shared" ref="G8:G71" si="1">G3+1</f>
         <v>1</v>
       </c>
     </row>
@@ -1259,7 +1259,7 @@
         <v>100000</v>
       </c>
       <c r="D11">
-        <f t="shared" ref="D11:D61" si="2">D10</f>
+        <f t="shared" ref="D11:D71" si="2">D10</f>
         <v>100</v>
       </c>
       <c r="E11">
@@ -2673,6 +2673,286 @@
       <c r="G61">
         <f t="shared" si="1"/>
         <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>9054</v>
+      </c>
+      <c r="C62" s="20">
+        <f>VLOOKUP(A62,Balance!O:R,2,FALSE)</f>
+        <v>550000</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="E62">
+        <f>VLOOKUP(A62,Balance!O:R,3,FALSE)/100</f>
+        <v>149270</v>
+      </c>
+      <c r="F62" t="str">
+        <f>VLOOKUP(A62,Balance!O:R,4,FALSE)</f>
+        <v>환골 탈태 61단</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>9054</v>
+      </c>
+      <c r="C63" s="20">
+        <f>VLOOKUP(A63,Balance!O:R,2,FALSE)</f>
+        <v>550000</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="E63">
+        <f>VLOOKUP(A63,Balance!O:R,3,FALSE)/100</f>
+        <v>158550</v>
+      </c>
+      <c r="F63" t="str">
+        <f>VLOOKUP(A63,Balance!O:R,4,FALSE)</f>
+        <v>환골 탈태 62단</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>9054</v>
+      </c>
+      <c r="C64" s="20">
+        <f>VLOOKUP(A64,Balance!O:R,2,FALSE)</f>
+        <v>600000</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="E64">
+        <f>VLOOKUP(A64,Balance!O:R,3,FALSE)/100</f>
+        <v>169430</v>
+      </c>
+      <c r="F64" t="str">
+        <f>VLOOKUP(A64,Balance!O:R,4,FALSE)</f>
+        <v>환골 탈태 63단</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>9054</v>
+      </c>
+      <c r="C65" s="20">
+        <f>VLOOKUP(A65,Balance!O:R,2,FALSE)</f>
+        <v>600000</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="E65">
+        <f>VLOOKUP(A65,Balance!O:R,3,FALSE)/100</f>
+        <v>180950</v>
+      </c>
+      <c r="F65" t="str">
+        <f>VLOOKUP(A65,Balance!O:R,4,FALSE)</f>
+        <v>환골 탈태 64단</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>9054</v>
+      </c>
+      <c r="C66" s="20">
+        <f>VLOOKUP(A66,Balance!O:R,2,FALSE)</f>
+        <v>600000</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="E66">
+        <f>VLOOKUP(A66,Balance!O:R,3,FALSE)/100</f>
+        <v>193110</v>
+      </c>
+      <c r="F66" t="str">
+        <f>VLOOKUP(A66,Balance!O:R,4,FALSE)</f>
+        <v>환골 탈태 65단</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>9054</v>
+      </c>
+      <c r="C67" s="20">
+        <f>VLOOKUP(A67,Balance!O:R,2,FALSE)</f>
+        <v>600000</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="E67">
+        <f>VLOOKUP(A67,Balance!O:R,3,FALSE)/100</f>
+        <v>205910</v>
+      </c>
+      <c r="F67" t="str">
+        <f>VLOOKUP(A67,Balance!O:R,4,FALSE)</f>
+        <v>환골 탈태 66단</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>9054</v>
+      </c>
+      <c r="C68" s="20">
+        <f>VLOOKUP(A68,Balance!O:R,2,FALSE)</f>
+        <v>600000</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="E68">
+        <f>VLOOKUP(A68,Balance!O:R,3,FALSE)/100</f>
+        <v>219350</v>
+      </c>
+      <c r="F68" t="str">
+        <f>VLOOKUP(A68,Balance!O:R,4,FALSE)</f>
+        <v>환골 탈태 67단</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>9054</v>
+      </c>
+      <c r="C69" s="20">
+        <f>VLOOKUP(A69,Balance!O:R,2,FALSE)</f>
+        <v>600000</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="E69">
+        <f>VLOOKUP(A69,Balance!O:R,3,FALSE)/100</f>
+        <v>233430</v>
+      </c>
+      <c r="F69" t="str">
+        <f>VLOOKUP(A69,Balance!O:R,4,FALSE)</f>
+        <v>환골 탈태 68단</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>9054</v>
+      </c>
+      <c r="C70" s="20">
+        <f>VLOOKUP(A70,Balance!O:R,2,FALSE)</f>
+        <v>600000</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="E70">
+        <f>VLOOKUP(A70,Balance!O:R,3,FALSE)/100</f>
+        <v>248150</v>
+      </c>
+      <c r="F70" t="str">
+        <f>VLOOKUP(A70,Balance!O:R,4,FALSE)</f>
+        <v>환골 탈태 69단</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>9054</v>
+      </c>
+      <c r="C71" s="20">
+        <f>VLOOKUP(A71,Balance!O:R,2,FALSE)</f>
+        <v>600000</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="E71">
+        <f>VLOOKUP(A71,Balance!O:R,3,FALSE)/100</f>
+        <v>263510</v>
+      </c>
+      <c r="F71" t="str">
+        <f>VLOOKUP(A71,Balance!O:R,4,FALSE)</f>
+        <v>환골 탈태 70단</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2686,8 +2966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A9B4BA-49ED-4B77-9780-496F10280935}">
   <dimension ref="A1:AE178"/>
   <sheetViews>
-    <sheetView topLeftCell="K42" workbookViewId="0">
-      <selection activeCell="P70" sqref="P70"/>
+    <sheetView topLeftCell="K50" workbookViewId="0">
+      <selection activeCell="Q79" sqref="Q79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6443,7 +6723,7 @@
       </c>
       <c r="Q70" s="19">
         <f t="shared" si="27"/>
-        <v>15826000</v>
+        <v>15855000</v>
       </c>
       <c r="R70" s="12" t="str">
         <f t="shared" si="28"/>
@@ -6466,14 +6746,14 @@
       </c>
       <c r="W70" s="21">
         <f t="shared" si="30"/>
-        <v>6.022643531855028</v>
+        <v>6.2169223554632547</v>
       </c>
       <c r="X70" s="21">
         <f t="shared" si="31"/>
-        <v>0.20476988008307095</v>
+        <v>0.21137536008575067</v>
       </c>
       <c r="Y70" s="8">
-        <v>31000</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="71" spans="3:25" x14ac:dyDescent="0.3">
@@ -6503,7 +6783,7 @@
       </c>
       <c r="Q71" s="19">
         <f t="shared" si="27"/>
-        <v>16850000</v>
+        <v>16943000</v>
       </c>
       <c r="R71" s="12" t="str">
         <f t="shared" si="28"/>
@@ -6526,14 +6806,14 @@
       </c>
       <c r="W71" s="21">
         <f t="shared" si="30"/>
-        <v>6.470365221786933</v>
+        <v>6.8621885840428885</v>
       </c>
       <c r="X71" s="21">
         <f t="shared" si="31"/>
-        <v>0.20165971607902608</v>
+        <v>0.21387154420267002</v>
       </c>
       <c r="Y71" s="8">
-        <v>32000</v>
+        <v>34000</v>
       </c>
     </row>
     <row r="72" spans="3:25" x14ac:dyDescent="0.3">
@@ -6563,7 +6843,7 @@
       </c>
       <c r="Q72" s="19">
         <f t="shared" si="27"/>
-        <v>17906000</v>
+        <v>18095000</v>
       </c>
       <c r="R72" s="12" t="str">
         <f t="shared" si="28"/>
@@ -6586,14 +6866,14 @@
       </c>
       <c r="W72" s="21">
         <f t="shared" si="30"/>
-        <v>6.267062314540059</v>
+        <v>6.7992681343327632</v>
       </c>
       <c r="X72" s="21">
         <f t="shared" si="31"/>
-        <v>0.19532344213649849</v>
+        <v>0.21191052352003778</v>
       </c>
       <c r="Y72" s="8">
-        <v>33000</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="73" spans="3:25" x14ac:dyDescent="0.3">
@@ -6623,7 +6903,7 @@
       </c>
       <c r="Q73" s="19">
         <f t="shared" si="27"/>
-        <v>18994000</v>
+        <v>19311000</v>
       </c>
       <c r="R73" s="12" t="str">
         <f t="shared" si="28"/>
@@ -6646,14 +6926,14 @@
       </c>
       <c r="W73" s="21">
         <f t="shared" si="30"/>
-        <v>6.0761755836032618</v>
+        <v>6.7200884222160822</v>
       </c>
       <c r="X73" s="21">
         <f t="shared" si="31"/>
-        <v>0.18937413902230166</v>
+        <v>0.20944275582573454</v>
       </c>
       <c r="Y73" s="8">
-        <v>34000</v>
+        <v>38000</v>
       </c>
     </row>
     <row r="74" spans="3:25" x14ac:dyDescent="0.3">
@@ -6683,7 +6963,7 @@
       </c>
       <c r="Q74" s="19">
         <f t="shared" si="27"/>
-        <v>20114000</v>
+        <v>20591000</v>
       </c>
       <c r="R74" s="12" t="str">
         <f t="shared" si="28"/>
@@ -6706,14 +6986,14 @@
       </c>
       <c r="W74" s="21">
         <f t="shared" si="30"/>
-        <v>5.8965989259766243</v>
+        <v>6.6283465382424529</v>
       </c>
       <c r="X74" s="21">
         <f t="shared" si="31"/>
-        <v>0.18377733319293812</v>
+        <v>0.20658346710855643</v>
       </c>
       <c r="Y74" s="8">
-        <v>35000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="75" spans="3:25" x14ac:dyDescent="0.3">
@@ -6743,7 +7023,7 @@
       </c>
       <c r="Q75" s="19">
         <f t="shared" si="27"/>
-        <v>21266000</v>
+        <v>21935000</v>
       </c>
       <c r="R75" s="12" t="str">
         <f t="shared" si="28"/>
@@ -6766,14 +7046,14 @@
       </c>
       <c r="W75" s="21">
         <f t="shared" si="30"/>
-        <v>5.7273540817341155</v>
+        <v>6.5271235005584964</v>
       </c>
       <c r="X75" s="21">
         <f t="shared" si="31"/>
-        <v>0.17850253554737994</v>
+        <v>0.20342868243407314</v>
       </c>
       <c r="Y75" s="8">
-        <v>36000</v>
+        <v>42000</v>
       </c>
     </row>
     <row r="76" spans="3:25" x14ac:dyDescent="0.3">
@@ -6803,7 +7083,7 @@
       </c>
       <c r="Q76" s="19">
         <f t="shared" ref="Q76:Q78" si="33">ROUND(Q75+ROUNDDOWN(U76,0)*Y76,-3)</f>
-        <v>22450000</v>
+        <v>23343000</v>
       </c>
       <c r="R76" s="12" t="str">
         <f t="shared" ref="R76:R78" si="34">T76&amp;" "&amp;S76&amp;"단"</f>
@@ -6826,14 +7106,14 @@
       </c>
       <c r="W76" s="21">
         <f t="shared" ref="W76:W78" si="36">(Q76-Q75)*100/Q75</f>
-        <v>5.5675726511802877</v>
+        <v>6.4189651242306818</v>
       </c>
       <c r="X76" s="21">
         <f t="shared" ref="X76:X78" si="37">W76/U76</f>
-        <v>0.17352268096178564</v>
+        <v>0.20005774637185625</v>
       </c>
       <c r="Y76" s="8">
-        <v>37000</v>
+        <v>44000</v>
       </c>
     </row>
     <row r="77" spans="3:25" x14ac:dyDescent="0.3">
@@ -6863,7 +7143,7 @@
       </c>
       <c r="Q77" s="19">
         <f t="shared" si="33"/>
-        <v>23666000</v>
+        <v>24815000</v>
       </c>
       <c r="R77" s="12" t="str">
         <f t="shared" si="34"/>
@@ -6886,14 +7166,14 @@
       </c>
       <c r="W77" s="21">
         <f t="shared" si="36"/>
-        <v>5.416481069042316</v>
+        <v>6.3059589598594865</v>
       </c>
       <c r="X77" s="21">
         <f t="shared" si="37"/>
-        <v>0.16881365998515219</v>
+        <v>0.19653572091562066</v>
       </c>
       <c r="Y77" s="8">
-        <v>38000</v>
+        <v>46000</v>
       </c>
     </row>
     <row r="78" spans="3:25" x14ac:dyDescent="0.3">
@@ -6923,7 +7203,7 @@
       </c>
       <c r="Q78" s="19">
         <f t="shared" si="33"/>
-        <v>24914000</v>
+        <v>26351000</v>
       </c>
       <c r="R78" s="12" t="str">
         <f t="shared" si="34"/>
@@ -6946,14 +7226,14 @@
       </c>
       <c r="W78" s="21">
         <f t="shared" si="36"/>
-        <v>5.2733879827600774</v>
+        <v>6.1898045536973605</v>
       </c>
       <c r="X78" s="21">
         <f t="shared" si="37"/>
-        <v>0.16435392546268907</v>
+        <v>0.19291557525690106</v>
       </c>
       <c r="Y78" s="8">
-        <v>39000</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="79" spans="3:25" x14ac:dyDescent="0.3">

--- a/Assets/06.Table/Byeolho.xlsx
+++ b/Assets/06.Table/Byeolho.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58CC8D5-5B80-4F50-B5D7-79D02CD55246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8FAF16-1A0A-486D-BC85-401BDD2D4FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Byeolho" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="118">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -963,11 +963,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E75" sqref="E75"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1187,7 +1187,7 @@
         <v>환골 탈태 7단</v>
       </c>
       <c r="G8">
-        <f t="shared" ref="G8:G71" si="1">G3+1</f>
+        <f t="shared" ref="G8:G72" si="1">G3+1</f>
         <v>1</v>
       </c>
     </row>
@@ -1259,7 +1259,7 @@
         <v>100000</v>
       </c>
       <c r="D11">
-        <f t="shared" ref="D11:D71" si="2">D10</f>
+        <f t="shared" ref="D11:D74" si="2">D10</f>
         <v>100</v>
       </c>
       <c r="E11">
@@ -2953,6 +2953,286 @@
       <c r="G71">
         <f t="shared" si="1"/>
         <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>9054</v>
+      </c>
+      <c r="C72" s="20">
+        <f>VLOOKUP(A72,Balance!O:R,2,FALSE)</f>
+        <v>600000</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="E72">
+        <f>VLOOKUP(A72,Balance!O:R,3,FALSE)/100</f>
+        <v>279510</v>
+      </c>
+      <c r="F72" t="str">
+        <f>VLOOKUP(A72,Balance!O:R,4,FALSE)</f>
+        <v>환골 탈태 71단</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>9054</v>
+      </c>
+      <c r="C73" s="20">
+        <f>VLOOKUP(A73,Balance!O:R,2,FALSE)</f>
+        <v>650000</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="E73">
+        <f>VLOOKUP(A73,Balance!O:R,3,FALSE)/100</f>
+        <v>297190</v>
+      </c>
+      <c r="F73" t="str">
+        <f>VLOOKUP(A73,Balance!O:R,4,FALSE)</f>
+        <v>환골 탈태 72단</v>
+      </c>
+      <c r="G73">
+        <f t="shared" ref="G73:G81" si="3">G68+1</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>9054</v>
+      </c>
+      <c r="C74" s="20">
+        <f>VLOOKUP(A74,Balance!O:R,2,FALSE)</f>
+        <v>650000</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="E74">
+        <f>VLOOKUP(A74,Balance!O:R,3,FALSE)/100</f>
+        <v>315550</v>
+      </c>
+      <c r="F74" t="str">
+        <f>VLOOKUP(A74,Balance!O:R,4,FALSE)</f>
+        <v>환골 탈태 73단</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>9054</v>
+      </c>
+      <c r="C75" s="20">
+        <f>VLOOKUP(A75,Balance!O:R,2,FALSE)</f>
+        <v>650000</v>
+      </c>
+      <c r="D75">
+        <f t="shared" ref="D75:D81" si="4">D74</f>
+        <v>100</v>
+      </c>
+      <c r="E75">
+        <f>VLOOKUP(A75,Balance!O:R,3,FALSE)/100</f>
+        <v>334590</v>
+      </c>
+      <c r="F75" t="str">
+        <f>VLOOKUP(A75,Balance!O:R,4,FALSE)</f>
+        <v>환골 탈태 74단</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>9054</v>
+      </c>
+      <c r="C76" s="20">
+        <f>VLOOKUP(A76,Balance!O:R,2,FALSE)</f>
+        <v>650000</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="E76">
+        <f>VLOOKUP(A76,Balance!O:R,3,FALSE)/100</f>
+        <v>354310</v>
+      </c>
+      <c r="F76" t="str">
+        <f>VLOOKUP(A76,Balance!O:R,4,FALSE)</f>
+        <v>환골 탈태 75단</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>9054</v>
+      </c>
+      <c r="C77" s="20">
+        <f>VLOOKUP(A77,Balance!O:R,2,FALSE)</f>
+        <v>650000</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="E77">
+        <f>VLOOKUP(A77,Balance!O:R,3,FALSE)/100</f>
+        <v>374710</v>
+      </c>
+      <c r="F77" t="str">
+        <f>VLOOKUP(A77,Balance!O:R,4,FALSE)</f>
+        <v>환골 탈태 76단</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>9054</v>
+      </c>
+      <c r="C78" s="20">
+        <f>VLOOKUP(A78,Balance!O:R,2,FALSE)</f>
+        <v>650000</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="E78">
+        <f>VLOOKUP(A78,Balance!O:R,3,FALSE)/100</f>
+        <v>395790</v>
+      </c>
+      <c r="F78" t="str">
+        <f>VLOOKUP(A78,Balance!O:R,4,FALSE)</f>
+        <v>환골 탈태 77단</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>9054</v>
+      </c>
+      <c r="C79" s="20">
+        <f>VLOOKUP(A79,Balance!O:R,2,FALSE)</f>
+        <v>650000</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="E79">
+        <f>VLOOKUP(A79,Balance!O:R,3,FALSE)/100</f>
+        <v>417550</v>
+      </c>
+      <c r="F79" t="str">
+        <f>VLOOKUP(A79,Balance!O:R,4,FALSE)</f>
+        <v>환골 탈태 78단</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>9054</v>
+      </c>
+      <c r="C80" s="20">
+        <f>VLOOKUP(A80,Balance!O:R,2,FALSE)</f>
+        <v>650000</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="E80">
+        <f>VLOOKUP(A80,Balance!O:R,3,FALSE)/100</f>
+        <v>439990</v>
+      </c>
+      <c r="F80" t="str">
+        <f>VLOOKUP(A80,Balance!O:R,4,FALSE)</f>
+        <v>환골 탈태 79단</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>9054</v>
+      </c>
+      <c r="C81" s="20">
+        <f>VLOOKUP(A81,Balance!O:R,2,FALSE)</f>
+        <v>650000</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="E81">
+        <f>VLOOKUP(A81,Balance!O:R,3,FALSE)/100</f>
+        <v>463110</v>
+      </c>
+      <c r="F81" t="str">
+        <f>VLOOKUP(A81,Balance!O:R,4,FALSE)</f>
+        <v>환골 탈태 80단</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2966,8 +3246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A9B4BA-49ED-4B77-9780-496F10280935}">
   <dimension ref="A1:AE178"/>
   <sheetViews>
-    <sheetView topLeftCell="K50" workbookViewId="0">
-      <selection activeCell="Q79" sqref="Q79"/>
+    <sheetView topLeftCell="K65" workbookViewId="0">
+      <selection activeCell="Q78" sqref="Q78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4870,7 +5150,7 @@
         <v>환골 탈태 31단</v>
       </c>
       <c r="S39" s="12">
-        <f t="shared" ref="S39:S78" si="12">S38+1</f>
+        <f t="shared" ref="S39:S88" si="12">S38+1</f>
         <v>31</v>
       </c>
       <c r="T39" s="12" t="s">
@@ -6058,7 +6338,7 @@
         <v>50</v>
       </c>
       <c r="P59" s="18">
-        <f t="shared" ref="P59:P78" si="26">P50+50000</f>
+        <f t="shared" ref="P59:P88" si="26">P50+50000</f>
         <v>500000</v>
       </c>
       <c r="Q59" s="19">
@@ -7082,11 +7362,11 @@
         <v>600000</v>
       </c>
       <c r="Q76" s="19">
-        <f t="shared" ref="Q76:Q78" si="33">ROUND(Q75+ROUNDDOWN(U76,0)*Y76,-3)</f>
+        <f t="shared" ref="Q76:Q82" si="33">ROUND(Q75+ROUNDDOWN(U76,0)*Y76,-3)</f>
         <v>23343000</v>
       </c>
       <c r="R76" s="12" t="str">
-        <f t="shared" ref="R76:R78" si="34">T76&amp;" "&amp;S76&amp;"단"</f>
+        <f t="shared" ref="R76:R82" si="34">T76&amp;" "&amp;S76&amp;"단"</f>
         <v>환골 탈태 68단</v>
       </c>
       <c r="S76" s="12">
@@ -7097,7 +7377,7 @@
         <v>116</v>
       </c>
       <c r="U76" s="21">
-        <f t="shared" ref="U76:U78" si="35">(P76/$G$96)</f>
+        <f t="shared" ref="U76:U82" si="35">(P76/$G$96)</f>
         <v>32.085561497326204</v>
       </c>
       <c r="V76" s="21">
@@ -7105,11 +7385,11 @@
         <v>1219.251336898395</v>
       </c>
       <c r="W76" s="21">
-        <f t="shared" ref="W76:W78" si="36">(Q76-Q75)*100/Q75</f>
+        <f t="shared" ref="W76:W82" si="36">(Q76-Q75)*100/Q75</f>
         <v>6.4189651242306818</v>
       </c>
       <c r="X76" s="21">
-        <f t="shared" ref="X76:X78" si="37">W76/U76</f>
+        <f t="shared" ref="X76:X82" si="37">W76/U76</f>
         <v>0.20005774637185625</v>
       </c>
       <c r="Y76" s="8">
@@ -7254,16 +7534,47 @@
         <f t="shared" si="32"/>
         <v>17000</v>
       </c>
-      <c r="O79" s="12"/>
-      <c r="P79" s="18"/>
-      <c r="Q79" s="19"/>
-      <c r="R79" s="12"/>
-      <c r="S79" s="12"/>
-      <c r="T79" s="12"/>
-      <c r="U79" s="21"/>
-      <c r="V79" s="21"/>
-      <c r="W79" s="21"/>
-      <c r="X79" s="21"/>
+      <c r="O79" s="12">
+        <v>70</v>
+      </c>
+      <c r="P79" s="18">
+        <f t="shared" si="26"/>
+        <v>600000</v>
+      </c>
+      <c r="Q79" s="19">
+        <f t="shared" si="33"/>
+        <v>27951000</v>
+      </c>
+      <c r="R79" s="12" t="str">
+        <f t="shared" si="34"/>
+        <v>환골 탈태 71단</v>
+      </c>
+      <c r="S79" s="12">
+        <f t="shared" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="T79" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="U79" s="21">
+        <f t="shared" si="35"/>
+        <v>32.085561497326204</v>
+      </c>
+      <c r="V79" s="21">
+        <f>SUM($U$12:U79)</f>
+        <v>1315.5080213903734</v>
+      </c>
+      <c r="W79" s="21">
+        <f t="shared" si="36"/>
+        <v>6.0718758301392732</v>
+      </c>
+      <c r="X79" s="21">
+        <f t="shared" si="37"/>
+        <v>0.18924013003934068</v>
+      </c>
+      <c r="Y79" s="8">
+        <v>50000</v>
+      </c>
     </row>
     <row r="80" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C80" s="12">
@@ -7283,18 +7594,49 @@
         <f t="shared" si="32"/>
         <v>17100</v>
       </c>
-      <c r="O80" s="12"/>
-      <c r="P80" s="18"/>
-      <c r="Q80" s="19"/>
-      <c r="R80" s="12"/>
-      <c r="S80" s="12"/>
-      <c r="T80" s="12"/>
-      <c r="U80" s="21"/>
-      <c r="V80" s="21"/>
-      <c r="W80" s="21"/>
-      <c r="X80" s="21"/>
-    </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="O80" s="12">
+        <v>71</v>
+      </c>
+      <c r="P80" s="18">
+        <f t="shared" si="26"/>
+        <v>650000</v>
+      </c>
+      <c r="Q80" s="19">
+        <f t="shared" si="33"/>
+        <v>29719000</v>
+      </c>
+      <c r="R80" s="12" t="str">
+        <f t="shared" si="34"/>
+        <v>환골 탈태 72단</v>
+      </c>
+      <c r="S80" s="12">
+        <f t="shared" si="12"/>
+        <v>72</v>
+      </c>
+      <c r="T80" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="U80" s="21">
+        <f t="shared" si="35"/>
+        <v>34.759358288770052</v>
+      </c>
+      <c r="V80" s="21">
+        <f>SUM($U$12:U80)</f>
+        <v>1350.2673796791435</v>
+      </c>
+      <c r="W80" s="21">
+        <f t="shared" si="36"/>
+        <v>6.325355085685664</v>
+      </c>
+      <c r="X80" s="21">
+        <f t="shared" si="37"/>
+        <v>0.18197560015741834</v>
+      </c>
+      <c r="Y80" s="8">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="81" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C81" s="12">
         <v>72</v>
       </c>
@@ -7312,18 +7654,49 @@
         <f t="shared" si="32"/>
         <v>17200</v>
       </c>
-      <c r="O81" s="12"/>
-      <c r="P81" s="18"/>
-      <c r="Q81" s="19"/>
-      <c r="R81" s="12"/>
-      <c r="S81" s="12"/>
-      <c r="T81" s="12"/>
-      <c r="U81" s="21"/>
-      <c r="V81" s="21"/>
-      <c r="W81" s="21"/>
-      <c r="X81" s="21"/>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="O81" s="12">
+        <v>72</v>
+      </c>
+      <c r="P81" s="18">
+        <f t="shared" si="26"/>
+        <v>650000</v>
+      </c>
+      <c r="Q81" s="19">
+        <f t="shared" si="33"/>
+        <v>31555000</v>
+      </c>
+      <c r="R81" s="12" t="str">
+        <f t="shared" si="34"/>
+        <v>환골 탈태 73단</v>
+      </c>
+      <c r="S81" s="12">
+        <f t="shared" si="12"/>
+        <v>73</v>
+      </c>
+      <c r="T81" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="U81" s="21">
+        <f t="shared" si="35"/>
+        <v>34.759358288770052</v>
+      </c>
+      <c r="V81" s="21">
+        <f>SUM($U$12:U81)</f>
+        <v>1385.0267379679135</v>
+      </c>
+      <c r="W81" s="21">
+        <f t="shared" si="36"/>
+        <v>6.1778660116423838</v>
+      </c>
+      <c r="X81" s="21">
+        <f t="shared" si="37"/>
+        <v>0.17773245295032705</v>
+      </c>
+      <c r="Y81" s="8">
+        <v>54000</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C82" s="12">
         <v>73</v>
       </c>
@@ -7341,14 +7714,49 @@
         <f t="shared" si="32"/>
         <v>17300</v>
       </c>
-      <c r="O82" s="12"/>
-      <c r="P82" s="13"/>
-      <c r="Q82" s="12"/>
-      <c r="R82" s="12"/>
-      <c r="S82" s="12"/>
-      <c r="T82" s="12"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="O82" s="12">
+        <v>73</v>
+      </c>
+      <c r="P82" s="18">
+        <f t="shared" si="26"/>
+        <v>650000</v>
+      </c>
+      <c r="Q82" s="19">
+        <f t="shared" si="33"/>
+        <v>33459000</v>
+      </c>
+      <c r="R82" s="12" t="str">
+        <f t="shared" si="34"/>
+        <v>환골 탈태 74단</v>
+      </c>
+      <c r="S82" s="12">
+        <f t="shared" si="12"/>
+        <v>74</v>
+      </c>
+      <c r="T82" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="U82" s="21">
+        <f t="shared" si="35"/>
+        <v>34.759358288770052</v>
+      </c>
+      <c r="V82" s="21">
+        <f>SUM($U$12:U82)</f>
+        <v>1419.7860962566835</v>
+      </c>
+      <c r="W82" s="21">
+        <f t="shared" si="36"/>
+        <v>6.0339090476945021</v>
+      </c>
+      <c r="X82" s="21">
+        <f t="shared" si="37"/>
+        <v>0.17359092183367261</v>
+      </c>
+      <c r="Y82" s="8">
+        <v>56000</v>
+      </c>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C83" s="12">
         <v>74</v>
       </c>
@@ -7366,14 +7774,49 @@
         <f t="shared" si="32"/>
         <v>17400</v>
       </c>
-      <c r="O83" s="12"/>
-      <c r="P83" s="13"/>
-      <c r="Q83" s="12"/>
-      <c r="R83" s="12"/>
-      <c r="S83" s="12"/>
-      <c r="T83" s="12"/>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="O83" s="12">
+        <v>74</v>
+      </c>
+      <c r="P83" s="18">
+        <f t="shared" si="26"/>
+        <v>650000</v>
+      </c>
+      <c r="Q83" s="19">
+        <f t="shared" ref="Q83:Q88" si="39">ROUND(Q82+ROUNDDOWN(U83,0)*Y83,-3)</f>
+        <v>35431000</v>
+      </c>
+      <c r="R83" s="12" t="str">
+        <f t="shared" ref="R83:R88" si="40">T83&amp;" "&amp;S83&amp;"단"</f>
+        <v>환골 탈태 75단</v>
+      </c>
+      <c r="S83" s="12">
+        <f t="shared" si="12"/>
+        <v>75</v>
+      </c>
+      <c r="T83" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="U83" s="21">
+        <f t="shared" ref="U83:U88" si="41">(P83/$G$96)</f>
+        <v>34.759358288770052</v>
+      </c>
+      <c r="V83" s="21">
+        <f>SUM($U$12:U83)</f>
+        <v>1454.5454545454536</v>
+      </c>
+      <c r="W83" s="21">
+        <f t="shared" ref="W83:W88" si="42">(Q83-Q82)*100/Q82</f>
+        <v>5.8937804477121256</v>
+      </c>
+      <c r="X83" s="21">
+        <f t="shared" ref="X83:X88" si="43">W83/U83</f>
+        <v>0.16955952980341038</v>
+      </c>
+      <c r="Y83" s="8">
+        <v>58000</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C84" s="12">
         <v>75</v>
       </c>
@@ -7391,14 +7834,49 @@
         <f t="shared" si="32"/>
         <v>17500</v>
       </c>
-      <c r="O84" s="12"/>
-      <c r="P84" s="13"/>
-      <c r="Q84" s="12"/>
-      <c r="R84" s="12"/>
-      <c r="S84" s="12"/>
-      <c r="T84" s="12"/>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="O84" s="12">
+        <v>75</v>
+      </c>
+      <c r="P84" s="18">
+        <f t="shared" si="26"/>
+        <v>650000</v>
+      </c>
+      <c r="Q84" s="19">
+        <f t="shared" si="39"/>
+        <v>37471000</v>
+      </c>
+      <c r="R84" s="12" t="str">
+        <f t="shared" si="40"/>
+        <v>환골 탈태 76단</v>
+      </c>
+      <c r="S84" s="12">
+        <f t="shared" si="12"/>
+        <v>76</v>
+      </c>
+      <c r="T84" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="U84" s="21">
+        <f t="shared" si="41"/>
+        <v>34.759358288770052</v>
+      </c>
+      <c r="V84" s="21">
+        <f>SUM($U$12:U84)</f>
+        <v>1489.3048128342236</v>
+      </c>
+      <c r="W84" s="21">
+        <f t="shared" si="42"/>
+        <v>5.75766983714826</v>
+      </c>
+      <c r="X84" s="21">
+        <f t="shared" si="43"/>
+        <v>0.16564373223795764</v>
+      </c>
+      <c r="Y84" s="8">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C85" s="12">
         <v>76</v>
       </c>
@@ -7416,14 +7894,49 @@
         <f t="shared" si="32"/>
         <v>17600</v>
       </c>
-      <c r="O85" s="12"/>
-      <c r="P85" s="13"/>
-      <c r="Q85" s="12"/>
-      <c r="R85" s="12"/>
-      <c r="S85" s="12"/>
-      <c r="T85" s="12"/>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="O85" s="12">
+        <v>76</v>
+      </c>
+      <c r="P85" s="18">
+        <f t="shared" si="26"/>
+        <v>650000</v>
+      </c>
+      <c r="Q85" s="19">
+        <f t="shared" si="39"/>
+        <v>39579000</v>
+      </c>
+      <c r="R85" s="12" t="str">
+        <f t="shared" si="40"/>
+        <v>환골 탈태 77단</v>
+      </c>
+      <c r="S85" s="12">
+        <f t="shared" si="12"/>
+        <v>77</v>
+      </c>
+      <c r="T85" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="U85" s="21">
+        <f t="shared" si="41"/>
+        <v>34.759358288770052</v>
+      </c>
+      <c r="V85" s="21">
+        <f>SUM($U$12:U85)</f>
+        <v>1524.0641711229937</v>
+      </c>
+      <c r="W85" s="21">
+        <f t="shared" si="42"/>
+        <v>5.625683862186758</v>
+      </c>
+      <c r="X85" s="21">
+        <f t="shared" si="43"/>
+        <v>0.16184659726598827</v>
+      </c>
+      <c r="Y85" s="8">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C86" s="12">
         <v>77</v>
       </c>
@@ -7441,14 +7954,49 @@
         <f t="shared" si="32"/>
         <v>17700</v>
       </c>
-      <c r="O86" s="12"/>
-      <c r="P86" s="13"/>
-      <c r="Q86" s="12"/>
-      <c r="R86" s="12"/>
-      <c r="S86" s="12"/>
-      <c r="T86" s="12"/>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="O86" s="12">
+        <v>77</v>
+      </c>
+      <c r="P86" s="18">
+        <f t="shared" si="26"/>
+        <v>650000</v>
+      </c>
+      <c r="Q86" s="19">
+        <f t="shared" si="39"/>
+        <v>41755000</v>
+      </c>
+      <c r="R86" s="12" t="str">
+        <f t="shared" si="40"/>
+        <v>환골 탈태 78단</v>
+      </c>
+      <c r="S86" s="12">
+        <f t="shared" si="12"/>
+        <v>78</v>
+      </c>
+      <c r="T86" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="U86" s="21">
+        <f t="shared" si="41"/>
+        <v>34.759358288770052</v>
+      </c>
+      <c r="V86" s="21">
+        <f>SUM($U$12:U86)</f>
+        <v>1558.8235294117637</v>
+      </c>
+      <c r="W86" s="21">
+        <f t="shared" si="42"/>
+        <v>5.4978650294348013</v>
+      </c>
+      <c r="X86" s="21">
+        <f t="shared" si="43"/>
+        <v>0.15816934776989353</v>
+      </c>
+      <c r="Y86" s="8">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C87" s="12">
         <v>78</v>
       </c>
@@ -7466,14 +8014,49 @@
         <f t="shared" si="32"/>
         <v>17800</v>
       </c>
-      <c r="O87" s="12"/>
-      <c r="P87" s="13"/>
-      <c r="Q87" s="12"/>
-      <c r="R87" s="12"/>
-      <c r="S87" s="12"/>
-      <c r="T87" s="12"/>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="O87" s="12">
+        <v>78</v>
+      </c>
+      <c r="P87" s="18">
+        <f t="shared" si="26"/>
+        <v>650000</v>
+      </c>
+      <c r="Q87" s="19">
+        <f t="shared" si="39"/>
+        <v>43999000</v>
+      </c>
+      <c r="R87" s="12" t="str">
+        <f t="shared" si="40"/>
+        <v>환골 탈태 79단</v>
+      </c>
+      <c r="S87" s="12">
+        <f t="shared" si="12"/>
+        <v>79</v>
+      </c>
+      <c r="T87" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="U87" s="21">
+        <f t="shared" si="41"/>
+        <v>34.759358288770052</v>
+      </c>
+      <c r="V87" s="21">
+        <f>SUM($U$12:U87)</f>
+        <v>1593.5828877005338</v>
+      </c>
+      <c r="W87" s="21">
+        <f t="shared" si="42"/>
+        <v>5.3742066818345107</v>
+      </c>
+      <c r="X87" s="21">
+        <f t="shared" si="43"/>
+        <v>0.154611792231239</v>
+      </c>
+      <c r="Y87" s="8">
+        <v>66000</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C88" s="12">
         <v>79</v>
       </c>
@@ -7491,14 +8074,49 @@
         <f t="shared" si="32"/>
         <v>17900</v>
       </c>
-      <c r="O88" s="12"/>
-      <c r="P88" s="13"/>
-      <c r="Q88" s="12"/>
-      <c r="R88" s="12"/>
-      <c r="S88" s="12"/>
-      <c r="T88" s="12"/>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="O88" s="12">
+        <v>79</v>
+      </c>
+      <c r="P88" s="18">
+        <f t="shared" si="26"/>
+        <v>650000</v>
+      </c>
+      <c r="Q88" s="19">
+        <f t="shared" si="39"/>
+        <v>46311000</v>
+      </c>
+      <c r="R88" s="12" t="str">
+        <f t="shared" si="40"/>
+        <v>환골 탈태 80단</v>
+      </c>
+      <c r="S88" s="12">
+        <f t="shared" si="12"/>
+        <v>80</v>
+      </c>
+      <c r="T88" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="U88" s="21">
+        <f t="shared" si="41"/>
+        <v>34.759358288770052</v>
+      </c>
+      <c r="V88" s="21">
+        <f>SUM($U$12:U88)</f>
+        <v>1628.3422459893038</v>
+      </c>
+      <c r="W88" s="21">
+        <f t="shared" si="42"/>
+        <v>5.2546648787472439</v>
+      </c>
+      <c r="X88" s="21">
+        <f t="shared" si="43"/>
+        <v>0.15117266651165148</v>
+      </c>
+      <c r="Y88" s="8">
+        <v>68000</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C89" s="12">
         <v>80</v>
       </c>
@@ -7523,7 +8141,7 @@
       <c r="S89" s="12"/>
       <c r="T89" s="12"/>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C90" s="12">
         <v>81</v>
       </c>
@@ -7548,7 +8166,7 @@
       <c r="S90" s="12"/>
       <c r="T90" s="12"/>
     </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C91" s="12">
         <v>82</v>
       </c>
@@ -7573,7 +8191,7 @@
       <c r="S91" s="12"/>
       <c r="T91" s="12"/>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C92" s="12">
         <v>83</v>
       </c>
@@ -7598,7 +8216,7 @@
       <c r="S92" s="12"/>
       <c r="T92" s="12"/>
     </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C93" s="12">
         <v>84</v>
       </c>
@@ -7623,7 +8241,7 @@
       <c r="S93" s="12"/>
       <c r="T93" s="12"/>
     </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C94" s="12">
         <v>85</v>
       </c>
@@ -7648,7 +8266,7 @@
       <c r="S94" s="12"/>
       <c r="T94" s="12"/>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C95" s="12">
         <v>86</v>
       </c>
@@ -7673,7 +8291,7 @@
       <c r="S95" s="12"/>
       <c r="T95" s="12"/>
     </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C96" s="16">
         <v>87</v>
       </c>

--- a/Assets/06.Table/Byeolho.xlsx
+++ b/Assets/06.Table/Byeolho.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8FAF16-1A0A-486D-BC85-401BDD2D4FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10EAE52-A755-417B-A313-85E12F67C02A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="118">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -963,11 +963,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G81"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D76" sqref="D76"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3007,7 +3007,7 @@
         <v>환골 탈태 72단</v>
       </c>
       <c r="G73">
-        <f t="shared" ref="G73:G81" si="3">G68+1</f>
+        <f t="shared" ref="G73:G101" si="3">G68+1</f>
         <v>14</v>
       </c>
     </row>
@@ -3051,7 +3051,7 @@
         <v>650000</v>
       </c>
       <c r="D75">
-        <f t="shared" ref="D75:D81" si="4">D74</f>
+        <f t="shared" ref="D75:D101" si="4">D74</f>
         <v>100</v>
       </c>
       <c r="E75">
@@ -3233,6 +3233,566 @@
       <c r="G81">
         <f t="shared" si="3"/>
         <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>9054</v>
+      </c>
+      <c r="C82" s="20">
+        <f>VLOOKUP(A82,Balance!O:R,2,FALSE)</f>
+        <v>700000</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="E82">
+        <f>VLOOKUP(A82,Balance!O:R,3,FALSE)/100</f>
+        <v>489010</v>
+      </c>
+      <c r="F82" t="str">
+        <f>VLOOKUP(A82,Balance!O:R,4,FALSE)</f>
+        <v>환골 탈태 81단</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>9054</v>
+      </c>
+      <c r="C83" s="20">
+        <f>VLOOKUP(A83,Balance!O:R,2,FALSE)</f>
+        <v>700000</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="E83">
+        <f>VLOOKUP(A83,Balance!O:R,3,FALSE)/100</f>
+        <v>515650</v>
+      </c>
+      <c r="F83" t="str">
+        <f>VLOOKUP(A83,Balance!O:R,4,FALSE)</f>
+        <v>환골 탈태 82단</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>9054</v>
+      </c>
+      <c r="C84" s="20">
+        <f>VLOOKUP(A84,Balance!O:R,2,FALSE)</f>
+        <v>700000</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="E84">
+        <f>VLOOKUP(A84,Balance!O:R,3,FALSE)/100</f>
+        <v>543030</v>
+      </c>
+      <c r="F84" t="str">
+        <f>VLOOKUP(A84,Balance!O:R,4,FALSE)</f>
+        <v>환골 탈태 83단</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>9054</v>
+      </c>
+      <c r="C85" s="20">
+        <f>VLOOKUP(A85,Balance!O:R,2,FALSE)</f>
+        <v>700000</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="E85">
+        <f>VLOOKUP(A85,Balance!O:R,3,FALSE)/100</f>
+        <v>571150</v>
+      </c>
+      <c r="F85" t="str">
+        <f>VLOOKUP(A85,Balance!O:R,4,FALSE)</f>
+        <v>환골 탈태 84단</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>9054</v>
+      </c>
+      <c r="C86" s="20">
+        <f>VLOOKUP(A86,Balance!O:R,2,FALSE)</f>
+        <v>700000</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="E86">
+        <f>VLOOKUP(A86,Balance!O:R,3,FALSE)/100</f>
+        <v>600010</v>
+      </c>
+      <c r="F86" t="str">
+        <f>VLOOKUP(A86,Balance!O:R,4,FALSE)</f>
+        <v>환골 탈태 85단</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>9054</v>
+      </c>
+      <c r="C87" s="20">
+        <f>VLOOKUP(A87,Balance!O:R,2,FALSE)</f>
+        <v>700000</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="E87">
+        <f>VLOOKUP(A87,Balance!O:R,3,FALSE)/100</f>
+        <v>629610</v>
+      </c>
+      <c r="F87" t="str">
+        <f>VLOOKUP(A87,Balance!O:R,4,FALSE)</f>
+        <v>환골 탈태 86단</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>9054</v>
+      </c>
+      <c r="C88" s="20">
+        <f>VLOOKUP(A88,Balance!O:R,2,FALSE)</f>
+        <v>700000</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="E88">
+        <f>VLOOKUP(A88,Balance!O:R,3,FALSE)/100</f>
+        <v>659950</v>
+      </c>
+      <c r="F88" t="str">
+        <f>VLOOKUP(A88,Balance!O:R,4,FALSE)</f>
+        <v>환골 탈태 87단</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>9054</v>
+      </c>
+      <c r="C89" s="20">
+        <f>VLOOKUP(A89,Balance!O:R,2,FALSE)</f>
+        <v>700000</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="E89">
+        <f>VLOOKUP(A89,Balance!O:R,3,FALSE)/100</f>
+        <v>691030</v>
+      </c>
+      <c r="F89" t="str">
+        <f>VLOOKUP(A89,Balance!O:R,4,FALSE)</f>
+        <v>환골 탈태 88단</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>9054</v>
+      </c>
+      <c r="C90" s="20">
+        <f>VLOOKUP(A90,Balance!O:R,2,FALSE)</f>
+        <v>700000</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="E90">
+        <f>VLOOKUP(A90,Balance!O:R,3,FALSE)/100</f>
+        <v>722850</v>
+      </c>
+      <c r="F90" t="str">
+        <f>VLOOKUP(A90,Balance!O:R,4,FALSE)</f>
+        <v>환골 탈태 89단</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>9054</v>
+      </c>
+      <c r="C91" s="20">
+        <f>VLOOKUP(A91,Balance!O:R,2,FALSE)</f>
+        <v>750000</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="E91">
+        <f>VLOOKUP(A91,Balance!O:R,3,FALSE)/100</f>
+        <v>758050</v>
+      </c>
+      <c r="F91" t="str">
+        <f>VLOOKUP(A91,Balance!O:R,4,FALSE)</f>
+        <v>환골 탈태 90단</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>9054</v>
+      </c>
+      <c r="C92" s="20">
+        <f>VLOOKUP(A92,Balance!O:R,2,FALSE)</f>
+        <v>750000</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="E92">
+        <f>VLOOKUP(A92,Balance!O:R,3,FALSE)/100</f>
+        <v>794050</v>
+      </c>
+      <c r="F92" t="str">
+        <f>VLOOKUP(A92,Balance!O:R,4,FALSE)</f>
+        <v>환골 탈태 91단</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>9054</v>
+      </c>
+      <c r="C93" s="20">
+        <f>VLOOKUP(A93,Balance!O:R,2,FALSE)</f>
+        <v>750000</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="E93">
+        <f>VLOOKUP(A93,Balance!O:R,3,FALSE)/100</f>
+        <v>830850</v>
+      </c>
+      <c r="F93" t="str">
+        <f>VLOOKUP(A93,Balance!O:R,4,FALSE)</f>
+        <v>환골 탈태 92단</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>9054</v>
+      </c>
+      <c r="C94" s="20">
+        <f>VLOOKUP(A94,Balance!O:R,2,FALSE)</f>
+        <v>750000</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="E94">
+        <f>VLOOKUP(A94,Balance!O:R,3,FALSE)/100</f>
+        <v>868450</v>
+      </c>
+      <c r="F94" t="str">
+        <f>VLOOKUP(A94,Balance!O:R,4,FALSE)</f>
+        <v>환골 탈태 93단</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>9054</v>
+      </c>
+      <c r="C95" s="20">
+        <f>VLOOKUP(A95,Balance!O:R,2,FALSE)</f>
+        <v>750000</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="E95">
+        <f>VLOOKUP(A95,Balance!O:R,3,FALSE)/100</f>
+        <v>906850</v>
+      </c>
+      <c r="F95" t="str">
+        <f>VLOOKUP(A95,Balance!O:R,4,FALSE)</f>
+        <v>환골 탈태 94단</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>9054</v>
+      </c>
+      <c r="C96" s="20">
+        <f>VLOOKUP(A96,Balance!O:R,2,FALSE)</f>
+        <v>750000</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="E96">
+        <f>VLOOKUP(A96,Balance!O:R,3,FALSE)/100</f>
+        <v>946050</v>
+      </c>
+      <c r="F96" t="str">
+        <f>VLOOKUP(A96,Balance!O:R,4,FALSE)</f>
+        <v>환골 탈태 95단</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>9054</v>
+      </c>
+      <c r="C97" s="20">
+        <f>VLOOKUP(A97,Balance!O:R,2,FALSE)</f>
+        <v>750000</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="E97">
+        <f>VLOOKUP(A97,Balance!O:R,3,FALSE)/100</f>
+        <v>986050</v>
+      </c>
+      <c r="F97" t="str">
+        <f>VLOOKUP(A97,Balance!O:R,4,FALSE)</f>
+        <v>환골 탈태 96단</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>9054</v>
+      </c>
+      <c r="C98" s="20">
+        <f>VLOOKUP(A98,Balance!O:R,2,FALSE)</f>
+        <v>750000</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="E98">
+        <f>VLOOKUP(A98,Balance!O:R,3,FALSE)/100</f>
+        <v>1026850</v>
+      </c>
+      <c r="F98" t="str">
+        <f>VLOOKUP(A98,Balance!O:R,4,FALSE)</f>
+        <v>환골 탈태 97단</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>9054</v>
+      </c>
+      <c r="C99" s="20">
+        <f>VLOOKUP(A99,Balance!O:R,2,FALSE)</f>
+        <v>750000</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="E99">
+        <f>VLOOKUP(A99,Balance!O:R,3,FALSE)/100</f>
+        <v>1068450</v>
+      </c>
+      <c r="F99" t="str">
+        <f>VLOOKUP(A99,Balance!O:R,4,FALSE)</f>
+        <v>환골 탈태 98단</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>9054</v>
+      </c>
+      <c r="C100" s="20">
+        <f>VLOOKUP(A100,Balance!O:R,2,FALSE)</f>
+        <v>800000</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="E100">
+        <f>VLOOKUP(A100,Balance!O:R,3,FALSE)/100</f>
+        <v>1112970</v>
+      </c>
+      <c r="F100" t="str">
+        <f>VLOOKUP(A100,Balance!O:R,4,FALSE)</f>
+        <v>환골 탈태 99단</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>9054</v>
+      </c>
+      <c r="C101" s="20">
+        <f>VLOOKUP(A101,Balance!O:R,2,FALSE)</f>
+        <v>800000</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="E101">
+        <f>VLOOKUP(A101,Balance!O:R,3,FALSE)/100</f>
+        <v>1158330</v>
+      </c>
+      <c r="F101" t="str">
+        <f>VLOOKUP(A101,Balance!O:R,4,FALSE)</f>
+        <v>환골 탈태 100단</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="3"/>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -3246,8 +3806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A9B4BA-49ED-4B77-9780-496F10280935}">
   <dimension ref="A1:AE178"/>
   <sheetViews>
-    <sheetView topLeftCell="K65" workbookViewId="0">
-      <selection activeCell="Q78" sqref="Q78"/>
+    <sheetView topLeftCell="K77" workbookViewId="0">
+      <selection activeCell="O74" sqref="O74:Y108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5150,7 +5710,7 @@
         <v>환골 탈태 31단</v>
       </c>
       <c r="S39" s="12">
-        <f t="shared" ref="S39:S88" si="12">S38+1</f>
+        <f t="shared" ref="S39:S102" si="12">S38+1</f>
         <v>31</v>
       </c>
       <c r="T39" s="12" t="s">
@@ -6338,7 +6898,7 @@
         <v>50</v>
       </c>
       <c r="P59" s="18">
-        <f t="shared" ref="P59:P88" si="26">P50+50000</f>
+        <f t="shared" ref="P59:P108" si="26">P50+50000</f>
         <v>500000</v>
       </c>
       <c r="Q59" s="19">
@@ -7782,11 +8342,11 @@
         <v>650000</v>
       </c>
       <c r="Q83" s="19">
-        <f t="shared" ref="Q83:Q88" si="39">ROUND(Q82+ROUNDDOWN(U83,0)*Y83,-3)</f>
+        <f t="shared" ref="Q83:Q97" si="39">ROUND(Q82+ROUNDDOWN(U83,0)*Y83,-3)</f>
         <v>35431000</v>
       </c>
       <c r="R83" s="12" t="str">
-        <f t="shared" ref="R83:R88" si="40">T83&amp;" "&amp;S83&amp;"단"</f>
+        <f t="shared" ref="R83:R97" si="40">T83&amp;" "&amp;S83&amp;"단"</f>
         <v>환골 탈태 75단</v>
       </c>
       <c r="S83" s="12">
@@ -7797,7 +8357,7 @@
         <v>116</v>
       </c>
       <c r="U83" s="21">
-        <f t="shared" ref="U83:U88" si="41">(P83/$G$96)</f>
+        <f t="shared" ref="U83:U97" si="41">(P83/$G$96)</f>
         <v>34.759358288770052</v>
       </c>
       <c r="V83" s="21">
@@ -7805,11 +8365,11 @@
         <v>1454.5454545454536</v>
       </c>
       <c r="W83" s="21">
-        <f t="shared" ref="W83:W88" si="42">(Q83-Q82)*100/Q82</f>
+        <f t="shared" ref="W83:W97" si="42">(Q83-Q82)*100/Q82</f>
         <v>5.8937804477121256</v>
       </c>
       <c r="X83" s="21">
-        <f t="shared" ref="X83:X88" si="43">W83/U83</f>
+        <f t="shared" ref="X83:X97" si="43">W83/U83</f>
         <v>0.16955952980341038</v>
       </c>
       <c r="Y83" s="8">
@@ -8134,12 +8694,47 @@
         <f t="shared" si="32"/>
         <v>18000</v>
       </c>
-      <c r="O89" s="12"/>
-      <c r="P89" s="13"/>
-      <c r="Q89" s="12"/>
-      <c r="R89" s="12"/>
-      <c r="S89" s="12"/>
-      <c r="T89" s="12"/>
+      <c r="O89" s="12">
+        <v>80</v>
+      </c>
+      <c r="P89" s="18">
+        <f t="shared" si="26"/>
+        <v>700000</v>
+      </c>
+      <c r="Q89" s="19">
+        <f t="shared" si="39"/>
+        <v>48901000</v>
+      </c>
+      <c r="R89" s="12" t="str">
+        <f t="shared" si="40"/>
+        <v>환골 탈태 81단</v>
+      </c>
+      <c r="S89" s="12">
+        <f t="shared" si="12"/>
+        <v>81</v>
+      </c>
+      <c r="T89" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="U89" s="21">
+        <f t="shared" si="41"/>
+        <v>37.433155080213901</v>
+      </c>
+      <c r="V89" s="21">
+        <f>SUM($U$12:U89)</f>
+        <v>1665.7754010695178</v>
+      </c>
+      <c r="W89" s="21">
+        <f t="shared" si="42"/>
+        <v>5.5926237826866183</v>
+      </c>
+      <c r="X89" s="21">
+        <f t="shared" si="43"/>
+        <v>0.14940294962319967</v>
+      </c>
+      <c r="Y89" s="8">
+        <v>70000</v>
+      </c>
     </row>
     <row r="90" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C90" s="12">
@@ -8159,12 +8754,47 @@
         <f t="shared" si="32"/>
         <v>18100</v>
       </c>
-      <c r="O90" s="12"/>
-      <c r="P90" s="13"/>
-      <c r="Q90" s="12"/>
-      <c r="R90" s="12"/>
-      <c r="S90" s="12"/>
-      <c r="T90" s="12"/>
+      <c r="O90" s="12">
+        <v>81</v>
+      </c>
+      <c r="P90" s="18">
+        <f t="shared" si="26"/>
+        <v>700000</v>
+      </c>
+      <c r="Q90" s="19">
+        <f t="shared" si="39"/>
+        <v>51565000</v>
+      </c>
+      <c r="R90" s="12" t="str">
+        <f t="shared" si="40"/>
+        <v>환골 탈태 82단</v>
+      </c>
+      <c r="S90" s="12">
+        <f t="shared" si="12"/>
+        <v>82</v>
+      </c>
+      <c r="T90" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="U90" s="21">
+        <f t="shared" si="41"/>
+        <v>37.433155080213901</v>
+      </c>
+      <c r="V90" s="21">
+        <f>SUM($U$12:U90)</f>
+        <v>1703.2085561497317</v>
+      </c>
+      <c r="W90" s="21">
+        <f t="shared" si="42"/>
+        <v>5.447741354982516</v>
+      </c>
+      <c r="X90" s="21">
+        <f t="shared" si="43"/>
+        <v>0.14553251905453293</v>
+      </c>
+      <c r="Y90" s="8">
+        <v>72000</v>
+      </c>
     </row>
     <row r="91" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C91" s="12">
@@ -8184,12 +8814,47 @@
         <f t="shared" si="32"/>
         <v>18200</v>
       </c>
-      <c r="O91" s="12"/>
-      <c r="P91" s="13"/>
-      <c r="Q91" s="12"/>
-      <c r="R91" s="12"/>
-      <c r="S91" s="12"/>
-      <c r="T91" s="12"/>
+      <c r="O91" s="12">
+        <v>82</v>
+      </c>
+      <c r="P91" s="18">
+        <f t="shared" si="26"/>
+        <v>700000</v>
+      </c>
+      <c r="Q91" s="19">
+        <f t="shared" si="39"/>
+        <v>54303000</v>
+      </c>
+      <c r="R91" s="12" t="str">
+        <f t="shared" si="40"/>
+        <v>환골 탈태 83단</v>
+      </c>
+      <c r="S91" s="12">
+        <f t="shared" si="12"/>
+        <v>83</v>
+      </c>
+      <c r="T91" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="U91" s="21">
+        <f t="shared" si="41"/>
+        <v>37.433155080213901</v>
+      </c>
+      <c r="V91" s="21">
+        <f>SUM($U$12:U91)</f>
+        <v>1740.6417112299457</v>
+      </c>
+      <c r="W91" s="21">
+        <f t="shared" si="42"/>
+        <v>5.3098031610588574</v>
+      </c>
+      <c r="X91" s="21">
+        <f t="shared" si="43"/>
+        <v>0.14184759873114378</v>
+      </c>
+      <c r="Y91" s="8">
+        <v>74000</v>
+      </c>
     </row>
     <row r="92" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C92" s="12">
@@ -8209,12 +8874,47 @@
         <f t="shared" si="32"/>
         <v>18300</v>
       </c>
-      <c r="O92" s="12"/>
-      <c r="P92" s="13"/>
-      <c r="Q92" s="12"/>
-      <c r="R92" s="12"/>
-      <c r="S92" s="12"/>
-      <c r="T92" s="12"/>
+      <c r="O92" s="12">
+        <v>83</v>
+      </c>
+      <c r="P92" s="18">
+        <f t="shared" si="26"/>
+        <v>700000</v>
+      </c>
+      <c r="Q92" s="19">
+        <f t="shared" si="39"/>
+        <v>57115000</v>
+      </c>
+      <c r="R92" s="12" t="str">
+        <f t="shared" si="40"/>
+        <v>환골 탈태 84단</v>
+      </c>
+      <c r="S92" s="12">
+        <f t="shared" si="12"/>
+        <v>84</v>
+      </c>
+      <c r="T92" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="U92" s="21">
+        <f t="shared" si="41"/>
+        <v>37.433155080213901</v>
+      </c>
+      <c r="V92" s="21">
+        <f>SUM($U$12:U92)</f>
+        <v>1778.0748663101597</v>
+      </c>
+      <c r="W92" s="21">
+        <f t="shared" si="42"/>
+        <v>5.1783511039905719</v>
+      </c>
+      <c r="X92" s="21">
+        <f t="shared" si="43"/>
+        <v>0.13833595092089102</v>
+      </c>
+      <c r="Y92" s="8">
+        <v>76000</v>
+      </c>
     </row>
     <row r="93" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C93" s="12">
@@ -8234,12 +8934,47 @@
         <f t="shared" si="32"/>
         <v>18400</v>
       </c>
-      <c r="O93" s="12"/>
-      <c r="P93" s="13"/>
-      <c r="Q93" s="12"/>
-      <c r="R93" s="12"/>
-      <c r="S93" s="12"/>
-      <c r="T93" s="12"/>
+      <c r="O93" s="12">
+        <v>84</v>
+      </c>
+      <c r="P93" s="18">
+        <f t="shared" si="26"/>
+        <v>700000</v>
+      </c>
+      <c r="Q93" s="19">
+        <f t="shared" si="39"/>
+        <v>60001000</v>
+      </c>
+      <c r="R93" s="12" t="str">
+        <f t="shared" si="40"/>
+        <v>환골 탈태 85단</v>
+      </c>
+      <c r="S93" s="12">
+        <f t="shared" si="12"/>
+        <v>85</v>
+      </c>
+      <c r="T93" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="U93" s="21">
+        <f t="shared" si="41"/>
+        <v>37.433155080213901</v>
+      </c>
+      <c r="V93" s="21">
+        <f>SUM($U$12:U93)</f>
+        <v>1815.5080213903736</v>
+      </c>
+      <c r="W93" s="21">
+        <f t="shared" si="42"/>
+        <v>5.0529633196183141</v>
+      </c>
+      <c r="X93" s="21">
+        <f t="shared" si="43"/>
+        <v>0.13498630582408927</v>
+      </c>
+      <c r="Y93" s="8">
+        <v>78000</v>
+      </c>
     </row>
     <row r="94" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C94" s="12">
@@ -8259,12 +8994,47 @@
         <f t="shared" si="32"/>
         <v>18500</v>
       </c>
-      <c r="O94" s="12"/>
-      <c r="P94" s="13"/>
-      <c r="Q94" s="12"/>
-      <c r="R94" s="12"/>
-      <c r="S94" s="12"/>
-      <c r="T94" s="12"/>
+      <c r="O94" s="12">
+        <v>85</v>
+      </c>
+      <c r="P94" s="18">
+        <f t="shared" si="26"/>
+        <v>700000</v>
+      </c>
+      <c r="Q94" s="19">
+        <f t="shared" si="39"/>
+        <v>62961000</v>
+      </c>
+      <c r="R94" s="12" t="str">
+        <f t="shared" si="40"/>
+        <v>환골 탈태 86단</v>
+      </c>
+      <c r="S94" s="12">
+        <f t="shared" si="12"/>
+        <v>86</v>
+      </c>
+      <c r="T94" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="U94" s="21">
+        <f t="shared" si="41"/>
+        <v>37.433155080213901</v>
+      </c>
+      <c r="V94" s="21">
+        <f>SUM($U$12:U94)</f>
+        <v>1852.9411764705876</v>
+      </c>
+      <c r="W94" s="21">
+        <f t="shared" si="42"/>
+        <v>4.9332511124814582</v>
+      </c>
+      <c r="X94" s="21">
+        <f t="shared" si="43"/>
+        <v>0.13178827971914753</v>
+      </c>
+      <c r="Y94" s="8">
+        <v>80000</v>
+      </c>
     </row>
     <row r="95" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C95" s="12">
@@ -8284,12 +9054,47 @@
         <f t="shared" si="32"/>
         <v>18600</v>
       </c>
-      <c r="O95" s="12"/>
-      <c r="P95" s="13"/>
-      <c r="Q95" s="12"/>
-      <c r="R95" s="12"/>
-      <c r="S95" s="12"/>
-      <c r="T95" s="12"/>
+      <c r="O95" s="12">
+        <v>86</v>
+      </c>
+      <c r="P95" s="18">
+        <f t="shared" si="26"/>
+        <v>700000</v>
+      </c>
+      <c r="Q95" s="19">
+        <f t="shared" si="39"/>
+        <v>65995000</v>
+      </c>
+      <c r="R95" s="12" t="str">
+        <f t="shared" si="40"/>
+        <v>환골 탈태 87단</v>
+      </c>
+      <c r="S95" s="12">
+        <f t="shared" si="12"/>
+        <v>87</v>
+      </c>
+      <c r="T95" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="U95" s="21">
+        <f t="shared" si="41"/>
+        <v>37.433155080213901</v>
+      </c>
+      <c r="V95" s="21">
+        <f>SUM($U$12:U95)</f>
+        <v>1890.3743315508016</v>
+      </c>
+      <c r="W95" s="21">
+        <f t="shared" si="42"/>
+        <v>4.8188561172789504</v>
+      </c>
+      <c r="X95" s="21">
+        <f t="shared" si="43"/>
+        <v>0.12873229913302339</v>
+      </c>
+      <c r="Y95" s="8">
+        <v>82000</v>
+      </c>
     </row>
     <row r="96" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C96" s="16">
@@ -8309,14 +9114,49 @@
         <f t="shared" si="32"/>
         <v>18700</v>
       </c>
-      <c r="O96" s="12"/>
-      <c r="P96" s="13"/>
-      <c r="Q96" s="12"/>
-      <c r="R96" s="12"/>
-      <c r="S96" s="12"/>
-      <c r="T96" s="12"/>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="O96" s="12">
+        <v>87</v>
+      </c>
+      <c r="P96" s="18">
+        <f t="shared" si="26"/>
+        <v>700000</v>
+      </c>
+      <c r="Q96" s="19">
+        <f t="shared" si="39"/>
+        <v>69103000</v>
+      </c>
+      <c r="R96" s="12" t="str">
+        <f t="shared" si="40"/>
+        <v>환골 탈태 88단</v>
+      </c>
+      <c r="S96" s="12">
+        <f t="shared" si="12"/>
+        <v>88</v>
+      </c>
+      <c r="T96" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="U96" s="21">
+        <f t="shared" si="41"/>
+        <v>37.433155080213901</v>
+      </c>
+      <c r="V96" s="21">
+        <f>SUM($U$12:U96)</f>
+        <v>1927.8074866310155</v>
+      </c>
+      <c r="W96" s="21">
+        <f t="shared" si="42"/>
+        <v>4.7094476854307148</v>
+      </c>
+      <c r="X96" s="21">
+        <f t="shared" si="43"/>
+        <v>0.12580953102507766</v>
+      </c>
+      <c r="Y96" s="8">
+        <v>84000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C97" s="12">
         <v>88</v>
       </c>
@@ -8334,14 +9174,49 @@
         <f t="shared" si="32"/>
         <v>18800</v>
       </c>
-      <c r="O97" s="12"/>
-      <c r="P97" s="13"/>
-      <c r="Q97" s="12"/>
-      <c r="R97" s="12"/>
-      <c r="S97" s="12"/>
-      <c r="T97" s="12"/>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="O97" s="12">
+        <v>88</v>
+      </c>
+      <c r="P97" s="18">
+        <f t="shared" si="26"/>
+        <v>700000</v>
+      </c>
+      <c r="Q97" s="19">
+        <f t="shared" si="39"/>
+        <v>72285000</v>
+      </c>
+      <c r="R97" s="12" t="str">
+        <f t="shared" si="40"/>
+        <v>환골 탈태 89단</v>
+      </c>
+      <c r="S97" s="12">
+        <f t="shared" si="12"/>
+        <v>89</v>
+      </c>
+      <c r="T97" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="U97" s="21">
+        <f t="shared" si="41"/>
+        <v>37.433155080213901</v>
+      </c>
+      <c r="V97" s="21">
+        <f>SUM($U$12:U97)</f>
+        <v>1965.2406417112295</v>
+      </c>
+      <c r="W97" s="21">
+        <f t="shared" si="42"/>
+        <v>4.6047204897037757</v>
+      </c>
+      <c r="X97" s="21">
+        <f t="shared" si="43"/>
+        <v>0.12301181879637231</v>
+      </c>
+      <c r="Y97" s="8">
+        <v>86000</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C98" s="12">
         <v>89</v>
       </c>
@@ -8359,14 +9234,49 @@
         <f t="shared" si="32"/>
         <v>18900</v>
       </c>
-      <c r="O98" s="12"/>
-      <c r="P98" s="13"/>
-      <c r="Q98" s="12"/>
-      <c r="R98" s="12"/>
-      <c r="S98" s="12"/>
-      <c r="T98" s="12"/>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="O98" s="12">
+        <v>89</v>
+      </c>
+      <c r="P98" s="18">
+        <f t="shared" si="26"/>
+        <v>750000</v>
+      </c>
+      <c r="Q98" s="19">
+        <f t="shared" ref="Q98:Q108" si="44">ROUND(Q97+ROUNDDOWN(U98,0)*Y98,-3)</f>
+        <v>75805000</v>
+      </c>
+      <c r="R98" s="12" t="str">
+        <f t="shared" ref="R98:R108" si="45">T98&amp;" "&amp;S98&amp;"단"</f>
+        <v>환골 탈태 90단</v>
+      </c>
+      <c r="S98" s="12">
+        <f t="shared" si="12"/>
+        <v>90</v>
+      </c>
+      <c r="T98" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="U98" s="21">
+        <f t="shared" ref="U98:U108" si="46">(P98/$G$96)</f>
+        <v>40.106951871657756</v>
+      </c>
+      <c r="V98" s="21">
+        <f>SUM($U$12:U98)</f>
+        <v>2005.3475935828872</v>
+      </c>
+      <c r="W98" s="21">
+        <f t="shared" ref="W98:W108" si="47">(Q98-Q97)*100/Q97</f>
+        <v>4.8696133361001595</v>
+      </c>
+      <c r="X98" s="21">
+        <f t="shared" ref="X98:X108" si="48">W98/U98</f>
+        <v>0.12141569251343064</v>
+      </c>
+      <c r="Y98" s="8">
+        <v>88000</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C99" s="12">
         <v>90</v>
       </c>
@@ -8384,14 +9294,49 @@
         <f t="shared" si="32"/>
         <v>19000</v>
       </c>
-      <c r="O99" s="12"/>
-      <c r="P99" s="13"/>
-      <c r="Q99" s="12"/>
-      <c r="R99" s="12"/>
-      <c r="S99" s="12"/>
-      <c r="T99" s="12"/>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="O99" s="12">
+        <v>90</v>
+      </c>
+      <c r="P99" s="18">
+        <f t="shared" si="26"/>
+        <v>750000</v>
+      </c>
+      <c r="Q99" s="19">
+        <f t="shared" si="44"/>
+        <v>79405000</v>
+      </c>
+      <c r="R99" s="12" t="str">
+        <f t="shared" si="45"/>
+        <v>환골 탈태 91단</v>
+      </c>
+      <c r="S99" s="12">
+        <f t="shared" si="12"/>
+        <v>91</v>
+      </c>
+      <c r="T99" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="U99" s="21">
+        <f t="shared" si="46"/>
+        <v>40.106951871657756</v>
+      </c>
+      <c r="V99" s="21">
+        <f>SUM($U$12:U99)</f>
+        <v>2045.4545454545448</v>
+      </c>
+      <c r="W99" s="21">
+        <f t="shared" si="47"/>
+        <v>4.7490271090297478</v>
+      </c>
+      <c r="X99" s="21">
+        <f t="shared" si="48"/>
+        <v>0.11840907591847503</v>
+      </c>
+      <c r="Y99" s="8">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C100" s="12">
         <v>91</v>
       </c>
@@ -8409,14 +9354,49 @@
         <f t="shared" si="32"/>
         <v>19100</v>
       </c>
-      <c r="O100" s="12"/>
-      <c r="P100" s="13"/>
-      <c r="Q100" s="12"/>
-      <c r="R100" s="12"/>
-      <c r="S100" s="12"/>
-      <c r="T100" s="12"/>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="O100" s="12">
+        <v>91</v>
+      </c>
+      <c r="P100" s="18">
+        <f t="shared" si="26"/>
+        <v>750000</v>
+      </c>
+      <c r="Q100" s="19">
+        <f t="shared" si="44"/>
+        <v>83085000</v>
+      </c>
+      <c r="R100" s="12" t="str">
+        <f t="shared" si="45"/>
+        <v>환골 탈태 92단</v>
+      </c>
+      <c r="S100" s="12">
+        <f t="shared" si="12"/>
+        <v>92</v>
+      </c>
+      <c r="T100" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="U100" s="21">
+        <f t="shared" si="46"/>
+        <v>40.106951871657756</v>
+      </c>
+      <c r="V100" s="21">
+        <f>SUM($U$12:U100)</f>
+        <v>2085.5614973262027</v>
+      </c>
+      <c r="W100" s="21">
+        <f t="shared" si="47"/>
+        <v>4.6344688621623327</v>
+      </c>
+      <c r="X100" s="21">
+        <f t="shared" si="48"/>
+        <v>0.11555275696324749</v>
+      </c>
+      <c r="Y100" s="8">
+        <v>92000</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C101" s="12">
         <v>92</v>
       </c>
@@ -8434,14 +9414,49 @@
         <f t="shared" si="32"/>
         <v>19200</v>
       </c>
-      <c r="O101" s="12"/>
-      <c r="P101" s="13"/>
-      <c r="Q101" s="12"/>
-      <c r="R101" s="12"/>
-      <c r="S101" s="12"/>
-      <c r="T101" s="12"/>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="O101" s="12">
+        <v>92</v>
+      </c>
+      <c r="P101" s="18">
+        <f t="shared" si="26"/>
+        <v>750000</v>
+      </c>
+      <c r="Q101" s="19">
+        <f t="shared" si="44"/>
+        <v>86845000</v>
+      </c>
+      <c r="R101" s="12" t="str">
+        <f t="shared" si="45"/>
+        <v>환골 탈태 93단</v>
+      </c>
+      <c r="S101" s="12">
+        <f t="shared" si="12"/>
+        <v>93</v>
+      </c>
+      <c r="T101" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="U101" s="21">
+        <f t="shared" si="46"/>
+        <v>40.106951871657756</v>
+      </c>
+      <c r="V101" s="21">
+        <f>SUM($U$12:U101)</f>
+        <v>2125.6684491978604</v>
+      </c>
+      <c r="W101" s="21">
+        <f t="shared" si="47"/>
+        <v>4.5254859481254135</v>
+      </c>
+      <c r="X101" s="21">
+        <f t="shared" si="48"/>
+        <v>0.11283544963992698</v>
+      </c>
+      <c r="Y101" s="8">
+        <v>94000</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C102" s="12">
         <v>93</v>
       </c>
@@ -8459,14 +9474,49 @@
         <f t="shared" si="32"/>
         <v>19300</v>
       </c>
-      <c r="O102" s="12"/>
-      <c r="P102" s="13"/>
-      <c r="Q102" s="12"/>
-      <c r="R102" s="12"/>
-      <c r="S102" s="12"/>
-      <c r="T102" s="12"/>
-    </row>
-    <row r="103" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="O102" s="12">
+        <v>93</v>
+      </c>
+      <c r="P102" s="18">
+        <f t="shared" si="26"/>
+        <v>750000</v>
+      </c>
+      <c r="Q102" s="19">
+        <f t="shared" si="44"/>
+        <v>90685000</v>
+      </c>
+      <c r="R102" s="12" t="str">
+        <f t="shared" si="45"/>
+        <v>환골 탈태 94단</v>
+      </c>
+      <c r="S102" s="12">
+        <f t="shared" si="12"/>
+        <v>94</v>
+      </c>
+      <c r="T102" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="U102" s="21">
+        <f t="shared" si="46"/>
+        <v>40.106951871657756</v>
+      </c>
+      <c r="V102" s="21">
+        <f>SUM($U$12:U102)</f>
+        <v>2165.775401069518</v>
+      </c>
+      <c r="W102" s="21">
+        <f t="shared" si="47"/>
+        <v>4.4216707927917556</v>
+      </c>
+      <c r="X102" s="21">
+        <f t="shared" si="48"/>
+        <v>0.1102469917669411</v>
+      </c>
+      <c r="Y102" s="8">
+        <v>96000</v>
+      </c>
+    </row>
+    <row r="103" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C103" s="12">
         <v>94</v>
       </c>
@@ -8484,14 +9534,49 @@
         <f t="shared" si="32"/>
         <v>19400</v>
       </c>
-      <c r="O103" s="12"/>
-      <c r="P103" s="13"/>
-      <c r="Q103" s="12"/>
-      <c r="R103" s="12"/>
-      <c r="S103" s="12"/>
-      <c r="T103" s="12"/>
-    </row>
-    <row r="104" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="O103" s="12">
+        <v>94</v>
+      </c>
+      <c r="P103" s="18">
+        <f t="shared" si="26"/>
+        <v>750000</v>
+      </c>
+      <c r="Q103" s="19">
+        <f t="shared" si="44"/>
+        <v>94605000</v>
+      </c>
+      <c r="R103" s="12" t="str">
+        <f t="shared" si="45"/>
+        <v>환골 탈태 95단</v>
+      </c>
+      <c r="S103" s="12">
+        <f t="shared" ref="S103:S108" si="49">S102+1</f>
+        <v>95</v>
+      </c>
+      <c r="T103" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="U103" s="21">
+        <f t="shared" si="46"/>
+        <v>40.106951871657756</v>
+      </c>
+      <c r="V103" s="21">
+        <f>SUM($U$12:U103)</f>
+        <v>2205.8823529411757</v>
+      </c>
+      <c r="W103" s="21">
+        <f t="shared" si="47"/>
+        <v>4.322655345426476</v>
+      </c>
+      <c r="X103" s="21">
+        <f t="shared" si="48"/>
+        <v>0.10777820661263346</v>
+      </c>
+      <c r="Y103" s="8">
+        <v>98000</v>
+      </c>
+    </row>
+    <row r="104" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C104" s="12">
         <v>95</v>
       </c>
@@ -8509,46 +9594,221 @@
         <f t="shared" si="32"/>
         <v>19500</v>
       </c>
-      <c r="O104" s="12"/>
-      <c r="P104" s="13"/>
-      <c r="Q104" s="12"/>
-      <c r="R104" s="12"/>
-      <c r="S104" s="12"/>
-      <c r="T104" s="12"/>
-    </row>
-    <row r="105" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="O105" s="12"/>
-      <c r="P105" s="13"/>
-      <c r="Q105" s="12"/>
-      <c r="R105" s="12"/>
-      <c r="S105" s="12"/>
-      <c r="T105" s="12"/>
-    </row>
-    <row r="106" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="O106" s="12"/>
-      <c r="P106" s="13"/>
-      <c r="Q106" s="12"/>
-      <c r="R106" s="12"/>
-      <c r="S106" s="12"/>
-      <c r="T106" s="12"/>
-    </row>
-    <row r="107" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="O107" s="12"/>
-      <c r="P107" s="13"/>
-      <c r="Q107" s="12"/>
-      <c r="R107" s="12"/>
-      <c r="S107" s="12"/>
-      <c r="T107" s="12"/>
-    </row>
-    <row r="108" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="O108" s="12"/>
-      <c r="P108" s="13"/>
-      <c r="Q108" s="12"/>
-      <c r="R108" s="12"/>
-      <c r="S108" s="12"/>
-      <c r="T108" s="12"/>
-    </row>
-    <row r="109" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="O104" s="12">
+        <v>95</v>
+      </c>
+      <c r="P104" s="18">
+        <f t="shared" si="26"/>
+        <v>750000</v>
+      </c>
+      <c r="Q104" s="19">
+        <f t="shared" si="44"/>
+        <v>98605000</v>
+      </c>
+      <c r="R104" s="12" t="str">
+        <f t="shared" si="45"/>
+        <v>환골 탈태 96단</v>
+      </c>
+      <c r="S104" s="12">
+        <f t="shared" si="49"/>
+        <v>96</v>
+      </c>
+      <c r="T104" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="U104" s="21">
+        <f t="shared" si="46"/>
+        <v>40.106951871657756</v>
+      </c>
+      <c r="V104" s="21">
+        <f>SUM($U$12:U104)</f>
+        <v>2245.9893048128333</v>
+      </c>
+      <c r="W104" s="21">
+        <f t="shared" si="47"/>
+        <v>4.2281063368743723</v>
+      </c>
+      <c r="X104" s="21">
+        <f t="shared" si="48"/>
+        <v>0.10542078466606768</v>
+      </c>
+      <c r="Y104" s="8">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="105" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="O105" s="12">
+        <v>96</v>
+      </c>
+      <c r="P105" s="18">
+        <f t="shared" si="26"/>
+        <v>750000</v>
+      </c>
+      <c r="Q105" s="19">
+        <f t="shared" si="44"/>
+        <v>102685000</v>
+      </c>
+      <c r="R105" s="12" t="str">
+        <f t="shared" si="45"/>
+        <v>환골 탈태 97단</v>
+      </c>
+      <c r="S105" s="12">
+        <f t="shared" si="49"/>
+        <v>97</v>
+      </c>
+      <c r="T105" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="U105" s="21">
+        <f t="shared" si="46"/>
+        <v>40.106951871657756</v>
+      </c>
+      <c r="V105" s="21">
+        <f>SUM($U$12:U105)</f>
+        <v>2286.096256684491</v>
+      </c>
+      <c r="W105" s="21">
+        <f t="shared" si="47"/>
+        <v>4.137721210891943</v>
+      </c>
+      <c r="X105" s="21">
+        <f t="shared" si="48"/>
+        <v>0.10316718219157243</v>
+      </c>
+      <c r="Y105" s="8">
+        <v>102000</v>
+      </c>
+    </row>
+    <row r="106" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="O106" s="12">
+        <v>97</v>
+      </c>
+      <c r="P106" s="18">
+        <f t="shared" si="26"/>
+        <v>750000</v>
+      </c>
+      <c r="Q106" s="19">
+        <f t="shared" si="44"/>
+        <v>106845000</v>
+      </c>
+      <c r="R106" s="12" t="str">
+        <f t="shared" si="45"/>
+        <v>환골 탈태 98단</v>
+      </c>
+      <c r="S106" s="12">
+        <f t="shared" si="49"/>
+        <v>98</v>
+      </c>
+      <c r="T106" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="U106" s="21">
+        <f t="shared" si="46"/>
+        <v>40.106951871657756</v>
+      </c>
+      <c r="V106" s="21">
+        <f>SUM($U$12:U106)</f>
+        <v>2326.2032085561486</v>
+      </c>
+      <c r="W106" s="21">
+        <f t="shared" si="47"/>
+        <v>4.0512246189803767</v>
+      </c>
+      <c r="X106" s="21">
+        <f t="shared" si="48"/>
+        <v>0.10101053383324406</v>
+      </c>
+      <c r="Y106" s="8">
+        <v>104000</v>
+      </c>
+    </row>
+    <row r="107" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="O107" s="12">
+        <v>98</v>
+      </c>
+      <c r="P107" s="18">
+        <f t="shared" si="26"/>
+        <v>800000</v>
+      </c>
+      <c r="Q107" s="19">
+        <f t="shared" si="44"/>
+        <v>111297000</v>
+      </c>
+      <c r="R107" s="12" t="str">
+        <f t="shared" si="45"/>
+        <v>환골 탈태 99단</v>
+      </c>
+      <c r="S107" s="12">
+        <f t="shared" si="49"/>
+        <v>99</v>
+      </c>
+      <c r="T107" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="U107" s="21">
+        <f t="shared" si="46"/>
+        <v>42.780748663101605</v>
+      </c>
+      <c r="V107" s="21">
+        <f>SUM($U$12:U107)</f>
+        <v>2368.9839572192504</v>
+      </c>
+      <c r="W107" s="21">
+        <f t="shared" si="47"/>
+        <v>4.1667836585708269</v>
+      </c>
+      <c r="X107" s="21">
+        <f t="shared" si="48"/>
+        <v>9.7398568019093079E-2</v>
+      </c>
+      <c r="Y107" s="8">
+        <v>106000</v>
+      </c>
+    </row>
+    <row r="108" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="O108" s="12">
+        <v>99</v>
+      </c>
+      <c r="P108" s="18">
+        <f t="shared" si="26"/>
+        <v>800000</v>
+      </c>
+      <c r="Q108" s="19">
+        <f t="shared" si="44"/>
+        <v>115833000</v>
+      </c>
+      <c r="R108" s="12" t="str">
+        <f t="shared" si="45"/>
+        <v>환골 탈태 100단</v>
+      </c>
+      <c r="S108" s="12">
+        <f t="shared" si="49"/>
+        <v>100</v>
+      </c>
+      <c r="T108" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="U108" s="21">
+        <f t="shared" si="46"/>
+        <v>42.780748663101605</v>
+      </c>
+      <c r="V108" s="21">
+        <f>SUM($U$12:U108)</f>
+        <v>2411.7647058823522</v>
+      </c>
+      <c r="W108" s="21">
+        <f t="shared" si="47"/>
+        <v>4.0755815520633982</v>
+      </c>
+      <c r="X108" s="21">
+        <f t="shared" si="48"/>
+        <v>9.5266718779481938E-2</v>
+      </c>
+      <c r="Y108" s="8">
+        <v>108000</v>
+      </c>
+    </row>
+    <row r="109" spans="3:25" x14ac:dyDescent="0.3">
       <c r="O109" s="12"/>
       <c r="P109" s="13"/>
       <c r="Q109" s="12"/>
@@ -8556,7 +9816,7 @@
       <c r="S109" s="12"/>
       <c r="T109" s="12"/>
     </row>
-    <row r="110" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="110" spans="3:25" x14ac:dyDescent="0.3">
       <c r="O110" s="12"/>
       <c r="P110" s="13"/>
       <c r="Q110" s="12"/>
@@ -8564,7 +9824,7 @@
       <c r="S110" s="12"/>
       <c r="T110" s="12"/>
     </row>
-    <row r="111" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="111" spans="3:25" x14ac:dyDescent="0.3">
       <c r="O111" s="12"/>
       <c r="P111" s="13"/>
       <c r="Q111" s="12"/>
@@ -8572,7 +9832,7 @@
       <c r="S111" s="12"/>
       <c r="T111" s="12"/>
     </row>
-    <row r="112" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="112" spans="3:25" x14ac:dyDescent="0.3">
       <c r="O112" s="12"/>
       <c r="P112" s="13"/>
       <c r="Q112" s="12"/>
